--- a/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="15" windowWidth="28035" windowHeight="12090"/>
+    <workbookView xWindow="3105" yWindow="465" windowWidth="28035" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="1" r:id="rId1"/>
     <sheet name="4x4" sheetId="2" r:id="rId2"/>
     <sheet name="rand" sheetId="4" r:id="rId3"/>
+    <sheet name="3x3(2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="56">
   <si>
     <t>c=</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:AG17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -26180,55 +26181,55 @@
       </c>
       <c r="B1">
         <f t="shared" ref="B1:E10" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <f t="shared" ref="A2:A10" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
@@ -26236,17 +26237,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
@@ -26254,7 +26255,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
@@ -26264,133 +26265,5756 @@
     <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9:AG11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="array" ref="K3:M5">MMULT(I3:I5,TRANSPOSE(I3:I5))</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>1-2*K3</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:Q4" si="0">-2*L3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="array" ref="S3:U5">MMULT(O3:Q5,A3:C5)</f>
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>A4</f>
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f>SQRT(E4*E4+E5*E5)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="G4">
+        <f>E4+F4</f>
+        <v>8.1231056256176615</v>
+      </c>
+      <c r="H4">
+        <f>SQRT(G4*G4+G5*G5)</f>
+        <v>8.184426980854635</v>
+      </c>
+      <c r="I4">
+        <f>G4/H4</f>
+        <v>0.99250755668290291</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.98507125007266572</v>
+      </c>
+      <c r="M4">
+        <v>0.12126781251816644</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:P5" si="1">-2*K4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>1-2*L4</f>
+        <v>-0.97014250014533143</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>-0.24253562503633289</v>
+      </c>
+      <c r="S4">
+        <v>-4.1231056256176588</v>
+      </c>
+      <c r="T4">
+        <v>-1.4552137502179971</v>
+      </c>
+      <c r="U4">
+        <v>-2.1828206253269959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>E5</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>G5/H4</f>
+        <v>0.12218326369570444</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.12126781251816644</v>
+      </c>
+      <c r="M5">
+        <v>1.4928749927334046E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>-0.24253562503633289</v>
+      </c>
+      <c r="Q5">
+        <f>1-2*M5</f>
+        <v>0.97014250014533188</v>
+      </c>
+      <c r="S5">
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="T5">
+        <v>1.6977493752543309</v>
+      </c>
+      <c r="U5">
+        <v>0.4850712500726661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9">
+        <v>-0.23678940104955126</v>
+      </c>
+      <c r="B9">
+        <v>6.0073509615214959E-2</v>
+      </c>
+      <c r="C9">
+        <v>-5.2281770299375747</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>SQRT(A9*A9+A10*A10)</f>
+        <v>3.8501226730447295</v>
+      </c>
+      <c r="H9">
+        <f>F10</f>
+        <v>-6.1501780893203323E-2</v>
+      </c>
+      <c r="I9">
+        <f>-F11</f>
+        <v>-0.99810697369919443</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="array" ref="L9:N11">MMULT(H9:J11,A9:C11)</f>
+        <v>3.8501226730447291</v>
+      </c>
+      <c r="M9">
+        <v>7.1851022573214181</v>
+      </c>
+      <c r="N9">
+        <v>-8.5634987942720553</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <f>SQRT(M10*M10+M11*M11)</f>
+        <v>0.85758064480905549</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="array" ref="W9:Y11">MMULT(S9:U11,L9:N11)</f>
+        <v>3.8501226730447291</v>
+      </c>
+      <c r="X9">
+        <v>7.1851022573214181</v>
+      </c>
+      <c r="Y9">
+        <v>-8.5634987942720553</v>
+      </c>
+      <c r="AA9">
+        <f t="array" ref="AA9:AC11">MMULT(W9:Y11,TRANSPOSE(H9:J11))</f>
+        <v>-7.4082900708238819</v>
+      </c>
+      <c r="AB9">
+        <v>3.4009377048382849</v>
+      </c>
+      <c r="AC9">
+        <v>-8.5634987942720553</v>
+      </c>
+      <c r="AE9">
+        <f t="array" ref="AE9:AG11">MMULT(AA9:AC11,TRANSPOSE(S9:U11))</f>
+        <v>-7.4082900708238819</v>
+      </c>
+      <c r="AF9">
+        <v>-4.9418968485516066</v>
+      </c>
+      <c r="AG9">
+        <v>-7.7767309590833449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10">
+        <v>-3.8428342895633278</v>
+      </c>
+      <c r="B10">
+        <v>-7.2024312769843348</v>
+      </c>
+      <c r="C10">
+        <v>8.9018925090847958</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>A9/F9</f>
+        <v>-6.1501780893203323E-2</v>
+      </c>
+      <c r="H10">
+        <f>F11</f>
+        <v>0.99810697369919443</v>
+      </c>
+      <c r="I10">
+        <f>F10</f>
+        <v>-6.1501780893203323E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>-2.7755575615628914E-17</v>
+      </c>
+      <c r="M10">
+        <v>0.50292213917697681</v>
+      </c>
+      <c r="N10">
+        <v>-5.7657621959432159</v>
+      </c>
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>M10/Q9</f>
+        <v>0.58644296862478151</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>Q10</f>
+        <v>0.58644296862478151</v>
+      </c>
+      <c r="U10">
+        <f>-Q11</f>
+        <v>0.80999052127204152</v>
+      </c>
+      <c r="W10">
+        <v>-1.6277062159919018E-17</v>
+      </c>
+      <c r="X10">
+        <v>0.85758064480905549</v>
+      </c>
+      <c r="Y10">
+        <v>-9.8317526245800533</v>
+      </c>
+      <c r="AA10">
+        <v>-0.85595722209337011</v>
+      </c>
+      <c r="AB10">
+        <v>-5.2742736915298571E-2</v>
+      </c>
+      <c r="AC10">
+        <v>-9.8317526245800533</v>
+      </c>
+      <c r="AE10">
+        <v>-0.85595722209337011</v>
+      </c>
+      <c r="AF10">
+        <v>-7.9945570406113635</v>
+      </c>
+      <c r="AG10">
+        <v>-5.7230410789758768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.69463219352170036</v>
+      </c>
+      <c r="C11">
+        <v>-7.9636264334013589</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>-A10/F9</f>
+        <v>0.99810697369919443</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.69463219352170036</v>
+      </c>
+      <c r="N11">
+        <v>-7.9636264334013589</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>-M11/Q9</f>
+        <v>-0.80999052127204152</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>Q11</f>
+        <v>-0.80999052127204152</v>
+      </c>
+      <c r="U11">
+        <f>Q10</f>
+        <v>0.58644296862478151</v>
+      </c>
+      <c r="W11">
+        <v>2.2481753161108828E-17</v>
+      </c>
+      <c r="X11">
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="Y11">
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="AA11">
+        <v>-5.6788735018998655E-17</v>
+      </c>
+      <c r="AB11">
+        <v>1.9025159950932341E-17</v>
+      </c>
+      <c r="AC11">
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="AE11">
+        <v>-5.6788735018998655E-17</v>
+      </c>
+      <c r="AF11">
+        <v>2.1694054747466336E-15</v>
+      </c>
+      <c r="AG11">
+        <v>1.547187768126286E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15">
+        <f>AE9</f>
+        <v>-7.4082900708238819</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:C17" si="2">AF9</f>
+        <v>-4.9418968485516066</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-7.7767309590833449</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f>SQRT(A15*A15+A16*A16)</f>
+        <v>7.4575749771304025</v>
+      </c>
+      <c r="H15">
+        <f>F16</f>
+        <v>-0.99339129590280228</v>
+      </c>
+      <c r="I15">
+        <f>-F17</f>
+        <v>-0.11477688453931355</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="array" ref="L15:N17">MMULT(H15:J17,A15:C17)</f>
+        <v>7.4575749771304007</v>
+      </c>
+      <c r="M15">
+        <v>5.8268276649938615</v>
+      </c>
+      <c r="N15">
+        <v>8.382209670466608</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f>SQRT(M16*M16+M17*M17)</f>
+        <v>7.3745078547503891</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="array" ref="W15:Y17">MMULT(S15:U17,L15:N17)</f>
+        <v>7.4575749771304007</v>
+      </c>
+      <c r="X15">
+        <v>5.8268276649938615</v>
+      </c>
+      <c r="Y15">
+        <v>8.382209670466608</v>
+      </c>
+      <c r="AA15">
+        <f t="array" ref="AA15:AC17">MMULT(W15:Y17,TRANSPOSE(H15:J17))</f>
+        <v>-8.0770751969593579</v>
+      </c>
+      <c r="AB15">
+        <v>-4.932362663037182</v>
+      </c>
+      <c r="AC15">
+        <v>8.382209670466608</v>
+      </c>
+      <c r="AE15">
+        <f t="array" ref="AE15:AG17">MMULT(AA15:AC17,TRANSPOSE(S15:U17))</f>
+        <v>-8.0770751969593579</v>
+      </c>
+      <c r="AF15">
+        <v>-4.9323626630371793</v>
+      </c>
+      <c r="AG15">
+        <v>8.3822096704666098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16">
+        <f t="shared" ref="A16:A17" si="3">AE10</f>
+        <v>-0.85595722209337011</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>-7.9945570406113635</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-5.7230410789758768</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>A15/F15</f>
+        <v>-0.99339129590280228</v>
+      </c>
+      <c r="H16">
+        <f>F17</f>
+        <v>0.11477688453931355</v>
+      </c>
+      <c r="I16">
+        <f>F16</f>
+        <v>-0.99339129590280228</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.3745078547503891</v>
+      </c>
+      <c r="N16">
+        <v>4.7926302425648037</v>
+      </c>
+      <c r="P16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>M16/Q15</f>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>Q16</f>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f>-Q17</f>
+        <v>2.9417630538547486E-16</v>
+      </c>
+      <c r="W16">
+        <v>-1.670590025540376E-32</v>
+      </c>
+      <c r="X16">
+        <v>7.3745078547503891</v>
+      </c>
+      <c r="Y16">
+        <v>4.7926302425648037</v>
+      </c>
+      <c r="AA16">
+        <v>-0.84642303657894624</v>
+      </c>
+      <c r="AB16">
+        <v>-7.3257719144758831</v>
+      </c>
+      <c r="AC16">
+        <v>4.7926302425648037</v>
+      </c>
+      <c r="AE16">
+        <v>-0.84642303657894624</v>
+      </c>
+      <c r="AF16">
+        <v>-7.3257719144758813</v>
+      </c>
+      <c r="AG16">
+        <v>4.7926302425648055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>-5.6788735018998655E-17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>2.1694054747466336E-15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>1.547187768126286E-15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>-A16/F15</f>
+        <v>0.11477688453931355</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>-5.6788735018998655E-17</v>
+      </c>
+      <c r="M17">
+        <v>2.1694054747466336E-15</v>
+      </c>
+      <c r="N17">
+        <v>1.547187768126286E-15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f>-M17/Q15</f>
+        <v>-2.9417630538547486E-16</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>Q17</f>
+        <v>-2.9417630538547486E-16</v>
+      </c>
+      <c r="U17">
+        <f>Q16</f>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>-5.6788735018998655E-17</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1.3730951028987971E-16</v>
+      </c>
+      <c r="AA17">
+        <v>5.6413435073203924E-17</v>
+      </c>
+      <c r="AB17">
+        <v>-6.5180340824092803E-18</v>
+      </c>
+      <c r="AC17">
+        <v>1.3730951028987971E-16</v>
+      </c>
+      <c r="AE17">
+        <v>5.6413435073203924E-17</v>
+      </c>
+      <c r="AF17">
+        <v>-6.5180340824092403E-18</v>
+      </c>
+      <c r="AG17">
+        <v>1.3730951028987971E-16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21">
+        <f>AE15</f>
+        <v>-8.0770751969593579</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:C23" si="4">AF15</f>
+        <v>-4.9323626630371793</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>8.3822096704666098</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>SQRT(A21*A21+A22*A22)</f>
+        <v>8.1213038173797916</v>
+      </c>
+      <c r="H21">
+        <f>F22</f>
+        <v>-0.99455400002081151</v>
+      </c>
+      <c r="I21">
+        <f>-F23</f>
+        <v>-0.1042225553448179</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="array" ref="L21:N23">MMULT(H21:J23,A21:C23)</f>
+        <v>8.1213038173797916</v>
+      </c>
+      <c r="M21">
+        <v>5.6690116848769039</v>
+      </c>
+      <c r="N21">
+        <v>-8.8360603274786538</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <f>SQRT(M22*M22+M23*M23)</f>
+        <v>6.7718123201529998</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="array" ref="W21:Y23">MMULT(S21:U23,L21:N23)</f>
+        <v>8.1213038173797916</v>
+      </c>
+      <c r="X21">
+        <v>5.6690116848769039</v>
+      </c>
+      <c r="Y21">
+        <v>-8.8360603274786538</v>
+      </c>
+      <c r="AA21">
+        <f t="array" ref="AA21:AC23">MMULT(W21:Y23,TRANSPOSE(H21:J23))</f>
+        <v>-8.6679140810368605</v>
+      </c>
+      <c r="AB21">
+        <v>-4.7917152107800991</v>
+      </c>
+      <c r="AC21">
+        <v>-8.8360603274786538</v>
+      </c>
+      <c r="AE21">
+        <f t="array" ref="AE21:AG23">MMULT(AA21:AC23,TRANSPOSE(S21:U23))</f>
+        <v>-8.6679140810368605</v>
+      </c>
+      <c r="AF21">
+        <v>-4.7917152107800991</v>
+      </c>
+      <c r="AG21">
+        <v>-8.8360603274786538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22">
+        <f t="shared" ref="A22:A23" si="5">AE16</f>
+        <v>-0.84642303657894624</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>-7.3257719144758813</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>4.7926302425648055</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>A21/F21</f>
+        <v>-0.99455400002081151</v>
+      </c>
+      <c r="H22">
+        <f>F23</f>
+        <v>0.1042225553448179</v>
+      </c>
+      <c r="I22">
+        <f>F22</f>
+        <v>-0.99455400002081151</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>6.7718123201529998</v>
+      </c>
+      <c r="N22">
+        <v>-3.8929142670714656</v>
+      </c>
+      <c r="P22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>M22/Q21</f>
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>Q22</f>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f>-Q23</f>
+        <v>-9.6252432498926285E-19</v>
+      </c>
+      <c r="W22">
+        <v>-5.4299303514161214E-35</v>
+      </c>
+      <c r="X22">
+        <v>6.7718123201529998</v>
+      </c>
+      <c r="Y22">
+        <v>-3.8929142670714656</v>
+      </c>
+      <c r="AA22">
+        <v>-0.70577558432186582</v>
+      </c>
+      <c r="AB22">
+        <v>-6.7349330303983779</v>
+      </c>
+      <c r="AC22">
+        <v>-3.8929142670714656</v>
+      </c>
+      <c r="AE22">
+        <v>-0.70577558432186582</v>
+      </c>
+      <c r="AF22">
+        <v>-6.7349330303983779</v>
+      </c>
+      <c r="AG22">
+        <v>-3.8929142670714656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23">
+        <f t="shared" si="5"/>
+        <v>5.6413435073203924E-17</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>-6.5180340824092403E-18</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>1.3730951028987971E-16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>-A22/F21</f>
+        <v>0.1042225553448179</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>5.6413435073203924E-17</v>
+      </c>
+      <c r="M23">
+        <v>-6.5180340824092403E-18</v>
+      </c>
+      <c r="N23">
+        <v>1.3730951028987971E-16</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f>-M23/Q21</f>
+        <v>9.6252432498926285E-19</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>Q23</f>
+        <v>9.6252432498926285E-19</v>
+      </c>
+      <c r="U23">
+        <f>Q22</f>
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>5.6413435073203924E-17</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1.3356248561272566E-16</v>
+      </c>
+      <c r="AA23">
+        <v>-5.6106207506969309E-17</v>
+      </c>
+      <c r="AB23">
+        <v>5.8795523591082875E-18</v>
+      </c>
+      <c r="AC23">
+        <v>1.3356248561272566E-16</v>
+      </c>
+      <c r="AE23">
+        <v>-5.6106207506969309E-17</v>
+      </c>
+      <c r="AF23">
+        <v>5.8795523591082875E-18</v>
+      </c>
+      <c r="AG23">
+        <v>1.3356248561272566E-16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27">
+        <f>AE21</f>
+        <v>-8.6679140810368605</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:C29" si="6">AF21</f>
+        <v>-4.7917152107800991</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>-8.8360603274786538</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <f>SQRT(A27*A27+A28*A28)</f>
+        <v>8.6966001225572036</v>
+      </c>
+      <c r="H27">
+        <f>F28</f>
+        <v>-0.99670146481198585</v>
+      </c>
+      <c r="I27">
+        <f>-F29</f>
+        <v>-8.1155345120586628E-2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="array" ref="L27:N29">MMULT(H27:J29,A27:C29)</f>
+        <v>8.6966001225572018</v>
+      </c>
+      <c r="M27">
+        <v>5.3224853839924169</v>
+      </c>
+      <c r="N27">
+        <v>9.1228450724340906</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <f>SQRT(M28*M28+M29*M29)</f>
+        <v>6.3238443151582668</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="array" ref="W27:Y29">MMULT(S27:U29,L27:N29)</f>
+        <v>8.6966001225572018</v>
+      </c>
+      <c r="X27">
+        <v>5.3224853839924169</v>
+      </c>
+      <c r="Y27">
+        <v>9.1228450724340906</v>
+      </c>
+      <c r="AA27">
+        <f t="array" ref="AA27:AC29">MMULT(W27:Y29,TRANSPOSE(H27:J29))</f>
+        <v>-9.0998622192740406</v>
+      </c>
+      <c r="AB27">
+        <v>-4.5991533943437615</v>
+      </c>
+      <c r="AC27">
+        <v>9.1228450724340906</v>
+      </c>
+      <c r="AE27">
+        <f t="array" ref="AE27:AG29">MMULT(AA27:AC29,TRANSPOSE(S27:U29))</f>
+        <v>-9.0998622192740406</v>
+      </c>
+      <c r="AF27">
+        <v>-4.5991533943437615</v>
+      </c>
+      <c r="AG27">
+        <v>9.1228450724340906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28">
+        <f t="shared" ref="A28:A29" si="7">AE22</f>
+        <v>-0.70577558432186582</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>-6.7349330303983779</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>-3.8929142670714656</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>A27/F27</f>
+        <v>-0.99670146481198585</v>
+      </c>
+      <c r="H28">
+        <f>F29</f>
+        <v>8.1155345120586628E-2</v>
+      </c>
+      <c r="I28">
+        <f>F28</f>
+        <v>-0.99670146481198585</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>6.3238443151582668</v>
+      </c>
+      <c r="N28">
+        <v>3.162979826994754</v>
+      </c>
+      <c r="P28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>M28/Q27</f>
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>Q28</f>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f>-Q29</f>
+        <v>9.2974337540457621E-19</v>
+      </c>
+      <c r="W28">
+        <v>-5.2164374748679218E-35</v>
+      </c>
+      <c r="X28">
+        <v>6.3238443151582668</v>
+      </c>
+      <c r="Y28">
+        <v>3.162979826994754</v>
+      </c>
+      <c r="AA28">
+        <v>-0.51321376788552897</v>
+      </c>
+      <c r="AB28">
+        <v>-6.3029848921611942</v>
+      </c>
+      <c r="AC28">
+        <v>3.162979826994754</v>
+      </c>
+      <c r="AE28">
+        <v>-0.51321376788552897</v>
+      </c>
+      <c r="AF28">
+        <v>-6.3029848921611942</v>
+      </c>
+      <c r="AG28">
+        <v>3.162979826994754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29">
+        <f t="shared" si="7"/>
+        <v>-5.6106207506969309E-17</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>5.8795523591082875E-18</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>1.3356248561272566E-16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>-A28/F27</f>
+        <v>8.1155345120586628E-2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>-5.6106207506969309E-17</v>
+      </c>
+      <c r="M29">
+        <v>5.8795523591082875E-18</v>
+      </c>
+      <c r="N29">
+        <v>1.3356248561272566E-16</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f>-M29/Q27</f>
+        <v>-9.2974337540457621E-19</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>Q29</f>
+        <v>-9.2974337540457621E-19</v>
+      </c>
+      <c r="U29">
+        <f>Q28</f>
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>-5.6106207506969309E-17</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1.3062172607203897E-16</v>
+      </c>
+      <c r="AA29">
+        <v>5.5921139207241551E-17</v>
+      </c>
+      <c r="AB29">
+        <v>-4.5533186336353428E-18</v>
+      </c>
+      <c r="AC29">
+        <v>1.3062172607203897E-16</v>
+      </c>
+      <c r="AE29">
+        <v>5.5921139207241551E-17</v>
+      </c>
+      <c r="AF29">
+        <v>-4.5533186336353428E-18</v>
+      </c>
+      <c r="AG29">
+        <v>1.3062172607203897E-16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33">
+        <f>AE27</f>
+        <v>-9.0998622192740406</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:C35" si="8">AF27</f>
+        <v>-4.5991533943437615</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="8"/>
+        <v>9.1228450724340906</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f>SQRT(A33*A33+A34*A34)</f>
+        <v>9.1143228372336225</v>
+      </c>
+      <c r="H33">
+        <f>F34</f>
+        <v>-0.9984134182848442</v>
+      </c>
+      <c r="I33">
+        <f>-F35</f>
+        <v>-5.6308491267059342E-2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="array" ref="L33:N35">MMULT(H33:J35,A33:C35)</f>
+        <v>9.1143228372336207</v>
+      </c>
+      <c r="M33">
+        <v>4.9467680314197642</v>
+      </c>
+      <c r="N33">
+        <v>-9.286473555218187</v>
+      </c>
+      <c r="P33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <f>SQRT(M34*M34+M35*M35)</f>
+        <v>6.0340133028391163</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="array" ref="W33:Y35">MMULT(S33:U35,L33:N35)</f>
+        <v>9.1143228372336207</v>
+      </c>
+      <c r="X33">
+        <v>4.9467680314197642</v>
+      </c>
+      <c r="Y33">
+        <v>-9.286473555218187</v>
+      </c>
+      <c r="AA33">
+        <f t="array" ref="AA33:AC35">MMULT(W33:Y35,TRANSPOSE(H33:J35))</f>
+        <v>-9.3784072637714075</v>
+      </c>
+      <c r="AB33">
+        <v>-4.4257058118264672</v>
+      </c>
+      <c r="AC33">
+        <v>-9.286473555218187</v>
+      </c>
+      <c r="AE33">
+        <f t="array" ref="AE33:AG35">MMULT(AA33:AC35,TRANSPOSE(S33:U35))</f>
+        <v>-9.3784072637714075</v>
+      </c>
+      <c r="AF33">
+        <v>-4.4257058118264672</v>
+      </c>
+      <c r="AG33">
+        <v>-9.286473555218187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34">
+        <f t="shared" ref="A34:A35" si="9">AE28</f>
+        <v>-0.51321376788552897</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="8"/>
+        <v>-6.3029848921611942</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="8"/>
+        <v>3.162979826994754</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>A33/F33</f>
+        <v>-0.9984134182848442</v>
+      </c>
+      <c r="H34">
+        <f>F35</f>
+        <v>5.6308491267059342E-2</v>
+      </c>
+      <c r="I34">
+        <f>F34</f>
+        <v>-0.9984134182848442</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>6.0340133028391163</v>
+      </c>
+      <c r="N34">
+        <v>-2.6442678589439472</v>
+      </c>
+      <c r="P34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>M34/Q33</f>
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>Q34</f>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f>-Q35</f>
+        <v>-7.5460865018194795E-19</v>
+      </c>
+      <c r="W34">
+        <v>-4.2198575373813353E-35</v>
+      </c>
+      <c r="X34">
+        <v>6.0340133028391163</v>
+      </c>
+      <c r="Y34">
+        <v>-2.6442678589439472</v>
+      </c>
+      <c r="AA34">
+        <v>-0.33976618536823627</v>
+      </c>
+      <c r="AB34">
+        <v>-6.0244398476638246</v>
+      </c>
+      <c r="AC34">
+        <v>-2.6442678589439472</v>
+      </c>
+      <c r="AE34">
+        <v>-0.33976618536823627</v>
+      </c>
+      <c r="AF34">
+        <v>-6.0244398476638246</v>
+      </c>
+      <c r="AG34">
+        <v>-2.6442678589439472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35">
+        <f t="shared" si="9"/>
+        <v>5.5921139207241551E-17</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="8"/>
+        <v>-4.5533186336353428E-18</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="8"/>
+        <v>1.3062172607203897E-16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f>-A34/F33</f>
+        <v>5.6308491267059342E-2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>5.5921139207241551E-17</v>
+      </c>
+      <c r="M35">
+        <v>-4.5533186336353428E-18</v>
+      </c>
+      <c r="N35">
+        <v>1.3062172607203897E-16</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <f>-M35/Q33</f>
+        <v>7.5460865018194795E-19</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f>Q35</f>
+        <v>7.5460865018194795E-19</v>
+      </c>
+      <c r="U35">
+        <f>Q34</f>
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>5.5921139207241551E-17</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1.2862633867228177E-16</v>
+      </c>
+      <c r="AA35">
+        <v>-5.5832415750284654E-17</v>
+      </c>
+      <c r="AB35">
+        <v>3.1488349786949708E-18</v>
+      </c>
+      <c r="AC35">
+        <v>1.2862633867228177E-16</v>
+      </c>
+      <c r="AE35">
+        <v>-5.5832415750284654E-17</v>
+      </c>
+      <c r="AF35">
+        <v>3.1488349786949708E-18</v>
+      </c>
+      <c r="AG35">
+        <v>1.2862633867228177E-16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="A39">
+        <f>AE33</f>
+        <v>-9.3784072637714075</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:C41" si="10">AF33</f>
+        <v>-4.4257058118264672</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="10"/>
+        <v>-9.286473555218187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f>SQRT(A39*A39+A40*A40)</f>
+        <v>9.3845598653255973</v>
+      </c>
+      <c r="H39">
+        <f>F40</f>
+        <v>-0.99934439103778083</v>
+      </c>
+      <c r="I39">
+        <f>-F41</f>
+        <v>-3.6204807710121426E-2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="array" ref="L39:N41">MMULT(H39:J41,A39:C41)</f>
+        <v>9.3845598653255955</v>
+      </c>
+      <c r="M39">
+        <v>4.64091796567795</v>
+      </c>
+      <c r="N39">
+        <v>9.3761204692950955</v>
+      </c>
+      <c r="P39" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <f>SQRT(M40*M40+M41*M41)</f>
+        <v>5.8602583430086019</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="array" ref="W39:Y41">MMULT(S39:U41,L39:N41)</f>
+        <v>9.3845598653255955</v>
+      </c>
+      <c r="X39">
+        <v>4.64091796567795</v>
+      </c>
+      <c r="Y39">
+        <v>9.3761204692950955</v>
+      </c>
+      <c r="AA39">
+        <f t="array" ref="AA39:AC41">MMULT(W39:Y41,TRANSPOSE(H39:J41))</f>
+        <v>-9.5464308063172236</v>
+      </c>
+      <c r="AB39">
+        <v>-4.2981091528984914</v>
+      </c>
+      <c r="AC39">
+        <v>9.3761204692950955</v>
+      </c>
+      <c r="AE39">
+        <f t="array" ref="AE39:AG41">MMULT(AA39:AC41,TRANSPOSE(S39:U41))</f>
+        <v>-9.5464308063172236</v>
+      </c>
+      <c r="AF39">
+        <v>-4.2981091528984914</v>
+      </c>
+      <c r="AG39">
+        <v>9.3761204692950955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="A40">
+        <f t="shared" ref="A40:A41" si="11">AE34</f>
+        <v>-0.33976618536823627</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="10"/>
+        <v>-6.0244398476638246</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="10"/>
+        <v>-2.6442678589439472</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>A39/F39</f>
+        <v>-0.99934439103778083</v>
+      </c>
+      <c r="H40">
+        <f>F41</f>
+        <v>3.6204807710121426E-2</v>
+      </c>
+      <c r="I40">
+        <f>F40</f>
+        <v>-0.99934439103778083</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>5.8602583430086019</v>
+      </c>
+      <c r="N40">
+        <v>2.3063192638653134</v>
+      </c>
+      <c r="P40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f>M40/Q39</f>
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f>Q40</f>
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <f>-Q41</f>
+        <v>5.3732016481007023E-19</v>
+      </c>
+      <c r="W40">
+        <v>-2.999988283268731E-35</v>
+      </c>
+      <c r="X40">
+        <v>5.8602583430086019</v>
+      </c>
+      <c r="Y40">
+        <v>2.3063192638653134</v>
+      </c>
+      <c r="AA40">
+        <v>-0.21216952644026124</v>
+      </c>
+      <c r="AB40">
+        <v>-5.8564163051180058</v>
+      </c>
+      <c r="AC40">
+        <v>2.3063192638653134</v>
+      </c>
+      <c r="AE40">
+        <v>-0.21216952644026124</v>
+      </c>
+      <c r="AF40">
+        <v>-5.8564163051180058</v>
+      </c>
+      <c r="AG40">
+        <v>2.3063192638653134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41">
+        <f t="shared" si="11"/>
+        <v>-5.5832415750284654E-17</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="10"/>
+        <v>3.1488349786949708E-18</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="10"/>
+        <v>1.2862633867228177E-16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f>-A40/F39</f>
+        <v>3.6204807710121426E-2</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>-5.5832415750284654E-17</v>
+      </c>
+      <c r="M41">
+        <v>3.1488349786949708E-18</v>
+      </c>
+      <c r="N41">
+        <v>1.2862633867228177E-16</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <f>-M41/Q39</f>
+        <v>-5.3732016481007023E-19</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f>Q41</f>
+        <v>-5.3732016481007023E-19</v>
+      </c>
+      <c r="U41">
+        <f>Q40</f>
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>-5.5832415750284654E-17</v>
+      </c>
+      <c r="X41">
+        <v>-3.8518598887744717E-34</v>
+      </c>
+      <c r="Y41">
+        <v>1.2738710682531701E-16</v>
+      </c>
+      <c r="AA41">
+        <v>5.5795811518136427E-17</v>
+      </c>
+      <c r="AB41">
+        <v>-2.0214018762306102E-18</v>
+      </c>
+      <c r="AC41">
+        <v>1.2738710682531701E-16</v>
+      </c>
+      <c r="AE41">
+        <v>5.5795811518136427E-17</v>
+      </c>
+      <c r="AF41">
+        <v>-2.0214018762306102E-18</v>
+      </c>
+      <c r="AG41">
+        <v>1.2738710682531701E-16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="A45">
+        <f>AE39</f>
+        <v>-9.5464308063172236</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:C47" si="12">AF39</f>
+        <v>-4.2981091528984914</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="12"/>
+        <v>9.3761204692950955</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f>SQRT(A45*A45+A46*A46)</f>
+        <v>9.5487882502311461</v>
+      </c>
+      <c r="H45">
+        <f>F46</f>
+        <v>-0.99975311590830751</v>
+      </c>
+      <c r="I45">
+        <f>-F47</f>
+        <v>-2.22195236589444E-2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="array" ref="L45:N47">MMULT(H45:J47,A45:C47)</f>
+        <v>9.5487882502311479</v>
+      </c>
+      <c r="M45">
+        <v>4.4271747987724801</v>
+      </c>
+      <c r="N45">
+        <v>-9.4250509697579687</v>
+      </c>
+      <c r="P45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <f>SQRT(M46*M46+M47*M47)</f>
+        <v>5.7594685110863901</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="array" ref="W45:Y47">MMULT(S45:U47,L45:N47)</f>
+        <v>9.5487882502311479</v>
+      </c>
+      <c r="X45">
+        <v>4.4271747987724801</v>
+      </c>
+      <c r="Y45">
+        <v>-9.4250509697579687</v>
+      </c>
+      <c r="AA45">
+        <f t="array" ref="AA45:AC47">MMULT(W45:Y47,TRANSPOSE(H45:J47))</f>
+        <v>-9.6448005215008337</v>
+      </c>
+      <c r="AB45">
+        <v>-4.2139122733032597</v>
+      </c>
+      <c r="AC45">
+        <v>-9.4250509697579687</v>
+      </c>
+      <c r="AE45">
+        <f t="array" ref="AE45:AG47">MMULT(AA45:AC47,TRANSPOSE(S45:U47))</f>
+        <v>-9.6448005215008337</v>
+      </c>
+      <c r="AF45">
+        <v>-4.2139122733032597</v>
+      </c>
+      <c r="AG45">
+        <v>-9.4250509697579687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="A46">
+        <f t="shared" ref="A46:A47" si="13">AE40</f>
+        <v>-0.21216952644026124</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="12"/>
+        <v>-5.8564163051180058</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="12"/>
+        <v>2.3063192638653134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>A45/F45</f>
+        <v>-0.99975311590830751</v>
+      </c>
+      <c r="H46">
+        <f>F47</f>
+        <v>2.22195236589444E-2</v>
+      </c>
+      <c r="I46">
+        <f>F46</f>
+        <v>-0.99975311590830751</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>5.7594685110863901</v>
+      </c>
+      <c r="N46">
+        <v>-2.0974169397320859</v>
+      </c>
+      <c r="P46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f>M46/Q45</f>
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f>Q46</f>
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <f>-Q47</f>
+        <v>-3.5097021059141438E-19</v>
+      </c>
+      <c r="W46">
+        <v>-1.9582667718639205E-35</v>
+      </c>
+      <c r="X46">
+        <v>5.7594685110863901</v>
+      </c>
+      <c r="Y46">
+        <v>-2.0974169397320859</v>
+      </c>
+      <c r="AA46">
+        <v>-0.12797264684502932</v>
+      </c>
+      <c r="AB46">
+        <v>-5.7580465899343993</v>
+      </c>
+      <c r="AC46">
+        <v>-2.0974169397320859</v>
+      </c>
+      <c r="AE46">
+        <v>-0.12797264684502932</v>
+      </c>
+      <c r="AF46">
+        <v>-5.7580465899343993</v>
+      </c>
+      <c r="AG46">
+        <v>-2.0974169397320859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="A47">
+        <f t="shared" si="13"/>
+        <v>5.5795811518136427E-17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="12"/>
+        <v>-2.0214018762306102E-18</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="12"/>
+        <v>1.2738710682531701E-16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f>-A46/F45</f>
+        <v>2.22195236589444E-2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>5.5795811518136427E-17</v>
+      </c>
+      <c r="M47">
+        <v>-2.0214018762306102E-18</v>
+      </c>
+      <c r="N47">
+        <v>1.2738710682531701E-16</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <f>-M47/Q45</f>
+        <v>3.5097021059141438E-19</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f>Q47</f>
+        <v>3.5097021059141438E-19</v>
+      </c>
+      <c r="U47">
+        <f>Q46</f>
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>5.5795811518136427E-17</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1.2665097596028124E-16</v>
+      </c>
+      <c r="AA47">
+        <v>-5.5782036419889523E-17</v>
+      </c>
+      <c r="AB47">
+        <v>1.2397563540972349E-18</v>
+      </c>
+      <c r="AC47">
+        <v>1.2665097596028124E-16</v>
+      </c>
+      <c r="AE47">
+        <v>-5.5782036419889523E-17</v>
+      </c>
+      <c r="AF47">
+        <v>1.2397563540972349E-18</v>
+      </c>
+      <c r="AG47">
+        <v>1.2665097596028124E-16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51">
+        <f>AE45</f>
+        <v>-9.6448005215008337</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:C53" si="14">AF45</f>
+        <v>-4.2139122733032597</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="14"/>
+        <v>-9.4250509697579687</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <f>SQRT(A51*A51+A52*A52)</f>
+        <v>9.6456494907229171</v>
+      </c>
+      <c r="H51">
+        <f>F52</f>
+        <v>-0.99991198423466454</v>
+      </c>
+      <c r="I51">
+        <f>-F53</f>
+        <v>-1.3267395520448057E-2</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="array" ref="L51:N53">MMULT(H51:J53,A51:C53)</f>
+        <v>9.6456494907229171</v>
+      </c>
+      <c r="M51">
+        <v>4.2899356641232957</v>
+      </c>
+      <c r="N51">
+        <v>9.452048676794254</v>
+      </c>
+      <c r="P51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <f>SQRT(M52*M52+M53*M53)</f>
+        <v>5.7016321502385647</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="array" ref="W51:Y53">MMULT(S51:U53,L51:N53)</f>
+        <v>9.6456494907229171</v>
+      </c>
+      <c r="X51">
+        <v>4.2899356641232957</v>
+      </c>
+      <c r="Y51">
+        <v>9.452048676794254</v>
+      </c>
+      <c r="AA51">
+        <f t="array" ref="AA51:AC53">MMULT(W51:Y53,TRANSPOSE(H51:J53))</f>
+        <v>-9.7017167947140326</v>
+      </c>
+      <c r="AB51">
+        <v>-4.1615854353075479</v>
+      </c>
+      <c r="AC51">
+        <v>9.452048676794254</v>
+      </c>
+      <c r="AE51">
+        <f t="array" ref="AE51:AG53">MMULT(AA51:AC53,TRANSPOSE(S51:U53))</f>
+        <v>-9.7017167947140326</v>
+      </c>
+      <c r="AF51">
+        <v>-4.1615854353075479</v>
+      </c>
+      <c r="AG51">
+        <v>9.452048676794254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52">
+        <f t="shared" ref="A52:A53" si="15">AE46</f>
+        <v>-0.12797264684502932</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="14"/>
+        <v>-5.7580465899343993</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="14"/>
+        <v>-2.0974169397320859</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>A51/F51</f>
+        <v>-0.99991198423466454</v>
+      </c>
+      <c r="H52">
+        <f>F53</f>
+        <v>1.3267395520448057E-2</v>
+      </c>
+      <c r="I52">
+        <f>F52</f>
+        <v>-0.99991198423466454</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>5.7016321502385647</v>
+      </c>
+      <c r="N52">
+        <v>1.9721864549587462</v>
+      </c>
+      <c r="P52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>M52/Q51</f>
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f>Q52</f>
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f>-Q53</f>
+        <v>2.174388528459104E-19</v>
+      </c>
+      <c r="W52">
+        <v>-1.2129182008549573E-35</v>
+      </c>
+      <c r="X52">
+        <v>5.7016321502385647</v>
+      </c>
+      <c r="Y52">
+        <v>1.9721864549587462</v>
+      </c>
+      <c r="AA52">
+        <v>-7.5645808849317764E-2</v>
+      </c>
+      <c r="AB52">
+        <v>-5.7011303167212004</v>
+      </c>
+      <c r="AC52">
+        <v>1.9721864549587462</v>
+      </c>
+      <c r="AE52">
+        <v>-7.5645808849317764E-2</v>
+      </c>
+      <c r="AF52">
+        <v>-5.7011303167212004</v>
+      </c>
+      <c r="AG52">
+        <v>1.9721864549587462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53">
+        <f t="shared" si="15"/>
+        <v>-5.5782036419889523E-17</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="14"/>
+        <v>1.2397563540972349E-18</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="14"/>
+        <v>1.2665097596028124E-16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f>-A52/F51</f>
+        <v>1.3267395520448057E-2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>-5.5782036419889523E-17</v>
+      </c>
+      <c r="M53">
+        <v>1.2397563540972349E-18</v>
+      </c>
+      <c r="N53">
+        <v>1.2665097596028124E-16</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <f>-M53/Q51</f>
+        <v>-2.174388528459104E-19</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f>Q53</f>
+        <v>-2.174388528459104E-19</v>
+      </c>
+      <c r="U53">
+        <f>Q52</f>
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>-5.5782036419889523E-17</v>
+      </c>
+      <c r="X53">
+        <v>-1.9259299443872359E-34</v>
+      </c>
+      <c r="Y53">
+        <v>1.2622214599991676E-16</v>
+      </c>
+      <c r="AA53">
+        <v>5.5777126721262057E-17</v>
+      </c>
+      <c r="AB53">
+        <v>-7.4008234011871245E-19</v>
+      </c>
+      <c r="AC53">
+        <v>1.2622214599991676E-16</v>
+      </c>
+      <c r="AE53">
+        <v>5.5777126721262057E-17</v>
+      </c>
+      <c r="AF53">
+        <v>-7.4008234011871245E-19</v>
+      </c>
+      <c r="AG53">
+        <v>1.2622214599991676E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57">
+        <f>AE51</f>
+        <v>-9.7017167947140326</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:C59" si="16">AF51</f>
+        <v>-4.1615854353075479</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="16"/>
+        <v>9.452048676794254</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <f>SQRT(A57*A57+A58*A58)</f>
+        <v>9.7020117013551772</v>
+      </c>
+      <c r="H57">
+        <f>F58</f>
+        <v>-0.999969603557466</v>
+      </c>
+      <c r="I57">
+        <f>-F59</f>
+        <v>-7.796919976787036E-3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="array" ref="L57:N59">MMULT(H57:J59,A57:C59)</f>
+        <v>9.702011701355179</v>
+      </c>
+      <c r="M57">
+        <v>4.2059101947717226</v>
+      </c>
+      <c r="N57">
+        <v>-9.4671383481084384</v>
+      </c>
+      <c r="P57" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <f>SQRT(M58*M58+M59*M59)</f>
+        <v>5.6685094740254938</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="array" ref="W57:Y59">MMULT(S57:U59,L57:N59)</f>
+        <v>9.702011701355179</v>
+      </c>
+      <c r="X57">
+        <v>4.2059101947717226</v>
+      </c>
+      <c r="Y57">
+        <v>-9.4671383481084384</v>
+      </c>
+      <c r="AA57">
+        <f t="array" ref="AA57:AC59">MMULT(W57:Y59,TRANSPOSE(H57:J59))</f>
+        <v>-9.7345099399322219</v>
+      </c>
+      <c r="AB57">
+        <v>-4.1301365412148661</v>
+      </c>
+      <c r="AC57">
+        <v>-9.4671383481084384</v>
+      </c>
+      <c r="AE57">
+        <f t="array" ref="AE57:AG59">MMULT(AA57:AC59,TRANSPOSE(S57:U59))</f>
+        <v>-9.7345099399322219</v>
+      </c>
+      <c r="AF57">
+        <v>-4.1301365412148661</v>
+      </c>
+      <c r="AG57">
+        <v>-9.4671383481084384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58">
+        <f t="shared" ref="A58:A59" si="17">AE52</f>
+        <v>-7.5645808849317764E-2</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="16"/>
+        <v>-5.7011303167212004</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="16"/>
+        <v>1.9721864549587462</v>
+      </c>
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>A57/F57</f>
+        <v>-0.999969603557466</v>
+      </c>
+      <c r="H58">
+        <f>F59</f>
+        <v>7.796919976787036E-3</v>
+      </c>
+      <c r="I58">
+        <f>F58</f>
+        <v>-0.999969603557466</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>5.6685094740254938</v>
+      </c>
+      <c r="N58">
+        <v>-1.8984296403568413</v>
+      </c>
+      <c r="P58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f>M58/Q57</f>
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f>Q58</f>
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <f>-Q59</f>
+        <v>-1.3056030752174835E-19</v>
+      </c>
+      <c r="W58">
+        <v>-7.2822788174075015E-36</v>
+      </c>
+      <c r="X58">
+        <v>5.6685094740254938</v>
+      </c>
+      <c r="Y58">
+        <v>-1.8984296403568413</v>
+      </c>
+      <c r="AA58">
+        <v>-4.4196914756635945E-2</v>
+      </c>
+      <c r="AB58">
+        <v>-5.6683371715030129</v>
+      </c>
+      <c r="AC58">
+        <v>-1.8984296403568413</v>
+      </c>
+      <c r="AE58">
+        <v>-4.4196914756635945E-2</v>
+      </c>
+      <c r="AF58">
+        <v>-5.6683371715030129</v>
+      </c>
+      <c r="AG58">
+        <v>-1.8984296403568413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59">
+        <f t="shared" si="17"/>
+        <v>5.5777126721262057E-17</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="16"/>
+        <v>-7.4008234011871245E-19</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="16"/>
+        <v>1.2622214599991676E-16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f>-A58/F57</f>
+        <v>7.796919976787036E-3</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>5.5777126721262057E-17</v>
+      </c>
+      <c r="M59">
+        <v>-7.4008234011871245E-19</v>
+      </c>
+      <c r="N59">
+        <v>1.2622214599991676E-16</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <f>-M59/Q57</f>
+        <v>1.3056030752174835E-19</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f>Q59</f>
+        <v>1.3056030752174835E-19</v>
+      </c>
+      <c r="U59">
+        <f>Q58</f>
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>5.5777126721262057E-17</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>1.2597428644226337E-16</v>
+      </c>
+      <c r="AA59">
+        <v>-5.577543129503496E-17</v>
+      </c>
+      <c r="AB59">
+        <v>4.3488979358079008E-19</v>
+      </c>
+      <c r="AC59">
+        <v>1.2597428644226337E-16</v>
+      </c>
+      <c r="AE59">
+        <v>-5.577543129503496E-17</v>
+      </c>
+      <c r="AF59">
+        <v>4.3488979358079008E-19</v>
+      </c>
+      <c r="AG59">
+        <v>1.2597428644226337E-16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63">
+        <f>AE57</f>
+        <v>-9.7345099399322219</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63:C65" si="18">AF57</f>
+        <v>-4.1301365412148661</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="18"/>
+        <v>-9.4671383481084384</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <f>SQRT(A63*A63+A64*A64)</f>
+        <v>9.7346102714958871</v>
+      </c>
+      <c r="H63">
+        <f>F64</f>
+        <v>-0.99998969331479459</v>
+      </c>
+      <c r="I63">
+        <f>-F65</f>
+        <v>-4.5401832763710985E-3</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="array" ref="L63:N65">MMULT(H63:J65,A63:C65)</f>
+        <v>9.7346102714958871</v>
+      </c>
+      <c r="M63">
+        <v>4.1558292628285711</v>
+      </c>
+      <c r="N63">
+        <v>9.475659991798203</v>
+      </c>
+      <c r="P63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <f>SQRT(M64*M64+M65*M65)</f>
+        <v>5.6495271728825944</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="array" ref="W63:Y65">MMULT(S63:U65,L63:N65)</f>
+        <v>9.7346102714958871</v>
+      </c>
+      <c r="X63">
+        <v>4.1558292628285711</v>
+      </c>
+      <c r="Y63">
+        <v>9.475659991798203</v>
+      </c>
+      <c r="AA63">
+        <f t="array" ref="AA63:AC65">MMULT(W63:Y65,TRANSPOSE(H63:J65))</f>
+        <v>-9.7533781664507693</v>
+      </c>
+      <c r="AB63">
+        <v>-4.1115895152479558</v>
+      </c>
+      <c r="AC63">
+        <v>9.475659991798203</v>
+      </c>
+      <c r="AE63">
+        <f t="array" ref="AE63:AG65">MMULT(AA63:AC65,TRANSPOSE(S63:U65))</f>
+        <v>-9.7533781664507693</v>
+      </c>
+      <c r="AF63">
+        <v>-4.1115895152479558</v>
+      </c>
+      <c r="AG63">
+        <v>9.475659991798203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="A64">
+        <f t="shared" ref="A64:A65" si="19">AE58</f>
+        <v>-4.4196914756635945E-2</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="18"/>
+        <v>-5.6683371715030129</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="18"/>
+        <v>-1.8984296403568413</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>A63/F63</f>
+        <v>-0.99998969331479459</v>
+      </c>
+      <c r="H64">
+        <f>F65</f>
+        <v>4.5401832763710985E-3</v>
+      </c>
+      <c r="I64">
+        <f>F64</f>
+        <v>-0.99998969331479459</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>5.6495271728825944</v>
+      </c>
+      <c r="N64">
+        <v>1.8554275306369801</v>
+      </c>
+      <c r="P64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f>M64/Q63</f>
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <f>Q64</f>
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <f>-Q65</f>
+        <v>7.6978086886321402E-20</v>
+      </c>
+      <c r="W64">
+        <v>-4.2934859963512509E-36</v>
+      </c>
+      <c r="X64">
+        <v>5.6495271728825944</v>
+      </c>
+      <c r="Y64">
+        <v>1.8554275306369801</v>
+      </c>
+      <c r="AA64">
+        <v>-2.5649888789725645E-2</v>
+      </c>
+      <c r="AB64">
+        <v>-5.6494689449844637</v>
+      </c>
+      <c r="AC64">
+        <v>1.8554275306369801</v>
+      </c>
+      <c r="AE64">
+        <v>-2.5649888789725645E-2</v>
+      </c>
+      <c r="AF64">
+        <v>-5.6494689449844637</v>
+      </c>
+      <c r="AG64">
+        <v>1.8554275306369801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
+      <c r="A65">
+        <f t="shared" si="19"/>
+        <v>-5.577543129503496E-17</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="18"/>
+        <v>4.3488979358079008E-19</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="18"/>
+        <v>1.2597428644226337E-16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f>-A64/F63</f>
+        <v>4.5401832763710985E-3</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>-5.577543129503496E-17</v>
+      </c>
+      <c r="M65">
+        <v>4.3488979358079008E-19</v>
+      </c>
+      <c r="N65">
+        <v>1.2597428644226337E-16</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <f>-M65/Q63</f>
+        <v>-7.6978086886321402E-20</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f>Q65</f>
+        <v>-7.6978086886321402E-20</v>
+      </c>
+      <c r="U65">
+        <f>Q64</f>
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>-5.577543129503496E-17</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>1.2583145918059871E-16</v>
+      </c>
+      <c r="AA65">
+        <v>5.5774856435222401E-17</v>
+      </c>
+      <c r="AB65">
+        <v>-2.5323068039810292E-19</v>
+      </c>
+      <c r="AC65">
+        <v>1.2583145918059871E-16</v>
+      </c>
+      <c r="AE65">
+        <v>5.5774856435222401E-17</v>
+      </c>
+      <c r="AF65">
+        <v>-2.5323068039810292E-19</v>
+      </c>
+      <c r="AG65">
+        <v>1.2583145918059871E-16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
+      <c r="A69">
+        <f>AE63</f>
+        <v>-9.7533781664507693</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:C71" si="20">AF63</f>
+        <v>-4.1115895152479558</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="20"/>
+        <v>9.475659991798203</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <f>SQRT(A69*A69+A70*A70)</f>
+        <v>9.7534118940293659</v>
+      </c>
+      <c r="H69">
+        <f>F70</f>
+        <v>-0.99999654197126475</v>
+      </c>
+      <c r="I69">
+        <f>-F71</f>
+        <v>-2.6298375448931305E-3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="array" ref="L69:N71">MMULT(H69:J71,A69:C71)</f>
+        <v>9.7534118940293659</v>
+      </c>
+      <c r="M69">
+        <v>4.1264324827934926</v>
+      </c>
+      <c r="N69">
+        <v>-9.4805066976755636</v>
+      </c>
+      <c r="P69" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <f>SQRT(M70*M70+M71*M71)</f>
+        <v>5.638636596482125</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="array" ref="W69:Y71">MMULT(S69:U71,L69:N71)</f>
+        <v>9.7534118940293659</v>
+      </c>
+      <c r="X69">
+        <v>4.1264324827934926</v>
+      </c>
+      <c r="Y69">
+        <v>-9.4805066976755636</v>
+      </c>
+      <c r="AA69">
+        <f t="array" ref="AA69:AC71">MMULT(W69:Y71,TRANSPOSE(H69:J71))</f>
+        <v>-9.7642300135204856</v>
+      </c>
+      <c r="AB69">
+        <v>-4.1007683246816669</v>
+      </c>
+      <c r="AC69">
+        <v>-9.4805066976755636</v>
+      </c>
+      <c r="AE69">
+        <f t="array" ref="AE69:AG71">MMULT(AA69:AC71,TRANSPOSE(S69:U71))</f>
+        <v>-9.7642300135204856</v>
+      </c>
+      <c r="AF69">
+        <v>-4.1007683246816669</v>
+      </c>
+      <c r="AG69">
+        <v>-9.4805066976755636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
+      <c r="A70">
+        <f t="shared" ref="A70:A71" si="21">AE64</f>
+        <v>-2.5649888789725645E-2</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="20"/>
+        <v>-5.6494689449844637</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="20"/>
+        <v>1.8554275306369801</v>
+      </c>
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>A69/F69</f>
+        <v>-0.99999654197126475</v>
+      </c>
+      <c r="H70">
+        <f>F71</f>
+        <v>2.6298375448931305E-3</v>
+      </c>
+      <c r="I70">
+        <f>F70</f>
+        <v>-0.99999654197126475</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>3.4694469519536142E-18</v>
+      </c>
+      <c r="M70">
+        <v>5.638636596482125</v>
+      </c>
+      <c r="N70">
+        <v>-1.8305016681061903</v>
+      </c>
+      <c r="P70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f>M70/Q69</f>
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f>Q70</f>
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <f>-Q71</f>
+        <v>-4.490991325032196E-20</v>
+      </c>
+      <c r="W70">
+        <v>3.4694469519536142E-18</v>
+      </c>
+      <c r="X70">
+        <v>5.638636596482125</v>
+      </c>
+      <c r="Y70">
+        <v>-1.8305016681061903</v>
+      </c>
+      <c r="AA70">
+        <v>-1.4828698223437112E-2</v>
+      </c>
+      <c r="AB70">
+        <v>-5.6386170979147465</v>
+      </c>
+      <c r="AC70">
+        <v>-1.8305016681061903</v>
+      </c>
+      <c r="AE70">
+        <v>-1.4828698223437112E-2</v>
+      </c>
+      <c r="AF70">
+        <v>-5.6386170979147465</v>
+      </c>
+      <c r="AG70">
+        <v>-1.8305016681061903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
+      <c r="A71">
+        <f t="shared" si="21"/>
+        <v>5.5774856435222401E-17</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="20"/>
+        <v>-2.5323068039810292E-19</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="20"/>
+        <v>1.2583145918059871E-16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f>-A70/F69</f>
+        <v>2.6298375448931305E-3</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>5.5774856435222401E-17</v>
+      </c>
+      <c r="M71">
+        <v>-2.5323068039810292E-19</v>
+      </c>
+      <c r="N71">
+        <v>1.2583145918059871E-16</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f>-M71/Q69</f>
+        <v>4.490991325032196E-20</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f>Q71</f>
+        <v>4.490991325032196E-20</v>
+      </c>
+      <c r="U71">
+        <f>Q70</f>
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>5.5774856435222401E-17</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>1.2574925150947948E-16</v>
+      </c>
+      <c r="AA71">
+        <v>-5.5774663564166141E-17</v>
+      </c>
+      <c r="AB71">
+        <v>1.466788115143721E-19</v>
+      </c>
+      <c r="AC71">
+        <v>1.2574925150947948E-16</v>
+      </c>
+      <c r="AE71">
+        <v>-5.5774663564166141E-17</v>
+      </c>
+      <c r="AF71">
+        <v>1.466788115143721E-19</v>
+      </c>
+      <c r="AG71">
+        <v>1.2574925150947948E-16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
+      <c r="A75">
+        <f>AE69</f>
+        <v>-9.7642300135204856</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75:C77" si="22">AF69</f>
+        <v>-4.1007683246816669</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="22"/>
+        <v>-9.4805066976755636</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <f>SQRT(A75*A75+A76*A76)</f>
+        <v>9.7642412735053448</v>
+      </c>
+      <c r="H75">
+        <f>F76</f>
+        <v>-0.99999884681415141</v>
+      </c>
+      <c r="I75">
+        <f>-F77</f>
+        <v>-1.5186738844393218E-3</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="array" ref="L75:N77">MMULT(H75:J77,A75:C77)</f>
+        <v>9.764241273505343</v>
+      </c>
+      <c r="M75">
+        <v>4.1093268162646224</v>
+      </c>
+      <c r="N75">
+        <v>9.4832756999681784</v>
+      </c>
+      <c r="P75" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <f>SQRT(M76*M76+M77*M77)</f>
+        <v>5.6323828657804729</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="array" ref="W75:Y77">MMULT(S75:U77,L75:N77)</f>
+        <v>9.764241273505343</v>
+      </c>
+      <c r="X75">
+        <v>4.1093268162646224</v>
+      </c>
+      <c r="Y75">
+        <v>9.4832756999681784</v>
+      </c>
+      <c r="AA75">
+        <f t="array" ref="AA75:AC77">MMULT(W75:Y77,TRANSPOSE(H75:J77))</f>
+        <v>-9.7704707408389719</v>
+      </c>
+      <c r="AB75">
+        <v>-4.0944933792236533</v>
+      </c>
+      <c r="AC75">
+        <v>9.4832756999681784</v>
+      </c>
+      <c r="AE75">
+        <f t="array" ref="AE75:AG77">MMULT(AA75:AC77,TRANSPOSE(S75:U77))</f>
+        <v>-9.7704707408389719</v>
+      </c>
+      <c r="AF75">
+        <v>-4.0944933792236533</v>
+      </c>
+      <c r="AG75">
+        <v>9.4832756999681784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
+      <c r="A76">
+        <f t="shared" ref="A76:A77" si="23">AE70</f>
+        <v>-1.4828698223437112E-2</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="22"/>
+        <v>-5.6386170979147465</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="22"/>
+        <v>-1.8305016681061903</v>
+      </c>
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>A75/F75</f>
+        <v>-0.99999884681415141</v>
+      </c>
+      <c r="H76">
+        <f>F77</f>
+        <v>1.5186738844393218E-3</v>
+      </c>
+      <c r="I76">
+        <f>F76</f>
+        <v>-0.99999884681415141</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>5.6323828657804729</v>
+      </c>
+      <c r="N76">
+        <v>1.816101759264559</v>
+      </c>
+      <c r="P76" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f>M76/Q75</f>
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f>Q76</f>
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <f>-Q77</f>
+        <v>2.6042052717246696E-20</v>
+      </c>
+      <c r="W76">
+        <v>-1.4524867288247131E-36</v>
+      </c>
+      <c r="X76">
+        <v>5.6323828657804729</v>
+      </c>
+      <c r="Y76">
+        <v>1.816101759264559</v>
+      </c>
+      <c r="AA76">
+        <v>-8.5537527654243103E-3</v>
+      </c>
+      <c r="AB76">
+        <v>-5.6323763705962584</v>
+      </c>
+      <c r="AC76">
+        <v>1.816101759264559</v>
+      </c>
+      <c r="AE76">
+        <v>-8.5537527654243103E-3</v>
+      </c>
+      <c r="AF76">
+        <v>-5.6323763705962584</v>
+      </c>
+      <c r="AG76">
+        <v>1.816101759264559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
+      <c r="A77">
+        <f t="shared" si="23"/>
+        <v>-5.5774663564166141E-17</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="22"/>
+        <v>1.466788115143721E-19</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="22"/>
+        <v>1.2574925150947948E-16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f>-A76/F75</f>
+        <v>1.5186738844393218E-3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>-5.5774663564166141E-17</v>
+      </c>
+      <c r="M77">
+        <v>1.466788115143721E-19</v>
+      </c>
+      <c r="N77">
+        <v>1.2574925150947948E-16</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <f>-M77/Q75</f>
+        <v>-2.6042052717246696E-20</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f>Q77</f>
+        <v>-2.6042052717246696E-20</v>
+      </c>
+      <c r="U77">
+        <f>Q76</f>
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>-5.5774663564166141E-17</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>1.2570195649172482E-16</v>
+      </c>
+      <c r="AA77">
+        <v>5.5774599245613403E-17</v>
+      </c>
+      <c r="AB77">
+        <v>-8.4703524968288507E-20</v>
+      </c>
+      <c r="AC77">
+        <v>1.2570195649172482E-16</v>
+      </c>
+      <c r="AE77">
+        <v>5.5774599245613403E-17</v>
+      </c>
+      <c r="AF77">
+        <v>-8.4703524968288507E-20</v>
+      </c>
+      <c r="AG77">
+        <v>1.2570195649172482E-16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
+      <c r="A81">
+        <f>AE75</f>
+        <v>-9.7704707408389719</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:C83" si="24">AF75</f>
+        <v>-4.0944933792236533</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="24"/>
+        <v>9.4832756999681784</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <f>SQRT(A81*A81+A82*A82)</f>
+        <v>9.7704744851146721</v>
+      </c>
+      <c r="H81">
+        <f>F82</f>
+        <v>-0.9999996167764722</v>
+      </c>
+      <c r="I81">
+        <f>-F83</f>
+        <v>-8.7546953614749839E-4</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="array" ref="L81:N83">MMULT(H81:J83,A81:C83)</f>
+        <v>9.7704744851146721</v>
+      </c>
+      <c r="M81">
+        <v>4.0994227840460304</v>
+      </c>
+      <c r="N81">
+        <v>-9.4848620075185881</v>
+      </c>
+      <c r="P81" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <f>SQRT(M82*M82+M83*M83)</f>
+        <v>5.6287896079176472</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f t="array" ref="W81:Y83">MMULT(S81:U83,L81:N83)</f>
+        <v>9.7704744851146721</v>
+      </c>
+      <c r="X81">
+        <v>4.0994227840460304</v>
+      </c>
+      <c r="Y81">
+        <v>-9.4848620075185881</v>
+      </c>
+      <c r="AA81">
+        <f t="array" ref="AA81:AC83">MMULT(W81:Y83,TRANSPOSE(H81:J83))</f>
+        <v>-9.7740596606021928</v>
+      </c>
+      <c r="AB81">
+        <v>-4.0908674602853452</v>
+      </c>
+      <c r="AC81">
+        <v>-9.4848620075185881</v>
+      </c>
+      <c r="AE81">
+        <f t="array" ref="AE81:AG83">MMULT(AA81:AC83,TRANSPOSE(S81:U83))</f>
+        <v>-9.7740596606021928</v>
+      </c>
+      <c r="AF81">
+        <v>-4.0908674602853452</v>
+      </c>
+      <c r="AG81">
+        <v>-9.4848620075185881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
+      <c r="A82">
+        <f t="shared" ref="A82:A83" si="25">AE76</f>
+        <v>-8.5537527654243103E-3</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="24"/>
+        <v>-5.6323763705962584</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="24"/>
+        <v>1.816101759264559</v>
+      </c>
+      <c r="E82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>A81/F81</f>
+        <v>-0.9999996167764722</v>
+      </c>
+      <c r="H82">
+        <f>F83</f>
+        <v>8.7546953614749839E-4</v>
+      </c>
+      <c r="I82">
+        <f>F82</f>
+        <v>-0.9999996167764722</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>5.6287896079176472</v>
+      </c>
+      <c r="N82">
+        <v>-1.807798744313426</v>
+      </c>
+      <c r="P82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f>M82/Q81</f>
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f>Q82</f>
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <f>-Q83</f>
+        <v>-1.5048266300296894E-20</v>
+      </c>
+      <c r="W82">
+        <v>-8.3931102224032869E-37</v>
+      </c>
+      <c r="X82">
+        <v>5.6287896079176472</v>
+      </c>
+      <c r="Y82">
+        <v>-1.807798744313426</v>
+      </c>
+      <c r="AA82">
+        <v>-4.9278338271155223E-3</v>
+      </c>
+      <c r="AB82">
+        <v>-5.6287874508330367</v>
+      </c>
+      <c r="AC82">
+        <v>-1.807798744313426</v>
+      </c>
+      <c r="AE82">
+        <v>-4.9278338271155223E-3</v>
+      </c>
+      <c r="AF82">
+        <v>-5.6287874508330367</v>
+      </c>
+      <c r="AG82">
+        <v>-1.807798744313426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
+      <c r="A83">
+        <f t="shared" si="25"/>
+        <v>5.5774599245613403E-17</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="24"/>
+        <v>-8.4703524968288507E-20</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="24"/>
+        <v>1.2570195649172482E-16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f>-A82/F81</f>
+        <v>8.7546953614749839E-4</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>5.5774599245613403E-17</v>
+      </c>
+      <c r="M83">
+        <v>-8.4703524968288507E-20</v>
+      </c>
+      <c r="N83">
+        <v>1.2570195649172482E-16</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <f>-M83/Q81</f>
+        <v>1.5048266300296894E-20</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f>Q83</f>
+        <v>1.5048266300296894E-20</v>
+      </c>
+      <c r="U83">
+        <f>Q82</f>
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>5.5774599245613403E-17</v>
+      </c>
+      <c r="X83">
+        <v>-1.2037062152420224E-35</v>
+      </c>
+      <c r="Y83">
+        <v>1.2567475225480306E-16</v>
+      </c>
+      <c r="AA83">
+        <v>-5.5774577871474717E-17</v>
+      </c>
+      <c r="AB83">
+        <v>4.8828962530369791E-20</v>
+      </c>
+      <c r="AC83">
+        <v>1.2567475225480306E-16</v>
+      </c>
+      <c r="AE83">
+        <v>-5.5774577871474717E-17</v>
+      </c>
+      <c r="AF83">
+        <v>4.8828962530369791E-20</v>
+      </c>
+      <c r="AG83">
+        <v>1.2567475225480306E-16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
+      <c r="A87">
+        <f>AE81</f>
+        <v>-9.7740596606021928</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ref="B87:C89" si="26">AF81</f>
+        <v>-4.0908674602853452</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="26"/>
+        <v>-9.4848620075185881</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <f>SQRT(A87*A87+A88*A88)</f>
+        <v>9.7740609028467418</v>
+      </c>
+      <c r="H87">
+        <f>F88</f>
+        <v>-0.99999987290394843</v>
+      </c>
+      <c r="I87">
+        <f>-F89</f>
+        <v>-5.0417465944787264E-4</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="array" ref="L87:N89">MMULT(H87:J89,A87:C89)</f>
+        <v>9.7740609028467436</v>
+      </c>
+      <c r="M87">
+        <v>4.0937048323483713</v>
+      </c>
+      <c r="N87">
+        <v>9.4857722483463416</v>
+      </c>
+      <c r="P87" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <f>SQRT(M88*M88+M89*M89)</f>
+        <v>5.6267242237277406</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <f t="array" ref="W87:Y89">MMULT(S87:U89,L87:N89)</f>
+        <v>9.7740609028467436</v>
+      </c>
+      <c r="X87">
+        <v>4.0937048323483713</v>
+      </c>
+      <c r="Y87">
+        <v>9.4857722483463416</v>
+      </c>
+      <c r="AA87">
+        <f t="array" ref="AA87:AC89">MMULT(W87:Y89,TRANSPOSE(H87:J89))</f>
+        <v>-9.7761236028419241</v>
+      </c>
+      <c r="AB87">
+        <v>-4.088776478227536</v>
+      </c>
+      <c r="AC87">
+        <v>9.4857722483463416</v>
+      </c>
+      <c r="AE87">
+        <f t="array" ref="AE87:AG89">MMULT(AA87:AC89,TRANSPOSE(S87:U89))</f>
+        <v>-9.7761236028419241</v>
+      </c>
+      <c r="AF87">
+        <v>-4.088776478227536</v>
+      </c>
+      <c r="AG87">
+        <v>9.4857722483463416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
+      <c r="A88">
+        <f t="shared" ref="A88:A89" si="27">AE82</f>
+        <v>-4.9278338271155223E-3</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="26"/>
+        <v>-5.6287874508330367</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="26"/>
+        <v>-1.807798744313426</v>
+      </c>
+      <c r="E88" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>A87/F87</f>
+        <v>-0.99999987290394843</v>
+      </c>
+      <c r="H88">
+        <f>F89</f>
+        <v>5.0417465944787264E-4</v>
+      </c>
+      <c r="I88">
+        <f>F88</f>
+        <v>-0.99999987290394843</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>5.6267242237277406</v>
+      </c>
+      <c r="N88">
+        <v>1.8030164874767929</v>
+      </c>
+      <c r="P88" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <f>M88/Q87</f>
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <f>Q88</f>
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <f>-Q89</f>
+        <v>8.6780443805046291E-21</v>
+      </c>
+      <c r="W88">
+        <v>-4.8401426207256901E-37</v>
+      </c>
+      <c r="X88">
+        <v>5.6267242237277406</v>
+      </c>
+      <c r="Y88">
+        <v>1.8030164874767929</v>
+      </c>
+      <c r="AA88">
+        <v>-2.836851769305029E-3</v>
+      </c>
+      <c r="AB88">
+        <v>-5.6267235085933081</v>
+      </c>
+      <c r="AC88">
+        <v>1.8030164874767929</v>
+      </c>
+      <c r="AE88">
+        <v>-2.836851769305029E-3</v>
+      </c>
+      <c r="AF88">
+        <v>-5.6267235085933081</v>
+      </c>
+      <c r="AG88">
+        <v>1.8030164874767929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
+      <c r="A89">
+        <f t="shared" si="27"/>
+        <v>-5.5774577871474717E-17</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="26"/>
+        <v>4.8828962530369791E-20</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="26"/>
+        <v>1.2567475225480306E-16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <f>-A88/F87</f>
+        <v>5.0417465944787264E-4</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>-5.5774577871474717E-17</v>
+      </c>
+      <c r="M89">
+        <v>4.8828962530369791E-20</v>
+      </c>
+      <c r="N89">
+        <v>1.2567475225480306E-16</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <f>-M89/Q87</f>
+        <v>-8.6780443805046291E-21</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <f>Q89</f>
+        <v>-8.6780443805046291E-21</v>
+      </c>
+      <c r="U89">
+        <f>Q88</f>
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>-5.5774577871474717E-17</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>1.2565910559770595E-16</v>
+      </c>
+      <c r="AA89">
+        <v>5.5774570782746094E-17</v>
+      </c>
+      <c r="AB89">
+        <v>-2.812012880419962E-20</v>
+      </c>
+      <c r="AC89">
+        <v>1.2565910559770595E-16</v>
+      </c>
+      <c r="AE89">
+        <v>5.5774570782746094E-17</v>
+      </c>
+      <c r="AF89">
+        <v>-2.812012880419962E-20</v>
+      </c>
+      <c r="AG89">
+        <v>1.2565910559770595E-16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
+      <c r="A93">
+        <f>AE87</f>
+        <v>-9.7761236028419241</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93:C95" si="28">AF87</f>
+        <v>-4.088776478227536</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="28"/>
+        <v>9.4857722483463416</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <f>SQRT(A93*A93+A94*A94)</f>
+        <v>9.7761240144430932</v>
+      </c>
+      <c r="H93">
+        <f>F94</f>
+        <v>-0.99999995789730489</v>
+      </c>
+      <c r="I93">
+        <f>-F95</f>
+        <v>-2.901816471552436E-4</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="array" ref="L93:N95">MMULT(H93:J95,A93:C95)</f>
+        <v>9.7761240144430914</v>
+      </c>
+      <c r="M93">
+        <v>4.0904090779748374</v>
+      </c>
+      <c r="N93">
+        <v>-9.4862950512639497</v>
+      </c>
+      <c r="P93" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q93">
+        <f>SQRT(M94*M94+M95*M95)</f>
+        <v>5.6255367837997818</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <f t="array" ref="W93:Y95">MMULT(S93:U95,L93:N95)</f>
+        <v>9.7761240144430914</v>
+      </c>
+      <c r="X93">
+        <v>4.0904090779748374</v>
+      </c>
+      <c r="Y93">
+        <v>-9.4862950512639497</v>
+      </c>
+      <c r="AA93">
+        <f t="array" ref="AA93:AC95">MMULT(W93:Y95,TRANSPOSE(H93:J95))</f>
+        <v>-9.7773105644857079</v>
+      </c>
+      <c r="AB93">
+        <v>-4.0875720539882856</v>
+      </c>
+      <c r="AC93">
+        <v>-9.4862950512639497</v>
+      </c>
+      <c r="AE93">
+        <f t="array" ref="AE93:AG95">MMULT(AA93:AC95,TRANSPOSE(S93:U95))</f>
+        <v>-9.7773105644857079</v>
+      </c>
+      <c r="AF93">
+        <v>-4.0875720539882856</v>
+      </c>
+      <c r="AG93">
+        <v>-9.4862950512639497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
+      <c r="A94">
+        <f t="shared" ref="A94:A95" si="29">AE88</f>
+        <v>-2.836851769305029E-3</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="28"/>
+        <v>-5.6267235085933081</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="28"/>
+        <v>1.8030164874767929</v>
+      </c>
+      <c r="E94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>A93/F93</f>
+        <v>-0.99999995789730489</v>
+      </c>
+      <c r="H94">
+        <f>F95</f>
+        <v>2.901816471552436E-4</v>
+      </c>
+      <c r="I94">
+        <f>F94</f>
+        <v>-0.99999995789730489</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>-4.3368086899420177E-19</v>
+      </c>
+      <c r="M94">
+        <v>5.6255367837997818</v>
+      </c>
+      <c r="N94">
+        <v>-1.8002638145493748</v>
+      </c>
+      <c r="P94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <f>M94/Q93</f>
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <f>Q94</f>
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <f>-Q95</f>
+        <v>-4.9986569966405611E-21</v>
+      </c>
+      <c r="W94">
+        <v>-4.3368086899420177E-19</v>
+      </c>
+      <c r="X94">
+        <v>5.6255367837997818</v>
+      </c>
+      <c r="Y94">
+        <v>-1.8002638145493748</v>
+      </c>
+      <c r="AA94">
+        <v>-1.6324275300554317E-3</v>
+      </c>
+      <c r="AB94">
+        <v>-5.6255365469495215</v>
+      </c>
+      <c r="AC94">
+        <v>-1.8002638145493748</v>
+      </c>
+      <c r="AE94">
+        <v>-1.6324275300554317E-3</v>
+      </c>
+      <c r="AF94">
+        <v>-5.6255365469495215</v>
+      </c>
+      <c r="AG94">
+        <v>-1.8002638145493748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
+      <c r="A95">
+        <f t="shared" si="29"/>
+        <v>5.5774570782746094E-17</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="28"/>
+        <v>-2.812012880419962E-20</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="28"/>
+        <v>1.2565910559770595E-16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <f>-A94/F93</f>
+        <v>2.901816471552436E-4</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>5.5774570782746094E-17</v>
+      </c>
+      <c r="M95">
+        <v>-2.812012880419962E-20</v>
+      </c>
+      <c r="N95">
+        <v>1.2565910559770595E-16</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <f>-M95/Q93</f>
+        <v>4.9986569966405611E-21</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <f>Q95</f>
+        <v>4.9986569966405611E-21</v>
+      </c>
+      <c r="U95">
+        <f>Q94</f>
+        <v>1</v>
+      </c>
+      <c r="W95">
+        <v>5.5774570782746094E-17</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>1.2565010669639354E-16</v>
+      </c>
+      <c r="AA95">
+        <v>-5.577456843448635E-17</v>
+      </c>
+      <c r="AB95">
+        <v>1.6184756819113985E-20</v>
+      </c>
+      <c r="AC95">
+        <v>1.2565010669639354E-16</v>
+      </c>
+      <c r="AE95">
+        <v>-5.577456843448635E-17</v>
+      </c>
+      <c r="AF95">
+        <v>1.6184756819113985E-20</v>
+      </c>
+      <c r="AG95">
+        <v>1.2565010669639354E-16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
+      <c r="A99">
+        <f>AE93</f>
+        <v>-9.7773105644857079</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:C101" si="30">AF93</f>
+        <v>-4.0875720539882856</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="30"/>
+        <v>-9.4862950512639497</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <f>SQRT(A99*A99+A100*A100)</f>
+        <v>9.7773107007614044</v>
+      </c>
+      <c r="H99">
+        <f>F100</f>
+        <v>-0.9999999860620471</v>
+      </c>
+      <c r="I99">
+        <f>-F101</f>
+        <v>-1.6696079116400658E-4</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f t="array" ref="L99:N101">MMULT(H99:J101,A99:C101)</f>
+        <v>9.7773107007614044</v>
+      </c>
+      <c r="M99">
+        <v>4.0885112410484998</v>
+      </c>
+      <c r="N99">
+        <v>9.4865954925151978</v>
+      </c>
+      <c r="P99" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <f>SQRT(M100*M100+M101*M101)</f>
+        <v>5.6248540042769841</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <f t="array" ref="W99:Y101">MMULT(S99:U101,L99:N101)</f>
+        <v>9.7773107007614044</v>
+      </c>
+      <c r="X99">
+        <v>4.0885112410484998</v>
+      </c>
+      <c r="Y99">
+        <v>9.4865954925151978</v>
+      </c>
+      <c r="AA99">
+        <f t="array" ref="AA99:AC101">MMULT(W99:Y101,TRANSPOSE(H99:J101))</f>
+        <v>-9.7779931855571967</v>
+      </c>
+      <c r="AB99">
+        <v>-4.0868787565329674</v>
+      </c>
+      <c r="AC99">
+        <v>9.4865954925151978</v>
+      </c>
+      <c r="AE99">
+        <f t="array" ref="AE99:AG101">MMULT(AA99:AC101,TRANSPOSE(S99:U101))</f>
+        <v>-9.7779931855571967</v>
+      </c>
+      <c r="AF99">
+        <v>-4.0868787565329674</v>
+      </c>
+      <c r="AG99">
+        <v>9.4865954925151978</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
+      <c r="A100">
+        <f t="shared" ref="A100:A101" si="31">AE94</f>
+        <v>-1.6324275300554317E-3</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="30"/>
+        <v>-5.6255365469495215</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="30"/>
+        <v>-1.8002638145493748</v>
+      </c>
+      <c r="E100" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f>A99/F99</f>
+        <v>-0.9999999860620471</v>
+      </c>
+      <c r="H100">
+        <f>F101</f>
+        <v>1.6696079116400658E-4</v>
+      </c>
+      <c r="I100">
+        <f>F100</f>
+        <v>-0.9999999860620471</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>2.1684043449710089E-19</v>
+      </c>
+      <c r="M100">
+        <v>5.6248540042769841</v>
+      </c>
+      <c r="N100">
+        <v>1.7986799501304083</v>
+      </c>
+      <c r="P100" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f>M100/Q99</f>
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <f>Q100</f>
+        <v>1</v>
+      </c>
+      <c r="U100">
+        <f>-Q101</f>
+        <v>2.8773647825894753E-21</v>
+      </c>
+      <c r="W100">
+        <v>2.1684043449710089E-19</v>
+      </c>
+      <c r="X100">
+        <v>5.6248540042769841</v>
+      </c>
+      <c r="Y100">
+        <v>1.7986799501304083</v>
+      </c>
+      <c r="AA100">
+        <v>-9.3913007473611599E-4</v>
+      </c>
+      <c r="AB100">
+        <v>-5.6248539258780337</v>
+      </c>
+      <c r="AC100">
+        <v>1.7986799501304083</v>
+      </c>
+      <c r="AE100">
+        <v>-9.3913007473611599E-4</v>
+      </c>
+      <c r="AF100">
+        <v>-5.6248539258780337</v>
+      </c>
+      <c r="AG100">
+        <v>1.7986799501304083</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
+      <c r="A101">
+        <f t="shared" si="31"/>
+        <v>-5.577456843448635E-17</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="30"/>
+        <v>1.6184756819113985E-20</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="30"/>
+        <v>1.2565010669639354E-16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f>-A100/F99</f>
+        <v>1.6696079116400658E-4</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>-5.577456843448635E-17</v>
+      </c>
+      <c r="M101">
+        <v>1.6184756819113985E-20</v>
+      </c>
+      <c r="N101">
+        <v>1.2565010669639354E-16</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <f>-M101/Q99</f>
+        <v>-2.8773647825894753E-21</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <f>Q101</f>
+        <v>-2.8773647825894753E-21</v>
+      </c>
+      <c r="U101">
+        <f>Q100</f>
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>-5.577456843448635E-17</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>1.256449312380499E-16</v>
+      </c>
+      <c r="AA101">
+        <v>5.5774567657103038E-17</v>
+      </c>
+      <c r="AB101">
+        <v>-9.3121660726528687E-21</v>
+      </c>
+      <c r="AC101">
+        <v>1.256449312380499E-16</v>
+      </c>
+      <c r="AE101">
+        <v>5.5774567657103038E-17</v>
+      </c>
+      <c r="AF101">
+        <v>-9.3121660726528687E-21</v>
+      </c>
+      <c r="AG101">
+        <v>1.256449312380499E-16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
+      <c r="A103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
+      <c r="A105">
+        <f>AE99</f>
+        <v>-9.7779931855571967</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105:C107" si="32">AF99</f>
+        <v>-4.0868787565329674</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="32"/>
+        <v>9.4865954925151978</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <f>SQRT(A105*A105+A106*A106)</f>
+        <v>9.7779932306567012</v>
+      </c>
+      <c r="H105">
+        <f>F106</f>
+        <v>-0.99999999538765227</v>
+      </c>
+      <c r="I105">
+        <f>-F107</f>
+        <v>-9.6045277653873247E-5</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f t="array" ref="L105:N107">MMULT(H105:J107,A105:C107)</f>
+        <v>9.7779932306567012</v>
+      </c>
+      <c r="M105">
+        <v>4.0874189783399348</v>
+      </c>
+      <c r="N105">
+        <v>-9.4867682034749414</v>
+      </c>
+      <c r="P105" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q105">
+        <f>SQRT(M106*M106+M107*M107)</f>
+        <v>5.6244613745293428</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <f t="array" ref="W105:Y107">MMULT(S105:U107,L105:N107)</f>
+        <v>9.7779932306567012</v>
+      </c>
+      <c r="X105">
+        <v>4.0874189783399348</v>
+      </c>
+      <c r="Y105">
+        <v>-9.4867682034749414</v>
+      </c>
+      <c r="AA105">
+        <f t="array" ref="AA105:AC107">MMULT(W105:Y107,TRANSPOSE(H105:J107))</f>
+        <v>-9.7783857628478597</v>
+      </c>
+      <c r="AB105">
+        <v>-4.0864798294126015</v>
+      </c>
+      <c r="AC105">
+        <v>-9.4867682034749414</v>
+      </c>
+      <c r="AE105">
+        <f t="array" ref="AE105:AG107">MMULT(AA105:AC107,TRANSPOSE(S105:U107))</f>
+        <v>-9.7783857628478597</v>
+      </c>
+      <c r="AF105">
+        <v>-4.0864798294126015</v>
+      </c>
+      <c r="AG105">
+        <v>-9.4867682034749414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
+      <c r="A106">
+        <f t="shared" ref="A106:A107" si="33">AE100</f>
+        <v>-9.3913007473611599E-4</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="32"/>
+        <v>-5.6248539258780337</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="32"/>
+        <v>1.7986799501304083</v>
+      </c>
+      <c r="E106" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f>A105/F105</f>
+        <v>-0.99999999538765227</v>
+      </c>
+      <c r="H106">
+        <f>F107</f>
+        <v>9.6045277653873247E-5</v>
+      </c>
+      <c r="I106">
+        <f>F106</f>
+        <v>-0.99999999538765227</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>5.6244613745293428</v>
+      </c>
+      <c r="N106">
+        <v>-1.7977687991362024</v>
+      </c>
+      <c r="P106" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <f>M106/Q105</f>
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <f>Q106</f>
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <f>-Q107</f>
+        <v>-1.6556547289707567E-21</v>
+      </c>
+      <c r="W106">
+        <v>-9.2343426697782066E-38</v>
+      </c>
+      <c r="X106">
+        <v>5.6244613745293428</v>
+      </c>
+      <c r="Y106">
+        <v>-1.7977687991362024</v>
+      </c>
+      <c r="AA106">
+        <v>-5.402029543701563E-4</v>
+      </c>
+      <c r="AB106">
+        <v>-5.6244613485873716</v>
+      </c>
+      <c r="AC106">
+        <v>-1.7977687991362024</v>
+      </c>
+      <c r="AE106">
+        <v>-5.402029543701563E-4</v>
+      </c>
+      <c r="AF106">
+        <v>-5.6244613485873716</v>
+      </c>
+      <c r="AG106">
+        <v>-1.7977687991362024</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
+      <c r="A107">
+        <f t="shared" si="33"/>
+        <v>5.5774567657103038E-17</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="32"/>
+        <v>-9.3121660726528687E-21</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="32"/>
+        <v>1.256449312380499E-16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <f>-A106/F105</f>
+        <v>9.6045277653873247E-5</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>5.5774567657103038E-17</v>
+      </c>
+      <c r="M107">
+        <v>-9.3121660726528687E-21</v>
+      </c>
+      <c r="N107">
+        <v>1.256449312380499E-16</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <f>-M107/Q105</f>
+        <v>1.6556547289707567E-21</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <f>Q107</f>
+        <v>1.6556547289707567E-21</v>
+      </c>
+      <c r="U107">
+        <f>Q106</f>
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>5.5774567657103038E-17</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>1.25641954753636E-16</v>
+      </c>
+      <c r="AA107">
+        <v>-5.5774567399851343E-17</v>
+      </c>
+      <c r="AB107">
+        <v>5.3568838366511998E-21</v>
+      </c>
+      <c r="AC107">
+        <v>1.25641954753636E-16</v>
+      </c>
+      <c r="AE107">
+        <v>-5.5774567399851343E-17</v>
+      </c>
+      <c r="AF107">
+        <v>5.3568838366511998E-21</v>
+      </c>
+      <c r="AG107">
+        <v>1.25641954753636E-16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
+      <c r="A109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
+      <c r="A111">
+        <f>AE105</f>
+        <v>-9.7783857628478597</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ref="B111:C113" si="34">AF105</f>
+        <v>-4.0864798294126015</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="34"/>
+        <v>-9.4867682034749414</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <f>SQRT(A111*A111+A112*A112)</f>
+        <v>9.7783857777695058</v>
+      </c>
+      <c r="H111">
+        <f>F112</f>
+        <v>-0.99999999847401744</v>
+      </c>
+      <c r="I111">
+        <f>-F113</f>
+        <v>-5.5244594214954261E-5</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <f t="array" ref="L111:N113">MMULT(H111:J113,A111:C113)</f>
+        <v>9.7783857777695058</v>
+      </c>
+      <c r="M111">
+        <v>4.0867905442615848</v>
+      </c>
+      <c r="N111">
+        <v>9.4868675060060994</v>
+      </c>
+      <c r="P111" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q111">
+        <f>SQRT(M112*M112+M113*M113)</f>
+        <v>5.6242355840845981</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <f t="array" ref="W111:Y113">MMULT(S111:U113,L111:N113)</f>
+        <v>9.7783857777695058</v>
+      </c>
+      <c r="X111">
+        <v>4.0867905442615848</v>
+      </c>
+      <c r="Y111">
+        <v>9.4868675060060994</v>
+      </c>
+      <c r="AA111">
+        <f t="array" ref="AA111:AC113">MMULT(W111:Y113,TRANSPOSE(H111:J113))</f>
+        <v>-9.778611535933118</v>
+      </c>
+      <c r="AB111">
+        <v>-4.0862503350708437</v>
+      </c>
+      <c r="AC111">
+        <v>9.4868675060060994</v>
+      </c>
+      <c r="AE111">
+        <f t="array" ref="AE111:AG113">MMULT(AA111:AC113,TRANSPOSE(S111:U113))</f>
+        <v>-9.778611535933118</v>
+      </c>
+      <c r="AF111">
+        <v>-4.0862503350708437</v>
+      </c>
+      <c r="AG111">
+        <v>9.4868675060060994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
+      <c r="A112">
+        <f t="shared" ref="A112:A113" si="35">AE106</f>
+        <v>-5.402029543701563E-4</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="34"/>
+        <v>-5.6244613485873716</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="34"/>
+        <v>-1.7977687991362024</v>
+      </c>
+      <c r="E112" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f>A111/F111</f>
+        <v>-0.99999999847401744</v>
+      </c>
+      <c r="H112">
+        <f>F113</f>
+        <v>5.5244594214954261E-5</v>
+      </c>
+      <c r="I112">
+        <f>F112</f>
+        <v>-0.99999999847401744</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>5.6242355840845981</v>
+      </c>
+      <c r="N112">
+        <v>1.7972447037330264</v>
+      </c>
+      <c r="P112" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <f>M112/Q111</f>
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <f>Q112</f>
+        <v>1</v>
+      </c>
+      <c r="U112">
+        <f>-Q113</f>
+        <v>9.5246434054257119E-22</v>
+      </c>
+      <c r="W112">
+        <v>-5.3123286557546598E-38</v>
+      </c>
+      <c r="X112">
+        <v>5.6242355840845981</v>
+      </c>
+      <c r="Y112">
+        <v>1.7972447037330264</v>
+      </c>
+      <c r="AA112">
+        <v>-3.1070861261205991E-4</v>
+      </c>
+      <c r="AB112">
+        <v>-5.6242355755021123</v>
+      </c>
+      <c r="AC112">
+        <v>1.7972447037330264</v>
+      </c>
+      <c r="AE112">
+        <v>-3.1070861261205991E-4</v>
+      </c>
+      <c r="AF112">
+        <v>-5.6242355755021123</v>
+      </c>
+      <c r="AG112">
+        <v>1.7972447037330264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
+      <c r="A113">
+        <f t="shared" si="35"/>
+        <v>-5.5774567399851343E-17</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="34"/>
+        <v>5.3568838366511998E-21</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="34"/>
+        <v>1.25641954753636E-16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <f>-A112/F111</f>
+        <v>5.5244594214954261E-5</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>-5.5774567399851343E-17</v>
+      </c>
+      <c r="M113">
+        <v>5.3568838366511998E-21</v>
+      </c>
+      <c r="N113">
+        <v>1.25641954753636E-16</v>
+      </c>
+      <c r="P113" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <f>-M113/Q111</f>
+        <v>-9.5246434054257119E-22</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <f>Q113</f>
+        <v>-9.5246434054257119E-22</v>
+      </c>
+      <c r="U113">
+        <f>Q112</f>
+        <v>1</v>
+      </c>
+      <c r="W113">
+        <v>-5.5774567399851343E-17</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>1.2564024294214447E-16</v>
+      </c>
+      <c r="AA113">
+        <v>5.5774567314740326E-17</v>
+      </c>
+      <c r="AB113">
+        <v>-3.0812433435194041E-21</v>
+      </c>
+      <c r="AC113">
+        <v>1.2564024294214447E-16</v>
+      </c>
+      <c r="AE113">
+        <v>5.5774567314740326E-17</v>
+      </c>
+      <c r="AF113">
+        <v>-3.0812433435194041E-21</v>
+      </c>
+      <c r="AG113">
+        <v>1.2564024294214447E-16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
+      <c r="A115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
+      <c r="A117">
+        <f>AE111</f>
+        <v>-9.778611535933118</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ref="B117:C119" si="36">AF111</f>
+        <v>-4.0862503350708437</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="36"/>
+        <v>9.4868675060060994</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <f>SQRT(A117*A117+A118*A118)</f>
+        <v>9.7786115408693934</v>
+      </c>
+      <c r="H117">
+        <f>F118</f>
+        <v>-0.99999999949519669</v>
+      </c>
+      <c r="I117">
+        <f>-F119</f>
+        <v>-3.1774307764805182E-5</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <f t="array" ref="L117:N119">MMULT(H117:J119,A117:C119)</f>
+        <v>9.7786115408693934</v>
+      </c>
+      <c r="M117">
+        <v>4.0864290392002092</v>
+      </c>
+      <c r="N117">
+        <v>-9.4869246074234415</v>
+      </c>
+      <c r="P117" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q117">
+        <f>SQRT(M118*M118+M119*M119)</f>
+        <v>5.6241057348872294</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <f t="array" ref="W117:Y119">MMULT(S117:U119,L117:N119)</f>
+        <v>9.7786115408693934</v>
+      </c>
+      <c r="X117">
+        <v>4.0864290392002092</v>
+      </c>
+      <c r="Y117">
+        <v>-9.4869246074234415</v>
+      </c>
+      <c r="AA117">
+        <f t="array" ref="AA117:AC119">MMULT(W117:Y119,TRANSPOSE(H117:J119))</f>
+        <v>-9.7787413793870694</v>
+      </c>
+      <c r="AB117">
+        <v>-4.086118328524754</v>
+      </c>
+      <c r="AC117">
+        <v>-9.4869246074234415</v>
+      </c>
+      <c r="AE117">
+        <f t="array" ref="AE117:AG119">MMULT(AA117:AC119,TRANSPOSE(S117:U119))</f>
+        <v>-9.7787413793870694</v>
+      </c>
+      <c r="AF117">
+        <v>-4.086118328524754</v>
+      </c>
+      <c r="AG117">
+        <v>-9.4869246074234415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
+      <c r="A118">
+        <f t="shared" ref="A118:A119" si="37">AE112</f>
+        <v>-3.1070861261205991E-4</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="36"/>
+        <v>-5.6242355755021123</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="36"/>
+        <v>1.7972447037330264</v>
+      </c>
+      <c r="E118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f>A117/F117</f>
+        <v>-0.99999999949519669</v>
+      </c>
+      <c r="H118">
+        <f>F119</f>
+        <v>3.1774307764805182E-5</v>
+      </c>
+      <c r="I118">
+        <f>F118</f>
+        <v>-0.99999999949519669</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>-5.4210108624275222E-20</v>
+      </c>
+      <c r="M118">
+        <v>5.6241057348872294</v>
+      </c>
+      <c r="N118">
+        <v>-1.7969432641779115</v>
+      </c>
+      <c r="P118" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <f>M118/Q117</f>
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <f>Q118</f>
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <f>-Q119</f>
+        <v>-5.4786369402800474E-22</v>
+      </c>
+      <c r="W118">
+        <v>-5.4210108624275222E-20</v>
+      </c>
+      <c r="X118">
+        <v>5.6241057348872294</v>
+      </c>
+      <c r="Y118">
+        <v>-1.7969432641779115</v>
+      </c>
+      <c r="AA118">
+        <v>-1.7870206652211259E-4</v>
+      </c>
+      <c r="AB118">
+        <v>-5.6241057320481627</v>
+      </c>
+      <c r="AC118">
+        <v>-1.7969432641779115</v>
+      </c>
+      <c r="AE118">
+        <v>-1.7870206652211259E-4</v>
+      </c>
+      <c r="AF118">
+        <v>-5.6241057320481627</v>
+      </c>
+      <c r="AG118">
+        <v>-1.7969432641779115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
+      <c r="A119">
+        <f t="shared" si="37"/>
+        <v>5.5774567314740326E-17</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="36"/>
+        <v>-3.0812433435194041E-21</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="36"/>
+        <v>1.2564024294214447E-16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <f>-A118/F117</f>
+        <v>3.1774307764805182E-5</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>5.5774567314740326E-17</v>
+      </c>
+      <c r="M119">
+        <v>-3.0812433435194041E-21</v>
+      </c>
+      <c r="N119">
+        <v>1.2564024294214447E-16</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <f>-M119/Q117</f>
+        <v>5.4786369402800474E-22</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <f>Q119</f>
+        <v>5.4786369402800474E-22</v>
+      </c>
+      <c r="U119">
+        <f>Q118</f>
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>5.5774567314740326E-17</v>
+      </c>
+      <c r="X119">
+        <v>-3.76158192263132E-37</v>
+      </c>
+      <c r="Y119">
+        <v>1.2563925846216979E-16</v>
+      </c>
+      <c r="AA119">
+        <v>-5.5774567286585141E-17</v>
+      </c>
+      <c r="AB119">
+        <v>1.7721982673074031E-21</v>
+      </c>
+      <c r="AC119">
+        <v>1.2563925846216979E-16</v>
+      </c>
+      <c r="AE119">
+        <v>-5.5774567286585141E-17</v>
+      </c>
+      <c r="AF119">
+        <v>1.7721982673074031E-21</v>
+      </c>
+      <c r="AG119">
+        <v>1.2563925846216979E-16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
+      <c r="A123">
+        <f>AE117</f>
+        <v>-9.7787413793870694</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ref="B123:C125" si="38">AF117</f>
+        <v>-4.086118328524754</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="38"/>
+        <v>-9.4869246074234415</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <f>SQRT(A123*A123+A124*A124)</f>
+        <v>9.7787413810199197</v>
+      </c>
+      <c r="H123">
+        <f>F124</f>
+        <v>-0.99999999983302035</v>
+      </c>
+      <c r="I123">
+        <f>-F125</f>
+        <v>-1.8274546749847065E-5</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <f t="array" ref="L123:N125">MMULT(H123:J125,A123:C125)</f>
+        <v>9.778741381019918</v>
+      </c>
+      <c r="M123">
+        <v>4.0862211058255813</v>
+      </c>
+      <c r="N123">
+        <v>9.4869574441630071</v>
+      </c>
+      <c r="P123" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q123">
+        <f>SQRT(M124*M124+M125*M125)</f>
+        <v>5.6240310591486313</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <f t="array" ref="W123:Y125">MMULT(S123:U125,L123:N125)</f>
+        <v>9.778741381019918</v>
+      </c>
+      <c r="X123">
+        <v>4.0862211058255813</v>
+      </c>
+      <c r="Y123">
+        <v>9.4869574441630071</v>
+      </c>
+      <c r="AA123">
+        <f t="array" ref="AA123:AC125">MMULT(W123:Y125,TRANSPOSE(H123:J125))</f>
+        <v>-9.7788160532256967</v>
+      </c>
+      <c r="AB123">
+        <v>-4.0860424030767435</v>
+      </c>
+      <c r="AC123">
+        <v>9.4869574441630071</v>
+      </c>
+      <c r="AE123">
+        <f t="array" ref="AE123:AG125">MMULT(AA123:AC125,TRANSPOSE(S123:U125))</f>
+        <v>-9.7788160532256967</v>
+      </c>
+      <c r="AF123">
+        <v>-4.0860424030767435</v>
+      </c>
+      <c r="AG123">
+        <v>9.4869574441630071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
+      <c r="A124">
+        <f t="shared" ref="A124:A125" si="39">AE118</f>
+        <v>-1.7870206652211259E-4</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="38"/>
+        <v>-5.6241057320481627</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="38"/>
+        <v>-1.7969432641779115</v>
+      </c>
+      <c r="E124" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f>A123/F123</f>
+        <v>-0.99999999983302035</v>
+      </c>
+      <c r="H124">
+        <f>F125</f>
+        <v>1.8274546749847065E-5</v>
+      </c>
+      <c r="I124">
+        <f>F124</f>
+        <v>-0.99999999983302035</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>5.6240310591486313</v>
+      </c>
+      <c r="N124">
+        <v>1.7967698946306081</v>
+      </c>
+      <c r="P124" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f>M124/Q123</f>
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <f>Q124</f>
+        <v>1</v>
+      </c>
+      <c r="U124">
+        <f>-Q125</f>
+        <v>3.151117496807849E-22</v>
+      </c>
+      <c r="W124">
+        <v>-1.757522148536451E-38</v>
+      </c>
+      <c r="X124">
+        <v>5.6240310591486313</v>
+      </c>
+      <c r="Y124">
+        <v>1.7967698946306081</v>
+      </c>
+      <c r="AA124">
+        <v>-1.0277661851300357E-4</v>
+      </c>
+      <c r="AB124">
+        <v>-5.6240310582095328</v>
+      </c>
+      <c r="AC124">
+        <v>1.7967698946306081</v>
+      </c>
+      <c r="AE124">
+        <v>-1.0277661851300357E-4</v>
+      </c>
+      <c r="AF124">
+        <v>-5.6240310582095328</v>
+      </c>
+      <c r="AG124">
+        <v>1.7967698946306081</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
+      <c r="A125">
+        <f t="shared" si="39"/>
+        <v>-5.5774567286585141E-17</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="38"/>
+        <v>1.7721982673074031E-21</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="38"/>
+        <v>1.2563925846216979E-16</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <f>-A124/F123</f>
+        <v>1.8274546749847065E-5</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>-5.5774567286585141E-17</v>
+      </c>
+      <c r="M125">
+        <v>1.7721982673074031E-21</v>
+      </c>
+      <c r="N125">
+        <v>1.2563925846216979E-16</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <f>-M125/Q123</f>
+        <v>-3.151117496807849E-22</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <f>Q125</f>
+        <v>-3.151117496807849E-22</v>
+      </c>
+      <c r="U125">
+        <f>Q124</f>
+        <v>1</v>
+      </c>
+      <c r="W125">
+        <v>-5.5774567286585141E-17</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>1.2563869227886451E-16</v>
+      </c>
+      <c r="AA125">
+        <v>5.5774567277271923E-17</v>
+      </c>
+      <c r="AB125">
+        <v>-1.019254937331191E-21</v>
+      </c>
+      <c r="AC125">
+        <v>1.2563869227886451E-16</v>
+      </c>
+      <c r="AE125">
+        <v>5.5774567277271923E-17</v>
+      </c>
+      <c r="AF125">
+        <v>-1.019254937331191E-21</v>
+      </c>
+      <c r="AG125">
+        <v>1.2563869227886451E-16</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="465" windowWidth="28035" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="8340" yWindow="735" windowWidth="28035" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="1" r:id="rId1"/>
     <sheet name="4x4" sheetId="2" r:id="rId2"/>
-    <sheet name="rand" sheetId="4" r:id="rId3"/>
-    <sheet name="3x3(2)" sheetId="5" r:id="rId4"/>
+    <sheet name="3x3(2)" sheetId="5" r:id="rId3"/>
+    <sheet name="rand" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6165,8 +6165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -26166,244 +26166,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
-        <f ca="1">RANDBETWEEN(-10, 10)</f>
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <f t="shared" ref="B1:E10" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
-        <v>-6</v>
-      </c>
-      <c r="C1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <f t="shared" ref="A2:A10" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AE9" sqref="AE9:AG11"/>
     </sheetView>
   </sheetViews>
@@ -32020,4 +31785,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <f ca="1">RANDBETWEEN(-10, 10)</f>
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:E10" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
+        <v>-2</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <f t="shared" ref="A2:A10" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="735" windowWidth="28035" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="-1500" yWindow="-285" windowWidth="28035" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="1" r:id="rId1"/>
@@ -31800,103 +31800,103 @@
     <row r="1" spans="1:5">
       <c r="A1">
         <f ca="1">RANDBETWEEN(-10, 10)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:E10" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <f t="shared" ref="A2:A10" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
@@ -31904,13 +31904,13 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
@@ -31918,103 +31918,103 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-9</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1500" yWindow="-285" windowWidth="28035" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="3480" yWindow="450" windowWidth="28035" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="60">
   <si>
     <t>c=</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>#1</t>
+  </si>
+  <si>
+    <t>Q=</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Delta=</t>
+  </si>
+  <si>
+    <t>#100</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG125"/>
+  <dimension ref="A1:AK142"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C17"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -570,20 +582,26 @@
     <col min="33" max="33" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3">
         <v>3</v>
       </c>
@@ -628,8 +646,17 @@
       <c r="U3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4">
         <v>4</v>
       </c>
@@ -689,8 +716,17 @@
       <c r="U4">
         <v>-2.1828206253269959</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5">
         <v>1</v>
       </c>
@@ -742,21 +778,33 @@
       <c r="U5">
         <v>0.4850712500726661</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:37">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AI8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9">
         <f t="array" ref="A9:C11">MMULT(S3:U5,O3:Q5)</f>
         <v>3</v>
@@ -841,8 +889,18 @@
       <c r="AG9">
         <v>-2.2204460492503131E-16</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AI9">
+        <f t="array" ref="AI9:AK11">MMULT(MMULT(W3:Y5,TRANSPOSE(H9:J11)),TRANSPOSE(S9:U11))</f>
+        <v>0.58834840541455224</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.629843866925206</v>
+      </c>
+      <c r="AK9">
+        <v>0.50709255283710997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10">
         <v>-4.1231056256176588</v>
       </c>
@@ -924,8 +982,17 @@
       <c r="AG10">
         <v>0.43705881545081016</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AI10">
+        <v>-0.8086075400626398</v>
+      </c>
+      <c r="AJ10">
+        <v>-0.45827872782001744</v>
+      </c>
+      <c r="AK10">
+        <v>0.36896402776085468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11">
         <v>3.3306690738754696E-16</v>
       </c>
@@ -1005,13 +1072,22 @@
       <c r="AG11">
         <v>0.54285714285714282</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>-0.62711825912212915</v>
+      </c>
+      <c r="AK11">
+        <v>-0.77892405860624836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:37">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1019,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:37">
       <c r="A15">
         <f>AE9</f>
         <v>6.2307692307692282</v>
@@ -1106,8 +1182,18 @@
       <c r="AG15">
         <v>1.3877787807814457E-16</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AI15">
+        <f t="array" ref="AI15:AK17">MMULT(MMULT(AI9:AK11,TRANSPOSE(H15:J17)),TRANSPOSE(S15:U17))</f>
+        <v>0.76870611478580742</v>
+      </c>
+      <c r="AJ15">
+        <v>0.47290691593912404</v>
+      </c>
+      <c r="AK15">
+        <v>-0.43063901117740738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16">
         <f t="shared" ref="A16:A17" si="5">AE10</f>
         <v>-2.2754153011921585</v>
@@ -1192,8 +1278,17 @@
       <c r="AG16">
         <v>-0.10667494444041981</v>
       </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AI16">
+        <v>-0.60234015052236367</v>
+      </c>
+      <c r="AJ16">
+        <v>0.76170422000760796</v>
+      </c>
+      <c r="AK16">
+        <v>-0.23873211826500773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17">
         <f t="shared" si="5"/>
         <v>2.6909463176097677E-17</v>
@@ -1276,13 +1371,22 @@
       <c r="AG17">
         <v>0.5971404541631623</v>
       </c>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AI17">
+        <v>0.21512148232941566</v>
+      </c>
+      <c r="AJ17">
+        <v>0.44290600591948137</v>
+      </c>
+      <c r="AK17">
+        <v>0.87037751450784118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1290,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:37">
       <c r="A21">
         <f>AE15</f>
         <v>6.7552447552447514</v>
@@ -1377,8 +1481,18 @@
       <c r="AG21">
         <v>-1.8561541192951836E-16</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AI21">
+        <f t="array" ref="AI21:AK23">MMULT(MMULT(AI15:AK17,TRANSPOSE(H21:J23)),TRANSPOSE(S21:U23))</f>
+        <v>0.70344416826468936</v>
+      </c>
+      <c r="AJ21">
+        <v>-0.54609082691384914</v>
+      </c>
+      <c r="AK21">
+        <v>0.45491879593499696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22">
         <f t="shared" ref="A22:A23" si="10">AE16</f>
         <v>-0.85253044337318873</v>
@@ -1463,8 +1577,17 @@
       <c r="AG22">
         <v>2.625195638444526E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AI22">
+        <v>-0.69297258232457881</v>
+      </c>
+      <c r="AJ22">
+        <v>-0.66921761790976753</v>
+      </c>
+      <c r="AK22">
+        <v>0.26821032796218119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23">
         <f t="shared" si="10"/>
         <v>-2.4882771707975014E-17</v>
@@ -1547,13 +1670,22 @@
       <c r="AG23">
         <v>0.60061890330091883</v>
       </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AI23">
+        <v>0.15797247317429616</v>
+      </c>
+      <c r="AJ23">
+        <v>-0.50391724384041914</v>
+      </c>
+      <c r="AK23">
+        <v>-0.84918320112886814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:37">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1561,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:37">
       <c r="A27">
         <f>AE21</f>
         <v>6.8242703069613047</v>
@@ -1648,8 +1780,18 @@
       <c r="AG27">
         <v>1.6631661325927638E-16</v>
       </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AI27">
+        <f t="array" ref="AI27:AK29">MMULT(MMULT(AI21:AK23,TRANSPOSE(H27:J29)),TRANSPOSE(S27:U29))</f>
+        <v>0.72719117617874995</v>
+      </c>
+      <c r="AJ27">
+        <v>0.51891670133536272</v>
+      </c>
+      <c r="AK27">
+        <v>-0.44935336914614527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28">
         <f t="shared" ref="A28:A29" si="13">AE22</f>
         <v>-0.30588044890904981</v>
@@ -1734,8 +1876,17 @@
       <c r="AG28">
         <v>-6.4745543369521957E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AI28">
+        <v>-0.6623116403903504</v>
+      </c>
+      <c r="AJ28">
+        <v>0.70242539923676506</v>
+      </c>
+      <c r="AK28">
+        <v>-0.26065657388700947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>2.6401036707983875E-17</v>
@@ -1818,13 +1969,22 @@
       <c r="AG29">
         <v>0.60083174056212674</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AI29">
+        <v>0.18037817021804242</v>
+      </c>
+      <c r="AJ29">
+        <v>0.48715912757773183</v>
+      </c>
+      <c r="AK29">
+        <v>0.85448212393618517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:37">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1832,7 +1992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:37">
       <c r="A33">
         <f>AE27</f>
         <v>6.8330911671011609</v>
@@ -1919,8 +2079,18 @@
       <c r="AG33">
         <v>-1.7409576384685987E-16</v>
       </c>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="AI33">
+        <f t="array" ref="AI33:AK35">MMULT(MMULT(AI27:AK29,TRANSPOSE(H33:J35)),TRANSPOSE(S33:U35))</f>
+        <v>0.71881500410088317</v>
+      </c>
+      <c r="AJ33">
+        <v>-0.5292622941493953</v>
+      </c>
+      <c r="AK33">
+        <v>0.45076203685666122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34">
         <f t="shared" ref="A34:A35" si="16">AE28</f>
         <v>-0.10909115789390036</v>
@@ -2005,8 +2175,17 @@
       <c r="AG34">
         <v>1.5973863952448647E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AI34">
+        <v>-0.67344013052534957</v>
+      </c>
+      <c r="AJ34">
+        <v>-0.69106794087422518</v>
+      </c>
+      <c r="AK34">
+        <v>0.26249474603095996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35">
         <f t="shared" si="16"/>
         <v>-2.6528377988496355E-17</v>
@@ -2089,13 +2268,22 @@
       <c r="AG35">
         <v>0.60084470465060269</v>
       </c>
-    </row>
-    <row r="37" spans="1:33">
+      <c r="AI35">
+        <v>0.17257862114829581</v>
+      </c>
+      <c r="AJ35">
+        <v>-0.4922464068813272</v>
+      </c>
+      <c r="AK35">
+        <v>-0.85317647320761025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:37">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2103,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:37">
       <c r="A39">
         <f>AE33</f>
         <v>6.8342121643960185</v>
@@ -2190,8 +2378,18 @@
       <c r="AG39">
         <v>1.7114978325630942E-16</v>
       </c>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AI39">
+        <f t="array" ref="AI39:AK41">MMULT(MMULT(AI33:AK35,TRANSPOSE(H39:J41)),TRANSPOSE(S39:U41))</f>
+        <v>0.72181399596225138</v>
+      </c>
+      <c r="AJ39">
+        <v>0.52546043341165227</v>
+      </c>
+      <c r="AK39">
+        <v>-0.45041745986567283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
       <c r="A40">
         <f t="shared" ref="A40:A41" si="19">AE34</f>
         <v>-3.8875918876566502E-2</v>
@@ -2276,8 +2474,17 @@
       <c r="AG40">
         <v>-3.9412253600091705E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AI40">
+        <v>-0.66949820900938106</v>
+      </c>
+      <c r="AJ40">
+        <v>0.69505954651122515</v>
+      </c>
+      <c r="AK40">
+        <v>-0.26203888058232971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41">
         <f t="shared" si="19"/>
         <v>2.6488013841577679E-17</v>
@@ -2360,13 +2567,22 @@
       <c r="AG41">
         <v>0.60084549391044229</v>
       </c>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AI41">
+        <v>0.17537589163347747</v>
+      </c>
+      <c r="AJ41">
+        <v>0.49069701417722944</v>
+      </c>
+      <c r="AK41">
+        <v>0.85349852777337287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:37">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2374,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:37">
       <c r="A45">
         <f>AE39</f>
         <v>6.8343545085582678</v>
@@ -2461,8 +2677,18 @@
       <c r="AG45">
         <v>-1.722460556482933E-16</v>
       </c>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AI45">
+        <f t="array" ref="AI45:AK47">MMULT(MMULT(AI39:AK41,TRANSPOSE(H45:J47)),TRANSPOSE(S45:U47))</f>
+        <v>0.72074746712324878</v>
+      </c>
+      <c r="AJ45">
+        <v>-0.52684948205781124</v>
+      </c>
+      <c r="AK45">
+        <v>0.45050273238997873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46">
         <f t="shared" ref="A46:A47" si="22">AE40</f>
         <v>-1.3852456603696588E-2</v>
@@ -2547,8 +2773,17 @@
       <c r="AG46">
         <v>9.7242331071302414E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:33">
+      <c r="AI46">
+        <v>-0.6709056372569111</v>
+      </c>
+      <c r="AJ46">
+        <v>-0.69365870699031584</v>
+      </c>
+      <c r="AK46">
+        <v>0.26215114745776041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
       <c r="A47">
         <f t="shared" si="22"/>
         <v>-2.6486346140252563E-17</v>
@@ -2631,13 +2866,22 @@
       <c r="AG47">
         <v>0.60084554195813922</v>
       </c>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="AI47">
+        <v>0.17438094658625508</v>
+      </c>
+      <c r="AJ47">
+        <v>-0.49118959829371261</v>
+      </c>
+      <c r="AK47">
+        <v>-0.8534190436097282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
       <c r="A49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:37">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2645,7 +2889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:37">
       <c r="A51">
         <f>AE45</f>
         <v>6.834372581382409</v>
@@ -2732,8 +2976,18 @@
       <c r="AG51">
         <v>1.7184395322636392E-16</v>
       </c>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="AI51">
+        <f t="array" ref="AI51:AK53">MMULT(MMULT(AI45:AK47,TRANSPOSE(H51:J53)),TRANSPOSE(S51:U53))</f>
+        <v>0.72112777940853112</v>
+      </c>
+      <c r="AJ51">
+        <v>0.52634679664261175</v>
+      </c>
+      <c r="AK51">
+        <v>-0.45048171486685373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
       <c r="A52">
         <f t="shared" ref="A52:A53" si="25">AE46</f>
         <v>-4.9359091788526441E-3</v>
@@ -2818,8 +3072,17 @@
       <c r="AG52">
         <v>-2.3992738288421253E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="AI52">
+        <v>-0.67040448938002539</v>
+      </c>
+      <c r="AJ52">
+        <v>0.69415353387717993</v>
+      </c>
+      <c r="AK52">
+        <v>-0.2621234289889588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
       <c r="A53">
         <f t="shared" si="25"/>
         <v>2.6486572138425127E-17</v>
@@ -2902,13 +3165,22 @@
       <c r="AG53">
         <v>0.60084554488311348</v>
       </c>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="AI53">
+        <v>0.17473564714856321</v>
+      </c>
+      <c r="AJ53">
+        <v>0.49102945030810907</v>
+      </c>
+      <c r="AK53">
+        <v>0.85343865189343837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37">
       <c r="A55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:37">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2916,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:37">
       <c r="A57">
         <f>AE51</f>
         <v>6.8343748759771943</v>
@@ -3003,8 +3275,18 @@
       <c r="AG57">
         <v>-1.7199009287954489E-16</v>
       </c>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AI57">
+        <f t="array" ref="AI57:AK59">MMULT(MMULT(AI51:AK53,TRANSPOSE(H57:J59)),TRANSPOSE(S57:U59))</f>
+        <v>0.72099230523442959</v>
+      </c>
+      <c r="AJ57">
+        <v>-0.52652791618077566</v>
+      </c>
+      <c r="AK57">
+        <v>0.45048690244564538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37">
       <c r="A58">
         <f t="shared" ref="A58:A59" si="28">AE52</f>
         <v>-1.7587608342781117E-3</v>
@@ -3089,8 +3371,17 @@
       <c r="AG58">
         <v>5.9197629862101064E-6</v>
       </c>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AI58">
+        <v>-0.67058310093082241</v>
+      </c>
+      <c r="AJ58">
+        <v>-0.69397840615652018</v>
+      </c>
+      <c r="AK58">
+        <v>0.26213026634568082</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
       <c r="A59">
         <f t="shared" si="28"/>
         <v>-2.6486555421740898E-17</v>
@@ -3173,13 +3464,22 @@
       <c r="AG59">
         <v>0.60084554506117538</v>
       </c>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AI59">
+        <v>0.17460927964671391</v>
+      </c>
+      <c r="AJ59">
+        <v>-0.49108280897500939</v>
+      </c>
+      <c r="AK59">
+        <v>-0.85343381359685433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
       <c r="A61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:37">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3187,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:37">
       <c r="A63">
         <f>AE57</f>
         <v>6.8343751673071607</v>
@@ -3274,8 +3574,18 @@
       <c r="AG63">
         <v>1.7193732175499372E-16</v>
       </c>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AI63">
+        <f t="array" ref="AI63:AK65">MMULT(MMULT(AI57:AK59,TRANSPOSE(H63:J65)),TRANSPOSE(S63:U65))</f>
+        <v>0.72104058238583635</v>
+      </c>
+      <c r="AJ63">
+        <v>0.52646289738107621</v>
+      </c>
+      <c r="AK63">
+        <v>-0.45048562267159603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
       <c r="A64">
         <f t="shared" ref="A64:A65" si="31">AE58</f>
         <v>-6.2668069711622251E-4</v>
@@ -3360,8 +3670,17 @@
       <c r="AG64">
         <v>-1.4605916962282055E-6</v>
       </c>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="AI64">
+        <v>-0.67051946349126401</v>
+      </c>
+      <c r="AJ64">
+        <v>0.6940405298265836</v>
+      </c>
+      <c r="AK64">
+        <v>-0.26212857920765131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37">
       <c r="A65">
         <f t="shared" si="31"/>
         <v>2.6486556679827311E-17</v>
@@ -3444,13 +3763,22 @@
       <c r="AG65">
         <v>0.60084554507201515</v>
       </c>
-    </row>
-    <row r="67" spans="1:33">
+      <c r="AI65">
+        <v>0.17465430894220801</v>
+      </c>
+      <c r="AJ65">
+        <v>0.49106472143614355</v>
+      </c>
+      <c r="AK65">
+        <v>0.85343500732555067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37">
       <c r="A67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:37">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3458,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:37">
       <c r="A69">
         <f>AE63</f>
         <v>6.8343752042954478</v>
@@ -3545,8 +3873,18 @@
       <c r="AG69">
         <v>-1.7195629824113562E-16</v>
       </c>
-    </row>
-    <row r="70" spans="1:33">
+      <c r="AI69">
+        <f t="array" ref="AI69:AK71">MMULT(MMULT(AI63:AK65,TRANSPOSE(H69:J71)),TRANSPOSE(S69:U71))</f>
+        <v>0.72102338095765239</v>
+      </c>
+      <c r="AJ69">
+        <v>-0.52648618535949343</v>
+      </c>
+      <c r="AK69">
+        <v>0.45048593844647838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37">
       <c r="A70">
         <f t="shared" ref="A70:A71" si="34">AE64</f>
         <v>-2.2329851661399445E-4</v>
@@ -3631,8 +3969,17 @@
       <c r="AG70">
         <v>3.6037390454910982E-7</v>
       </c>
-    </row>
-    <row r="71" spans="1:33">
+      <c r="AI70">
+        <v>-0.67054213941555518</v>
+      </c>
+      <c r="AJ70">
+        <v>-0.69401846445515758</v>
+      </c>
+      <c r="AK70">
+        <v>0.26212899546466556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37">
       <c r="A71">
         <f t="shared" si="34"/>
         <v>-2.6486556490729965E-17</v>
@@ -3715,13 +4062,22 @@
       <c r="AG71">
         <v>0.60084554507267518</v>
       </c>
-    </row>
-    <row r="73" spans="1:33">
+      <c r="AI71">
+        <v>0.17463826436495797</v>
+      </c>
+      <c r="AJ71">
+        <v>-0.49107093949949226</v>
+      </c>
+      <c r="AK71">
+        <v>-0.85343471279218608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37">
       <c r="A73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:37">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3729,7 +4085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:37">
       <c r="A75">
         <f>AE69</f>
         <v>6.8343752089916112</v>
@@ -3816,8 +4172,18 @@
       <c r="AG75">
         <v>1.7194949394792861E-16</v>
       </c>
-    </row>
-    <row r="76" spans="1:33">
+      <c r="AI75">
+        <f t="array" ref="AI75:AK77">MMULT(MMULT(AI69:AK71,TRANSPOSE(H75:J77)),TRANSPOSE(S75:U77))</f>
+        <v>0.72102951024605255</v>
+      </c>
+      <c r="AJ75">
+        <v>0.5264778578547713</v>
+      </c>
+      <c r="AK75">
+        <v>-0.45048586053614142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37">
       <c r="A76">
         <f t="shared" ref="A76:A77" si="37">AE70</f>
         <v>-7.9565602671089752E-5</v>
@@ -3902,8 +4268,17 @@
       <c r="AG76">
         <v>-8.8915576330903715E-8</v>
       </c>
-    </row>
-    <row r="77" spans="1:33">
+      <c r="AI76">
+        <v>-0.67053405962680213</v>
+      </c>
+      <c r="AJ76">
+        <v>0.69402630963163681</v>
+      </c>
+      <c r="AK76">
+        <v>-0.26212889275982287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37">
       <c r="A77">
         <f t="shared" si="37"/>
         <v>2.6486556483506545E-17</v>
@@ -3986,13 +4361,22 @@
       <c r="AG77">
         <v>0.60084554507271537</v>
       </c>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="AI77">
+        <v>0.17464398138709597</v>
+      </c>
+      <c r="AJ77">
+        <v>0.49106878003772775</v>
+      </c>
+      <c r="AK77">
+        <v>0.85343478546255747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37">
       <c r="A79" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:37">
       <c r="A80">
         <v>3</v>
       </c>
@@ -4000,7 +4384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:37">
       <c r="A81">
         <f>AE75</f>
         <v>6.8343752095878525</v>
@@ -4087,8 +4471,18 @@
       <c r="AG81">
         <v>-1.7195192897332713E-16</v>
       </c>
-    </row>
-    <row r="82" spans="1:33">
+      <c r="AI81">
+        <f t="array" ref="AI81:AK83">MMULT(MMULT(AI75:AK77,TRANSPOSE(H81:J83)),TRANSPOSE(S81:U83))</f>
+        <v>0.72102732627236588</v>
+      </c>
+      <c r="AJ81">
+        <v>-0.52648083242043853</v>
+      </c>
+      <c r="AK81">
+        <v>0.45048587975918186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37">
       <c r="A82">
         <f t="shared" ref="A82:A83" si="40">AE76</f>
         <v>-2.8350771073673889E-5</v>
@@ -4173,8 +4567,17 @@
       <c r="AG82">
         <v>2.1938268233847123E-8</v>
       </c>
-    </row>
-    <row r="83" spans="1:33">
+      <c r="AI82">
+        <v>-0.67053693862319752</v>
+      </c>
+      <c r="AJ82">
+        <v>-0.69402351850454513</v>
+      </c>
+      <c r="AK82">
+        <v>0.26212891810023642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37">
       <c r="A83">
         <f t="shared" si="40"/>
         <v>-2.6486556481711319E-17</v>
@@ -4257,13 +4660,22 @@
       <c r="AG83">
         <v>0.6008455450727177</v>
       </c>
-    </row>
-    <row r="85" spans="1:33">
+      <c r="AI83">
+        <v>0.17464194430420149</v>
+      </c>
+      <c r="AJ83">
+        <v>-0.4910695356631814</v>
+      </c>
+      <c r="AK83">
+        <v>-0.85343476753246661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37">
       <c r="A85" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:37">
       <c r="A86">
         <v>3</v>
       </c>
@@ -4271,7 +4683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:37">
       <c r="A87">
         <f>AE81</f>
         <v>6.8343752096635528</v>
@@ -4358,8 +4770,18 @@
       <c r="AG87">
         <v>1.7195105873153668E-16</v>
       </c>
-    </row>
-    <row r="88" spans="1:33">
+      <c r="AI87">
+        <f t="array" ref="AI87:AK89">MMULT(MMULT(AI81:AK83,TRANSPOSE(H87:J89)),TRANSPOSE(S87:U89))</f>
+        <v>0.7210281044660477</v>
+      </c>
+      <c r="AJ87">
+        <v>0.5264797707233666</v>
+      </c>
+      <c r="AK87">
+        <v>-0.45048587501626292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37">
       <c r="A88">
         <f t="shared" ref="A88:A89" si="43">AE82</f>
         <v>-1.010193090284707E-5</v>
@@ -4444,8 +4866,17 @@
       <c r="AG88">
         <v>-5.4128614454008029E-9</v>
       </c>
-    </row>
-    <row r="89" spans="1:33">
+      <c r="AI88">
+        <v>-0.67053591278214841</v>
+      </c>
+      <c r="AJ88">
+        <v>0.69402451198990034</v>
+      </c>
+      <c r="AK88">
+        <v>-0.26212891184795056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37">
       <c r="A89">
         <f t="shared" si="43"/>
         <v>2.6486556481483403E-17</v>
@@ -4528,13 +4959,22 @@
       <c r="AG89">
         <v>0.60084554507271792</v>
       </c>
-    </row>
-    <row r="91" spans="1:33">
+      <c r="AI89">
+        <v>0.17464267015683055</v>
+      </c>
+      <c r="AJ89">
+        <v>0.49106926983497051</v>
+      </c>
+      <c r="AK89">
+        <v>0.85343477195638173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:37">
       <c r="A91" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:37">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4542,7 +4982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:37">
       <c r="A93">
         <f>AE87</f>
         <v>6.8343752096731638</v>
@@ -4629,8 +5069,18 @@
       <c r="AG93">
         <v>-1.7195136945603476E-16</v>
       </c>
-    </row>
-    <row r="94" spans="1:33">
+      <c r="AI93">
+        <f t="array" ref="AI93:AK95">MMULT(MMULT(AI87:AK89,TRANSPOSE(H93:J95)),TRANSPOSE(S93:U95))</f>
+        <v>0.72102782718068847</v>
+      </c>
+      <c r="AJ93">
+        <v>-0.52648014947154764</v>
+      </c>
+      <c r="AK93">
+        <v>0.45048587618649105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37">
       <c r="A94">
         <f t="shared" ref="A94:A95" si="46">AE88</f>
         <v>-3.5995143729946124E-6</v>
@@ -4715,8 +5165,17 @@
       <c r="AG94">
         <v>1.3355224078653605E-9</v>
       </c>
-    </row>
-    <row r="95" spans="1:33">
+      <c r="AI94">
+        <v>-0.67053627830942697</v>
+      </c>
+      <c r="AJ94">
+        <v>-0.6940241582507144</v>
+      </c>
+      <c r="AK94">
+        <v>0.26212891339058531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37">
       <c r="A95">
         <f t="shared" si="46"/>
         <v>-2.6486556481449578E-17</v>
@@ -4799,13 +5258,22 @@
       <c r="AG95">
         <v>0.60084554507271792</v>
       </c>
-    </row>
-    <row r="97" spans="1:33">
+      <c r="AI95">
+        <v>0.17464241152147525</v>
+      </c>
+      <c r="AJ95">
+        <v>-0.49106936371229987</v>
+      </c>
+      <c r="AK95">
+        <v>-0.85343477086486252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:37">
       <c r="A97" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:37">
       <c r="A98">
         <v>3</v>
       </c>
@@ -4813,7 +5281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:37">
       <c r="A99">
         <f>AE93</f>
         <v>6.8343752096743842</v>
@@ -4900,8 +5368,18 @@
       <c r="AG99">
         <v>1.719512585808649E-16</v>
       </c>
-    </row>
-    <row r="100" spans="1:33">
+      <c r="AI99">
+        <f t="array" ref="AI99:AK101">MMULT(MMULT(AI93:AK95,TRANSPOSE(H99:J101)),TRANSPOSE(S99:U101))</f>
+        <v>0.72102792598287535</v>
+      </c>
+      <c r="AJ99">
+        <v>0.52648001440649228</v>
+      </c>
+      <c r="AK99">
+        <v>-0.45048587589775907</v>
+      </c>
+    </row>
+    <row r="100" spans="1:37">
       <c r="A100">
         <f t="shared" ref="A100:A101" si="49">AE94</f>
         <v>-1.2825769494950206E-6</v>
@@ -4986,8 +5464,17 @@
       <c r="AG100">
         <v>-3.295161176034245E-10</v>
       </c>
-    </row>
-    <row r="101" spans="1:33">
+      <c r="AI100">
+        <v>-0.67053614806497275</v>
+      </c>
+      <c r="AJ100">
+        <v>0.69402428423103468</v>
+      </c>
+      <c r="AK100">
+        <v>-0.26212891300996871</v>
+      </c>
+    </row>
+    <row r="101" spans="1:37">
       <c r="A101">
         <f t="shared" si="49"/>
         <v>2.6486556481446844E-17</v>
@@ -5070,13 +5557,22 @@
       <c r="AG101">
         <v>0.60084554507271792</v>
       </c>
-    </row>
-    <row r="103" spans="1:33">
+      <c r="AI101">
+        <v>0.17464250367828638</v>
+      </c>
+      <c r="AJ101">
+        <v>0.49106933046988227</v>
+      </c>
+      <c r="AK101">
+        <v>0.85343477113417465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:37">
       <c r="A103" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:37">
       <c r="A104">
         <v>3</v>
       </c>
@@ -5084,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:37">
       <c r="A105">
         <f>AE99</f>
         <v>6.8343752096745378</v>
@@ -5171,8 +5667,18 @@
       <c r="AG105">
         <v>-1.7195129812682757E-16</v>
       </c>
-    </row>
-    <row r="106" spans="1:33">
+      <c r="AI105">
+        <f t="array" ref="AI105:AK107">MMULT(MMULT(AI99:AK101,TRANSPOSE(H105:J107)),TRANSPOSE(S105:U107))</f>
+        <v>0.72102789077773821</v>
+      </c>
+      <c r="AJ105">
+        <v>-0.52648006255987367</v>
+      </c>
+      <c r="AK105">
+        <v>0.45048587596899836</v>
+      </c>
+    </row>
+    <row r="106" spans="1:37">
       <c r="A106">
         <f t="shared" ref="A106:A107" si="52">AE100</f>
         <v>-4.5700710176834317E-7</v>
@@ -5257,8 +5763,17 @@
       <c r="AG106">
         <v>8.1301250165837051E-11</v>
       </c>
-    </row>
-    <row r="107" spans="1:33">
+      <c r="AI106">
+        <v>-0.67053619447360657</v>
+      </c>
+      <c r="AJ106">
+        <v>-0.6940242393575542</v>
+      </c>
+      <c r="AK106">
+        <v>0.26212891310387876</v>
+      </c>
+    </row>
+    <row r="107" spans="1:37">
       <c r="A107">
         <f t="shared" si="52"/>
         <v>-2.6486556481446376E-17</v>
@@ -5341,13 +5856,22 @@
       <c r="AG107">
         <v>0.60084554507271792</v>
       </c>
-    </row>
-    <row r="109" spans="1:33">
+      <c r="AI107">
+        <v>0.17464247084102369</v>
+      </c>
+      <c r="AJ107">
+        <v>-0.49106934226351229</v>
+      </c>
+      <c r="AK107">
+        <v>-0.85343477106772692</v>
+      </c>
+    </row>
+    <row r="109" spans="1:37">
       <c r="A109" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:37">
       <c r="A110">
         <v>3</v>
       </c>
@@ -5355,7 +5879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:37">
       <c r="A111">
         <f>AE105</f>
         <v>6.8343752096745574</v>
@@ -5442,8 +5966,18 @@
       <c r="AG111">
         <v>1.7195128402621405E-16</v>
       </c>
-    </row>
-    <row r="112" spans="1:33">
+      <c r="AI111">
+        <f t="array" ref="AI111:AK113">MMULT(MMULT(AI105:AK107,TRANSPOSE(H111:J113)),TRANSPOSE(S111:U113))</f>
+        <v>0.7210279033220135</v>
+      </c>
+      <c r="AJ111">
+        <v>0.52648004539520799</v>
+      </c>
+      <c r="AK111">
+        <v>-0.45048587595142137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:37">
       <c r="A112">
         <f t="shared" ref="A112:A113" si="55">AE106</f>
         <v>-1.6284051506533693E-7</v>
@@ -5528,8 +6062,17 @@
       <c r="AG112">
         <v>-2.0060314193971637E-11</v>
       </c>
-    </row>
-    <row r="113" spans="1:33">
+      <c r="AI112">
+        <v>-0.67053617793730858</v>
+      </c>
+      <c r="AJ112">
+        <v>0.69402425534296119</v>
+      </c>
+      <c r="AK112">
+        <v>-0.26212891308070818</v>
+      </c>
+    </row>
+    <row r="113" spans="1:37">
       <c r="A113">
         <f t="shared" si="55"/>
         <v>2.6486556481446318E-17</v>
@@ -5612,13 +6155,22 @@
       <c r="AG113">
         <v>0.60084554507271792</v>
       </c>
-    </row>
-    <row r="115" spans="1:33">
+      <c r="AI113">
+        <v>0.17464248254157891</v>
+      </c>
+      <c r="AJ113">
+        <v>0.49106933807386821</v>
+      </c>
+      <c r="AK113">
+        <v>0.85343477108412169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37">
       <c r="A115" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:33">
+    <row r="116" spans="1:37">
       <c r="A116">
         <v>3</v>
       </c>
@@ -5626,7 +6178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:33">
+    <row r="117" spans="1:37">
       <c r="A117">
         <f>AE111</f>
         <v>6.83437520967456</v>
@@ -5713,8 +6265,18 @@
       <c r="AG117">
         <v>-1.7195128905290994E-16</v>
       </c>
-    </row>
-    <row r="118" spans="1:33">
+      <c r="AI117">
+        <f t="array" ref="AI117:AK119">MMULT(MMULT(AI111:AK113,TRANSPOSE(H117:J119)),TRANSPOSE(S117:U119))</f>
+        <v>0.7210278988522445</v>
+      </c>
+      <c r="AJ117">
+        <v>-0.52648005151296029</v>
+      </c>
+      <c r="AK117">
+        <v>0.45048587595575817</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37">
       <c r="A118">
         <f t="shared" ref="A118:A119" si="58">AE112</f>
         <v>-5.8023241310997494E-8</v>
@@ -5799,8 +6361,17 @@
       <c r="AG118">
         <v>4.9487714375739149E-12</v>
       </c>
-    </row>
-    <row r="119" spans="1:33">
+      <c r="AI118">
+        <v>-0.67053618382951319</v>
+      </c>
+      <c r="AJ118">
+        <v>-0.69402424964800902</v>
+      </c>
+      <c r="AK118">
+        <v>0.26212891308642511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37">
       <c r="A119">
         <f t="shared" si="58"/>
         <v>-2.6486556481446311E-17</v>
@@ -5883,13 +6454,22 @@
       <c r="AG119">
         <v>0.60084554507271792</v>
       </c>
-    </row>
-    <row r="121" spans="1:33">
+      <c r="AI119">
+        <v>0.17464247837244365</v>
+      </c>
+      <c r="AJ119">
+        <v>-0.4910693395635975</v>
+      </c>
+      <c r="AK119">
+        <v>-0.85343477108007659</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37">
       <c r="A121" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:37">
       <c r="A122">
         <v>3</v>
       </c>
@@ -5897,7 +6477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:37">
       <c r="A123">
         <f>AE117</f>
         <v>6.8343752096745609</v>
@@ -5984,8 +6564,18 @@
       <c r="AG123">
         <v>1.7195128726121496E-16</v>
       </c>
-    </row>
-    <row r="124" spans="1:33">
+      <c r="AI123">
+        <f t="array" ref="AI123:AK125">MMULT(MMULT(AI117:AK119,TRANSPOSE(H123:J125)),TRANSPOSE(S123:U125))</f>
+        <v>0.72102790044491016</v>
+      </c>
+      <c r="AJ123">
+        <v>0.52648004933267956</v>
+      </c>
+      <c r="AK123">
+        <v>-0.45048587595468814</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37">
       <c r="A124">
         <f t="shared" ref="A124:A125" si="61">AE118</f>
         <v>-2.0674808912778364E-8</v>
@@ -6070,8 +6660,17 @@
       <c r="AG124">
         <v>-1.2217564945499907E-12</v>
       </c>
-    </row>
-    <row r="125" spans="1:33">
+      <c r="AI124">
+        <v>-0.67053618173000618</v>
+      </c>
+      <c r="AJ124">
+        <v>0.69402425167699455</v>
+      </c>
+      <c r="AK124">
+        <v>-0.26212891308501457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37">
       <c r="A125">
         <f t="shared" si="61"/>
         <v>2.6486556481446311E-17</v>
@@ -6153,6 +6752,161 @@
       </c>
       <c r="AG125">
         <v>0.60084554507271792</v>
+      </c>
+      <c r="AI125">
+        <v>0.17464247985798761</v>
+      </c>
+      <c r="AJ125">
+        <v>0.49106933903354844</v>
+      </c>
+      <c r="AK125">
+        <v>0.85343477108107468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37">
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <f>AI117</f>
+        <v>0.7210278988522445</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:C130" si="62">AJ117</f>
+        <v>-0.52648005151296029</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="62"/>
+        <v>0.45048587595575817</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <f t="shared" ref="A131:A132" si="63">AI118</f>
+        <v>-0.67053618382951319</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B132" si="64">AJ118</f>
+        <v>-0.69402424964800902</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C132" si="65">AK118</f>
+        <v>0.26212891308642511</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <f t="shared" si="63"/>
+        <v>0.17464247837244365</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="64"/>
+        <v>-0.4910693395635975</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="65"/>
+        <v>-0.85343477108007659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <f t="array" ref="A135:C137">MMULT(MMULT(A130:C132,A123:C125),TRANSPOSE(A130:C132))</f>
+        <v>2.9999999999999942</v>
+      </c>
+      <c r="B135">
+        <v>-4.123105625617649</v>
+      </c>
+      <c r="C135">
+        <v>2.2204460492503131E-16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>-4.123105625617649</v>
+      </c>
+      <c r="B136">
+        <v>1.9411764705882282</v>
+      </c>
+      <c r="C136">
+        <v>-1.7647058823529387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>2.7755575615628914E-16</v>
+      </c>
+      <c r="B137">
+        <v>-1.7647058823529378</v>
+      </c>
+      <c r="C137">
+        <v>5.8823529411765885E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <f>A9-A135</f>
+        <v>5.773159728050814E-15</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ref="B140:C140" si="66">B9-B135</f>
+        <v>-9.7699626167013776E-15</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="66"/>
+        <v>1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <f t="shared" ref="A141:C141" si="67">A10-A136</f>
+        <v>-9.7699626167013776E-15</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="67"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="67"/>
+        <v>-1.9984014443252818E-15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <f t="shared" ref="A142:C142" si="68">A11-A137</f>
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="68"/>
+        <v>-2.6645352591003757E-15</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="68"/>
+        <v>-8.8817841970012523E-16</v>
       </c>
     </row>
   </sheetData>
@@ -6163,20 +6917,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV287"/>
+  <dimension ref="A1:BA306"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303:D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:53">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6961,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:53">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6211,7 +6970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6220,7 +6979,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:53">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6229,17 +6988,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:53">
       <c r="A8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:53">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:53">
       <c r="A10">
         <v>4</v>
       </c>
@@ -6258,8 +7017,11 @@
       <c r="AS10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:48">
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
       <c r="A11">
         <v>0</v>
       </c>
@@ -6370,8 +7132,21 @@
       <c r="AV11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:48">
+      <c r="AX11">
+        <f t="array" ref="AX11:BA14">TRANSPOSE(AS11:AV14)</f>
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6494,8 +7269,20 @@
       <c r="AV12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:48">
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
       <c r="A13">
         <v>0</v>
       </c>
@@ -6619,8 +7406,20 @@
       <c r="AV13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:48">
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6734,13 +7533,25 @@
       <c r="AV14">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:48">
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
       <c r="A16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:53">
       <c r="A17">
         <v>4</v>
       </c>
@@ -6760,7 +7571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:53">
       <c r="A18">
         <f t="array" ref="A18:D21">MMULT(AN11:AQ14,TRANSPOSE(AS11:AV14))</f>
         <v>0</v>
@@ -6871,8 +7682,21 @@
       <c r="AV18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:48">
+      <c r="AX18">
+        <f t="array" ref="AX18:BA21">MMULT(AX11:BA14,TRANSPOSE(AS18:AV21))</f>
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>-0.43273106758477131</v>
+      </c>
+      <c r="BA18">
+        <v>-0.90152305746827355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6994,8 +7818,20 @@
       <c r="AV19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:48">
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0.90152305746827355</v>
+      </c>
+      <c r="BA19">
+        <v>-0.43273106758477131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53">
       <c r="A20">
         <v>0</v>
       </c>
@@ -7118,8 +7954,20 @@
       <c r="AV20">
         <v>0.43273106758477131</v>
       </c>
-    </row>
-    <row r="21" spans="1:48">
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53">
       <c r="A21">
         <v>0</v>
       </c>
@@ -7232,13 +8080,25 @@
       <c r="AV21">
         <v>0.90152305746827355</v>
       </c>
-    </row>
-    <row r="23" spans="1:48">
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:53">
       <c r="A24">
         <v>4</v>
       </c>
@@ -7258,7 +8118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:53">
       <c r="A25">
         <f t="array" ref="A25:D28">MMULT(AN18:AQ21,TRANSPOSE(AS18:AV21))</f>
         <v>0</v>
@@ -7369,8 +8229,21 @@
       <c r="AV25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:48">
+      <c r="AX25">
+        <f t="array" ref="AX25:BA28">MMULT(AX18:BA21,TRANSPOSE(AS25:AV28))</f>
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>-0.36595401847911674</v>
+      </c>
+      <c r="AZ25">
+        <v>-0.50737054882999455</v>
+      </c>
+      <c r="BA25">
+        <v>-0.78016202326115336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7492,8 +8365,20 @@
       <c r="AV26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:48">
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0.76240420516482654</v>
+      </c>
+      <c r="AZ26">
+        <v>0.31729291553667838</v>
+      </c>
+      <c r="BA26">
+        <v>-0.56397254693577348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53">
       <c r="A27">
         <v>0</v>
       </c>
@@ -7616,8 +8501,20 @@
       <c r="AV27">
         <v>0.32010374637330113</v>
       </c>
-    </row>
-    <row r="28" spans="1:48">
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>-0.5336829436153786</v>
+      </c>
+      <c r="AZ27">
+        <v>0.8011868271072512</v>
+      </c>
+      <c r="BA27">
+        <v>-0.27070682252917139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53">
       <c r="A28">
         <v>0</v>
       </c>
@@ -7730,13 +8627,25 @@
       <c r="AV28">
         <v>0.94738249485504922</v>
       </c>
-    </row>
-    <row r="30" spans="1:48">
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53">
       <c r="A30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:53">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7756,7 +8665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:53">
       <c r="A32">
         <f t="array" ref="A32:D35">MMULT(AN25:AQ28,TRANSPOSE(AS25:AV28))</f>
         <v>10</v>
@@ -7867,8 +8776,21 @@
       <c r="AV32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:48">
+      <c r="AX32">
+        <f t="array" ref="AX32:BA35">MMULT(AX25:BA28,TRANSPOSE(AS32:AV35))</f>
+        <v>-0.36177250531690763</v>
+      </c>
+      <c r="AY32">
+        <v>-0.42107219052364842</v>
+      </c>
+      <c r="AZ32">
+        <v>-0.48554478717917182</v>
+      </c>
+      <c r="BA32">
+        <v>-0.67532593938592123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53">
       <c r="A33">
         <v>65.582009728278379</v>
       </c>
@@ -7990,8 +8912,20 @@
       <c r="AV33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:48">
+      <c r="AX33">
+        <v>0.75369271941022431</v>
+      </c>
+      <c r="AY33">
+        <v>0.31567654525924416</v>
+      </c>
+      <c r="AZ33">
+        <v>-3.5044656252415804E-2</v>
+      </c>
+      <c r="BA33">
+        <v>-0.57538463270177731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53">
       <c r="A34">
         <v>-1.1372369583757132E-15</v>
       </c>
@@ -8114,8 +9048,20 @@
       <c r="AV34">
         <v>0.26603716400500532</v>
       </c>
-    </row>
-    <row r="35" spans="1:48">
+      <c r="AX34">
+        <v>-0.52758490358715704</v>
+      </c>
+      <c r="AY34">
+        <v>0.55584719089958889</v>
+      </c>
+      <c r="AZ34">
+        <v>0.48957267626118128</v>
+      </c>
+      <c r="BA34">
+        <v>-0.41594069833863434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53">
       <c r="A35">
         <v>-3.3657787485276786E-15</v>
       </c>
@@ -8228,13 +9174,25 @@
       <c r="AV35">
         <v>0.96396277281240161</v>
       </c>
-    </row>
-    <row r="37" spans="1:48">
+      <c r="AX35">
+        <v>0.15073854388204486</v>
+      </c>
+      <c r="AY35">
+        <v>-0.64349081540441633</v>
+      </c>
+      <c r="AZ35">
+        <v>0.72342015894620126</v>
+      </c>
+      <c r="BA35">
+        <v>-0.19965153520254447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53">
       <c r="A37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:53">
       <c r="A38">
         <v>4</v>
       </c>
@@ -8254,7 +9212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:53">
       <c r="A39">
         <f t="array" ref="A39:D42">MMULT(AN32:AQ35,TRANSPOSE(AS32:AV35))</f>
         <v>9.250170415814587</v>
@@ -8365,8 +9323,21 @@
       <c r="AV39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:48">
+      <c r="AX39">
+        <f t="array" ref="AX39:BA42">MMULT(AX32:BA35,TRANSPOSE(AS39:AV42))</f>
+        <v>-0.39015313772770904</v>
+      </c>
+      <c r="AY39">
+        <v>-0.48750702448240735</v>
+      </c>
+      <c r="AZ39">
+        <v>-0.50142291168926079</v>
+      </c>
+      <c r="BA39">
+        <v>-0.59890942039226303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53">
       <c r="A40">
         <v>0.64423092604178223</v>
       </c>
@@ -8488,8 +9459,20 @@
       <c r="AV40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:48">
+      <c r="AX40">
+        <v>0.77380372315995627</v>
+      </c>
+      <c r="AY40">
+        <v>0.24946546597856001</v>
+      </c>
+      <c r="AZ40">
+        <v>-0.18540334227886451</v>
+      </c>
+      <c r="BA40">
+        <v>-0.55192425203076156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53">
       <c r="A41">
         <v>-2.9543837003454325E-16</v>
       </c>
@@ -8612,8 +9595,20 @@
       <c r="AV41">
         <v>0.16972955607478366</v>
       </c>
-    </row>
-    <row r="42" spans="1:48">
+      <c r="AX41">
+        <v>-0.4876914221596364</v>
+      </c>
+      <c r="AY41">
+        <v>0.68027030692846324</v>
+      </c>
+      <c r="AZ41">
+        <v>0.27974793214848132</v>
+      </c>
+      <c r="BA41">
+        <v>-0.47024512833416399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53">
       <c r="A42">
         <v>-4.4478377544501183E-16</v>
       </c>
@@ -8726,13 +9721,25 @@
       <c r="AV42">
         <v>0.9854906786949621</v>
       </c>
-    </row>
-    <row r="44" spans="1:48">
+      <c r="AX42">
+        <v>0.10566647480125455</v>
+      </c>
+      <c r="AY42">
+        <v>-0.48717162466205211</v>
+      </c>
+      <c r="AZ42">
+        <v>0.7974595655978669</v>
+      </c>
+      <c r="BA42">
+        <v>-0.33993623734999701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53">
       <c r="A44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:53">
       <c r="A45">
         <v>4</v>
       </c>
@@ -8752,7 +9759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:53">
       <c r="A46">
         <f t="array" ref="A46:D49">MMULT(AN39:AQ42,TRANSPOSE(AS39:AV42))</f>
         <v>6.262166326198928</v>
@@ -8863,8 +9870,21 @@
       <c r="AV46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:48">
+      <c r="AX46">
+        <f t="array" ref="AX46:BA49">MMULT(AX39:BA42,TRANSPOSE(AS46:AV49))</f>
+        <v>-0.40478400325036495</v>
+      </c>
+      <c r="AY46">
+        <v>-0.5152837503822052</v>
+      </c>
+      <c r="AZ46">
+        <v>-0.51433621468382029</v>
+      </c>
+      <c r="BA46">
+        <v>-0.55325475648147548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53">
       <c r="A47">
         <v>0.19033890678665669</v>
       </c>
@@ -8986,8 +10006,20 @@
       <c r="AV47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:48">
+      <c r="AX47">
+        <v>0.78102554473307595</v>
+      </c>
+      <c r="AY47">
+        <v>0.2097278403724111</v>
+      </c>
+      <c r="AZ47">
+        <v>-0.25415226299712179</v>
+      </c>
+      <c r="BA47">
+        <v>-0.53049030025116206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53">
       <c r="A48">
         <v>-3.5139193016395816E-16</v>
       </c>
@@ -9110,8 +10142,20 @@
       <c r="AV48">
         <v>9.3473792951903306E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:48">
+      <c r="AX48">
+        <v>-0.46679898836372224</v>
+      </c>
+      <c r="AY48">
+        <v>0.71553571251784032</v>
+      </c>
+      <c r="AZ48">
+        <v>0.17638264380874538</v>
+      </c>
+      <c r="BA48">
+        <v>-0.48887269461203248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53">
       <c r="A49">
         <v>-2.5136458456605745E-16</v>
       </c>
@@ -9224,13 +10268,25 @@
       <c r="AV49">
         <v>0.99562174043719265</v>
       </c>
-    </row>
-    <row r="51" spans="1:48">
+      <c r="AX49">
+        <v>9.0816923806171665E-2</v>
+      </c>
+      <c r="AY49">
+        <v>-0.42249915227886586</v>
+      </c>
+      <c r="AZ49">
+        <v>0.79984626550431426</v>
+      </c>
+      <c r="BA49">
+        <v>-0.41652455417757234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53">
       <c r="A51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:53">
       <c r="A52">
         <v>4</v>
       </c>
@@ -9250,7 +10306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:53">
       <c r="A53">
         <f t="array" ref="A53:D56">MMULT(AN46:AQ49,TRANSPOSE(AS46:AV49))</f>
         <v>5.271905573979943</v>
@@ -9361,8 +10417,21 @@
       <c r="AV53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:48">
+      <c r="AX53">
+        <f t="array" ref="AX53:BA56">MMULT(AX46:BA49,TRANSPOSE(AS53:AV56))</f>
+        <v>-0.41337971926453299</v>
+      </c>
+      <c r="AY53">
+        <v>-0.52953311846778894</v>
+      </c>
+      <c r="AZ53">
+        <v>-0.51948082970879805</v>
+      </c>
+      <c r="BA53">
+        <v>-0.52806396554926305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53">
       <c r="A54">
         <v>8.853981582141153E-2</v>
       </c>
@@ -9484,8 +10553,20 @@
       <c r="AV54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:48">
+      <c r="AX54">
+        <v>0.78443722917579239</v>
+      </c>
+      <c r="AY54">
+        <v>0.18575342957177271</v>
+      </c>
+      <c r="AZ54">
+        <v>-0.28823937331491933</v>
+      </c>
+      <c r="BA54">
+        <v>-0.51679005462213801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53">
       <c r="A55">
         <v>-3.6804318474012109E-16</v>
       </c>
@@ -9608,8 +10689,20 @@
       <c r="AV55">
         <v>4.9751054744271404E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:48">
+      <c r="AX55">
+        <v>-0.45471769119098643</v>
+      </c>
+      <c r="AY55">
+        <v>0.73003316682407937</v>
+      </c>
+      <c r="AZ55">
+        <v>0.12139764958141182</v>
+      </c>
+      <c r="BA55">
+        <v>-0.49552599057047819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53">
       <c r="A56">
         <v>-1.5998258074305685E-16</v>
       </c>
@@ -9722,13 +10815,25 @@
       <c r="AV56">
         <v>0.9987616495199606</v>
       </c>
-    </row>
-    <row r="58" spans="1:48">
+      <c r="AX56">
+        <v>8.3709393151068012E-2</v>
+      </c>
+      <c r="AY56">
+        <v>-0.39005373371486796</v>
+      </c>
+      <c r="AZ56">
+        <v>0.79518572793542386</v>
+      </c>
+      <c r="BA56">
+        <v>-0.45665137731225625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53">
       <c r="A58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:53">
       <c r="A59">
         <v>4</v>
       </c>
@@ -9748,7 +10853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:53">
       <c r="A60">
         <f t="array" ref="A60:D63">MMULT(AN53:AQ56,TRANSPOSE(AS53:AV56))</f>
         <v>4.797014116727742</v>
@@ -9859,8 +10964,21 @@
       <c r="AV60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:48">
+      <c r="AX60">
+        <f t="array" ref="AX60:BA63">MMULT(AX53:BA56,TRANSPOSE(AS60:AV63))</f>
+        <v>-0.41878548953599609</v>
+      </c>
+      <c r="AY60">
+        <v>-0.53749512258860055</v>
+      </c>
+      <c r="AZ60">
+        <v>-0.52049291565775968</v>
+      </c>
+      <c r="BA60">
+        <v>-0.51459190792087428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53">
       <c r="A61">
         <v>4.9169892942779903E-2</v>
       </c>
@@ -9982,8 +11100,20 @@
       <c r="AV61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:48">
+      <c r="AX61">
+        <v>0.78629991605266769</v>
+      </c>
+      <c r="AY61">
+        <v>0.17078621810988831</v>
+      </c>
+      <c r="AZ61">
+        <v>-0.30584245831610157</v>
+      </c>
+      <c r="BA61">
+        <v>-0.50894488936470617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53">
       <c r="A62">
         <v>-3.7383007609439461E-16</v>
       </c>
@@ -10106,8 +11236,20 @@
       <c r="AV62">
         <v>2.6223257974249473E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:48">
+      <c r="AX62">
+        <v>-0.44721128297868312</v>
+      </c>
+      <c r="AY62">
+        <v>0.73733908781432866</v>
+      </c>
+      <c r="AZ62">
+        <v>9.0831089644535221E-2</v>
+      </c>
+      <c r="BA62">
+        <v>-0.49807916149110337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53">
       <c r="A63">
         <v>-1.0987609252626644E-16</v>
       </c>
@@ -10220,13 +11362,25 @@
       <c r="AV63">
         <v>0.99965611124086862</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AX63">
+        <v>7.9707114777941776E-2</v>
+      </c>
+      <c r="AY63">
+        <v>-0.37183616079978138</v>
+      </c>
+      <c r="AZ63">
+        <v>0.79202097737069688</v>
+      </c>
+      <c r="BA63">
+        <v>-0.47758498383033443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:53">
       <c r="A65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:53">
       <c r="A66">
         <v>4</v>
       </c>
@@ -10246,7 +11400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:53">
       <c r="A67">
         <f t="array" ref="A67:D70">MMULT(AN60:AQ63,TRANSPOSE(AS60:AV63))</f>
         <v>4.5293696449503038</v>
@@ -10357,8 +11511,21 @@
       <c r="AV67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AX67">
+        <f t="array" ref="AX67:BA70">MMULT(AX60:BA63,TRANSPOSE(AS67:AV70))</f>
+        <v>-0.42233884283554174</v>
+      </c>
+      <c r="AY67">
+        <v>-0.54214694550798626</v>
+      </c>
+      <c r="AZ67">
+        <v>-0.51974920115704359</v>
+      </c>
+      <c r="BA67">
+        <v>-0.50751094491184234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53">
       <c r="A68">
         <v>3.0021613113241717E-2</v>
       </c>
@@ -10480,8 +11647,20 @@
       <c r="AV68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AX68">
+        <v>0.78741462634968817</v>
+      </c>
+      <c r="AY68">
+        <v>0.16114969579375971</v>
+      </c>
+      <c r="AZ68">
+        <v>-0.31514639885350354</v>
+      </c>
+      <c r="BA68">
+        <v>-0.50466992088475815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53">
       <c r="A69">
         <v>-3.7611641794236602E-16</v>
       </c>
@@ -10604,8 +11783,20 @@
       <c r="AV69">
         <v>1.3715656558420721E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AX69">
+        <v>-0.44231432864533127</v>
+      </c>
+      <c r="AY69">
+        <v>0.74151820212429942</v>
+      </c>
+      <c r="AZ69">
+        <v>7.3322934745361543E-2</v>
+      </c>
+      <c r="BA69">
+        <v>-0.49913178403474184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:53">
       <c r="A70">
         <v>-8.0746300436689331E-17</v>
       </c>
@@ -10718,13 +11909,25 @@
       <c r="AV70">
         <v>0.99990593595856381</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AX70">
+        <v>7.7240809925494355E-2</v>
+      </c>
+      <c r="AY70">
+        <v>-0.36091303791950485</v>
+      </c>
+      <c r="AZ70">
+        <v>0.79067519401244046</v>
+      </c>
+      <c r="BA70">
+        <v>-0.48847556122610347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53">
       <c r="A72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:53">
       <c r="A73">
         <v>4</v>
       </c>
@@ -10744,7 +11947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:53">
       <c r="A74">
         <f t="array" ref="A74:D77">MMULT(AN67:AQ70,TRANSPOSE(AS67:AV70))</f>
         <v>4.3643714878953883</v>
@@ -10855,8 +12058,21 @@
       <c r="AV74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:48">
+      <c r="AX74">
+        <f t="array" ref="AX74:BA77">MMULT(AX67:BA70,TRANSPOSE(AS74:AV77))</f>
+        <v>-0.42474868742037997</v>
+      </c>
+      <c r="AY74">
+        <v>-0.5449336503800466</v>
+      </c>
+      <c r="AZ74">
+        <v>-0.51844510843343017</v>
+      </c>
+      <c r="BA74">
+        <v>-0.50383582520459014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53">
       <c r="A75">
         <v>1.9433539923061047E-2</v>
       </c>
@@ -10978,8 +12194,20 @@
       <c r="AV75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:48">
+      <c r="AX75">
+        <v>0.78812437569448601</v>
+      </c>
+      <c r="AY75">
+        <v>0.15478894016830688</v>
+      </c>
+      <c r="AZ75">
+        <v>-0.32013932720958771</v>
+      </c>
+      <c r="BA75">
+        <v>-0.50240537776932814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53">
       <c r="A76">
         <v>-3.7697019372795474E-16</v>
       </c>
@@ -11102,8 +12330,20 @@
       <c r="AV76">
         <v>7.1133215250953688E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:48">
+      <c r="AX76">
+        <v>-0.43900816694638428</v>
+      </c>
+      <c r="AY76">
+        <v>0.74411232085700574</v>
+      </c>
+      <c r="AZ76">
+        <v>6.3052225317551086E-2</v>
+      </c>
+      <c r="BA76">
+        <v>-0.49959293448334641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53">
       <c r="A77">
         <v>-6.3108318221497668E-17</v>
       </c>
@@ -11216,13 +12456,25 @@
       <c r="AV77">
         <v>0.9999747000083955</v>
       </c>
-    </row>
-    <row r="79" spans="1:48">
+      <c r="AX77">
+        <v>7.5632997595074747E-2</v>
+      </c>
+      <c r="AY77">
+        <v>-0.35409681533988741</v>
+      </c>
+      <c r="AZ77">
+        <v>0.7904112205667031</v>
+      </c>
+      <c r="BA77">
+        <v>-0.49411051136682677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53">
       <c r="A79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:53">
       <c r="A80">
         <v>4</v>
       </c>
@@ -11242,7 +12494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:53">
       <c r="A81">
         <f t="array" ref="A81:D84">MMULT(AN74:AQ77,TRANSPOSE(AS74:AV77))</f>
         <v>4.2567856407145319</v>
@@ -11353,8 +12605,21 @@
       <c r="AV81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:48">
+      <c r="AX81">
+        <f t="array" ref="AX81:BA84">MMULT(AX74:BA77,TRANSPOSE(AS81:AV84))</f>
+        <v>-0.4264211369878817</v>
+      </c>
+      <c r="AY81">
+        <v>-0.54662405346445075</v>
+      </c>
+      <c r="AZ81">
+        <v>-0.51712299621195035</v>
+      </c>
+      <c r="BA81">
+        <v>-0.50194717340854778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:53">
       <c r="A82">
         <v>1.3080177290217498E-2</v>
       </c>
@@ -11476,8 +12741,20 @@
       <c r="AV82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:48">
+      <c r="AX82">
+        <v>0.78859628552083139</v>
+      </c>
+      <c r="AY82">
+        <v>0.15050693294193165</v>
+      </c>
+      <c r="AZ82">
+        <v>-0.32285376843469982</v>
+      </c>
+      <c r="BA82">
+        <v>-0.50122749905274888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:53">
       <c r="A83">
         <v>-3.7733084512516324E-16</v>
       </c>
@@ -11600,8 +12877,20 @@
       <c r="AV83">
         <v>3.6587261116524331E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:48">
+      <c r="AX83">
+        <v>-0.43671960973023122</v>
+      </c>
+      <c r="AY83">
+        <v>0.7458109757665361</v>
+      </c>
+      <c r="AZ83">
+        <v>5.6898819960628962E-2</v>
+      </c>
+      <c r="BA83">
+        <v>-0.49980445695324721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:53">
       <c r="A84">
         <v>-5.2046037461674753E-17</v>
       </c>
@@ -11714,13 +13003,25 @@
       <c r="AV84">
         <v>0.99999330683922083</v>
       </c>
-    </row>
-    <row r="86" spans="1:48">
+      <c r="AX84">
+        <v>7.4544583101551654E-2</v>
+      </c>
+      <c r="AY84">
+        <v>-0.34973675205313209</v>
+      </c>
+      <c r="AZ84">
+        <v>0.79064010477800573</v>
+      </c>
+      <c r="BA84">
+        <v>-0.49700657350800254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:53">
       <c r="A86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:48">
+    <row r="87" spans="1:53">
       <c r="A87">
         <v>4</v>
       </c>
@@ -11740,7 +13041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:53">
       <c r="A88">
         <f t="array" ref="A88:D91">MMULT(AN81:AQ84,TRANSPOSE(AS81:AV84))</f>
         <v>4.1839484522590462</v>
@@ -11851,8 +13152,21 @@
       <c r="AV88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:48">
+      <c r="AX88">
+        <f t="array" ref="AX88:BA91">MMULT(AX81:BA84,TRANSPOSE(AS88:AV91))</f>
+        <v>-0.42760225928200046</v>
+      </c>
+      <c r="AY88">
+        <v>-0.54765226440238346</v>
+      </c>
+      <c r="AZ88">
+        <v>-0.51599255966295499</v>
+      </c>
+      <c r="BA88">
+        <v>-0.50098401523835334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:53">
       <c r="A89">
         <v>9.0481534702025902E-3</v>
       </c>
@@ -11974,8 +13288,20 @@
       <c r="AV89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:48">
+      <c r="AX89">
+        <v>0.78891992508949949</v>
+      </c>
+      <c r="AY89">
+        <v>0.14757920299685318</v>
+      </c>
+      <c r="AZ89">
+        <v>-0.32435005160398794</v>
+      </c>
+      <c r="BA89">
+        <v>-0.50062238729813346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:53">
       <c r="A90">
         <v>-3.774995170853085E-16</v>
       </c>
@@ -12098,8 +13424,20 @@
       <c r="AV90">
         <v>1.8683070387148196E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:48">
+      <c r="AX90">
+        <v>-0.43510571099584094</v>
+      </c>
+      <c r="AY90">
+        <v>0.74696350389426225</v>
+      </c>
+      <c r="AZ90">
+        <v>5.3140593104938759E-2</v>
+      </c>
+      <c r="BA90">
+        <v>-0.49990461237446709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:53">
       <c r="A91">
         <v>-4.488236949884564E-17</v>
       </c>
@@ -12212,13 +13550,25 @@
       <c r="AV91">
         <v>0.99999825471288151</v>
       </c>
-    </row>
-    <row r="93" spans="1:48">
+      <c r="AX91">
+        <v>7.3788074324452571E-2</v>
+      </c>
+      <c r="AY91">
+        <v>-0.34690474195052834</v>
+      </c>
+      <c r="AZ91">
+        <v>0.79102768583749139</v>
+      </c>
+      <c r="BA91">
+        <v>-0.49848532610128937</v>
+      </c>
+    </row>
+    <row r="93" spans="1:53">
       <c r="A93" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:53">
       <c r="A94">
         <v>4</v>
       </c>
@@ -12238,7 +13588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:48">
+    <row r="95" spans="1:53">
       <c r="A95">
         <f t="array" ref="A95:D98">MMULT(AN88:AQ91,TRANSPOSE(AS88:AV91))</f>
         <v>4.1333209566340461</v>
@@ -12349,8 +13699,21 @@
       <c r="AV95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:48">
+      <c r="AX95">
+        <f t="array" ref="AX95:BA98">MMULT(AX88:BA91,TRANSPOSE(AS95:AV98))</f>
+        <v>-0.42844765500709414</v>
+      </c>
+      <c r="AY95">
+        <v>-0.54827389216938194</v>
+      </c>
+      <c r="AZ95">
+        <v>-0.51510429810001224</v>
+      </c>
+      <c r="BA95">
+        <v>-0.50049566248195687</v>
+      </c>
+    </row>
+    <row r="96" spans="1:53">
       <c r="A96">
         <v>6.3843512019817698E-3</v>
       </c>
@@ -12472,8 +13835,20 @@
       <c r="AV96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:48">
+      <c r="AX96">
+        <v>0.78914693539543457</v>
+      </c>
+      <c r="AY96">
+        <v>0.14555260539254802</v>
+      </c>
+      <c r="AZ96">
+        <v>-0.32518807508544728</v>
+      </c>
+      <c r="BA96">
+        <v>-0.500314170538529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:53">
       <c r="A97">
         <v>-3.7757152624605664E-16</v>
       </c>
@@ -12596,8 +13971,20 @@
       <c r="AV97">
         <v>9.4850284811396235E-4</v>
       </c>
-    </row>
-    <row r="98" spans="1:48">
+      <c r="AX97">
+        <v>-0.43395142923149443</v>
+      </c>
+      <c r="AY97">
+        <v>0.74776464444985846</v>
+      </c>
+      <c r="AZ97">
+        <v>5.0805169582690622E-2</v>
+      </c>
+      <c r="BA97">
+        <v>-0.49995302611584874</v>
+      </c>
+    </row>
+    <row r="98" spans="1:53">
       <c r="A98">
         <v>-4.010699120711227E-17</v>
       </c>
@@ -12710,13 +14097,25 @@
       <c r="AV98">
         <v>0.99999955017107234</v>
       </c>
-    </row>
-    <row r="100" spans="1:48">
+      <c r="AX98">
+        <v>7.3252155892225682E-2</v>
+      </c>
+      <c r="AY98">
+        <v>-0.3450481339460561</v>
+      </c>
+      <c r="AZ98">
+        <v>0.79141589107421173</v>
+      </c>
+      <c r="BA98">
+        <v>-0.4992362108989053</v>
+      </c>
+    </row>
+    <row r="100" spans="1:53">
       <c r="A100" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:48">
+    <row r="101" spans="1:53">
       <c r="A101">
         <v>4</v>
       </c>
@@ -12736,7 +14135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:48">
+    <row r="102" spans="1:53">
       <c r="A102">
         <f t="array" ref="A102:D105">MMULT(AN95:AQ98,TRANSPOSE(AS95:AV98))</f>
         <v>4.09745589496299</v>
@@ -12847,8 +14246,21 @@
       <c r="AV102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:48">
+      <c r="AX102">
+        <f t="array" ref="AX102:BA105">MMULT(AX95:BA98,TRANSPOSE(AS102:AV105))</f>
+        <v>-0.42905907771835816</v>
+      </c>
+      <c r="AY102">
+        <v>-0.54864398154971283</v>
+      </c>
+      <c r="AZ102">
+        <v>-0.5144404060225618</v>
+      </c>
+      <c r="BA102">
+        <v>-0.50024909593930511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:53">
       <c r="A103">
         <v>4.5713862310922124E-3</v>
       </c>
@@ -12970,8 +14382,20 @@
       <c r="AV103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:48">
+      <c r="AX103">
+        <v>0.78930883204633562</v>
+      </c>
+      <c r="AY103">
+        <v>0.14413580459923792</v>
+      </c>
+      <c r="AZ103">
+        <v>-0.32566594779449998</v>
+      </c>
+      <c r="BA103">
+        <v>-0.50015810293675089</v>
+      </c>
+    </row>
+    <row r="104" spans="1:53">
       <c r="A104">
         <v>-3.7760502041699779E-16</v>
       </c>
@@ -13094,8 +14518,20 @@
       <c r="AV104">
         <v>4.7940252182132798E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:48">
+      <c r="AX104">
+        <v>-0.43311690518436213</v>
+      </c>
+      <c r="AY104">
+        <v>0.74833106141532157</v>
+      </c>
+      <c r="AZ104">
+        <v>4.9331886468609899E-2</v>
+      </c>
+      <c r="BA104">
+        <v>-0.49997673340065213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:53">
       <c r="A105">
         <v>-3.6841783505422055E-17</v>
       </c>
@@ -13208,13 +14644,25 @@
       <c r="AV105">
         <v>0.99999988508660442</v>
       </c>
-    </row>
-    <row r="107" spans="1:48">
+      <c r="AX105">
+        <v>7.2867152576736802E-2</v>
+      </c>
+      <c r="AY105">
+        <v>-0.34382448118600711</v>
+      </c>
+      <c r="AZ105">
+        <v>0.79174435525357489</v>
+      </c>
+      <c r="BA105">
+        <v>-0.49961583255200348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:53">
       <c r="A107" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:48">
+    <row r="108" spans="1:53">
       <c r="A108">
         <v>4</v>
       </c>
@@ -13234,7 +14682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:48">
+    <row r="109" spans="1:53">
       <c r="A109">
         <f t="array" ref="A109:D112">MMULT(AN102:AQ105,TRANSPOSE(AS102:AV105))</f>
         <v>4.0716908255038069</v>
@@ -13345,8 +14793,21 @@
       <c r="AV109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:48">
+      <c r="AX109">
+        <f t="array" ref="AX109:BA112">MMULT(AX102:BA105,TRANSPOSE(AS109:AV112))</f>
+        <v>-0.4295048811657573</v>
+      </c>
+      <c r="AY109">
+        <v>-0.54885846196560395</v>
+      </c>
+      <c r="AZ109">
+        <v>-0.5139600653017582</v>
+      </c>
+      <c r="BA109">
+        <v>-0.50012498143819306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:53">
       <c r="A110">
         <v>3.3095259545034899E-3</v>
       </c>
@@ -13468,8 +14929,20 @@
       <c r="AV110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:48">
+      <c r="AX110">
+        <v>0.78942572682500145</v>
+      </c>
+      <c r="AY110">
+        <v>0.14313723767683356</v>
+      </c>
+      <c r="AZ110">
+        <v>-0.32594378275758812</v>
+      </c>
+      <c r="BA110">
+        <v>-0.50007939719482319</v>
+      </c>
+    </row>
+    <row r="111" spans="1:53">
       <c r="A111">
         <v>-3.7762231418763137E-16</v>
       </c>
@@ -13592,8 +15065,20 @@
       <c r="AV111">
         <v>2.4151504273661647E-4</v>
       </c>
-    </row>
-    <row r="112" spans="1:48">
+      <c r="AX111">
+        <v>-0.4325085085976943</v>
+      </c>
+      <c r="AY111">
+        <v>0.7487364669553106</v>
+      </c>
+      <c r="AZ111">
+        <v>4.8390679355047532E-2</v>
+      </c>
+      <c r="BA111">
+        <v>-0.49998843505968649</v>
+      </c>
+    </row>
+    <row r="112" spans="1:53">
       <c r="A112">
         <v>-3.4560941205152571E-17</v>
       </c>
@@ -13706,13 +15191,25 @@
       <c r="AV112">
         <v>0.99999997083524161</v>
       </c>
-    </row>
-    <row r="114" spans="1:48">
+      <c r="AX112">
+        <v>7.2587663360965421E-2</v>
+      </c>
+      <c r="AY112">
+        <v>-0.34301577656177357</v>
+      </c>
+      <c r="AZ112">
+        <v>0.79200002771984979</v>
+      </c>
+      <c r="BA112">
+        <v>-0.49980712704929969</v>
+      </c>
+    </row>
+    <row r="114" spans="1:53">
       <c r="A114" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:48">
+    <row r="115" spans="1:53">
       <c r="A115">
         <v>4</v>
       </c>
@@ -13732,7 +15229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:48">
+    <row r="116" spans="1:53">
       <c r="A116">
         <f t="array" ref="A116:D119">MMULT(AN109:AQ112,TRANSPOSE(AS109:AV112))</f>
         <v>4.0529873135375736</v>
@@ -13843,8 +15340,21 @@
       <c r="AV116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:48">
+      <c r="AX116">
+        <f t="array" ref="AX116:BA119">MMULT(AX109:BA112,TRANSPOSE(AS116:AV119))</f>
+        <v>-0.42983199214679846</v>
+      </c>
+      <c r="AY116">
+        <v>-0.54897736700155741</v>
+      </c>
+      <c r="AZ116">
+        <v>-0.5136201581794132</v>
+      </c>
+      <c r="BA116">
+        <v>-0.5000626382353579</v>
+      </c>
+    </row>
+    <row r="117" spans="1:53">
       <c r="A117">
         <v>2.4160804429334535E-3</v>
       </c>
@@ -13966,8 +15476,20 @@
       <c r="AV117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:48">
+      <c r="AX117">
+        <v>0.78951091399554141</v>
+      </c>
+      <c r="AY117">
+        <v>0.14242864293787263</v>
+      </c>
+      <c r="AZ117">
+        <v>-0.32610854216826696</v>
+      </c>
+      <c r="BA117">
+        <v>-0.50003981549241472</v>
+      </c>
+    </row>
+    <row r="118" spans="1:53">
       <c r="A118">
         <v>-3.776295767103503E-16</v>
       </c>
@@ -14090,8 +15612,20 @@
       <c r="AV118">
         <v>1.2138714965479142E-4</v>
       </c>
-    </row>
-    <row r="119" spans="1:48">
+      <c r="AX118">
+        <v>-0.43206209252472016</v>
+      </c>
+      <c r="AY118">
+        <v>0.74902928753034459</v>
+      </c>
+      <c r="AZ118">
+        <v>4.7783214418890767E-2</v>
+      </c>
+      <c r="BA118">
+        <v>-0.49999423901155371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:53">
       <c r="A119">
         <v>-3.2939901871971727E-17</v>
       </c>
@@ -14204,13 +15738,25 @@
       <c r="AV119">
         <v>0.99999999263257988</v>
       </c>
-    </row>
-    <row r="121" spans="1:48">
+      <c r="AX119">
+        <v>7.2383170780225076E-2</v>
+      </c>
+      <c r="AY119">
+        <v>-0.34248074195886907</v>
+      </c>
+      <c r="AZ119">
+        <v>0.7921895709086556</v>
+      </c>
+      <c r="BA119">
+        <v>-0.4999032923662961</v>
+      </c>
+    </row>
+    <row r="121" spans="1:53">
       <c r="A121" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:48">
+    <row r="122" spans="1:53">
       <c r="A122">
         <v>4</v>
       </c>
@@ -14230,7 +15776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:48">
+    <row r="123" spans="1:53">
       <c r="A123">
         <f t="array" ref="A123:D126">MMULT(AN116:AQ119,TRANSPOSE(AS116:AV119))</f>
         <v>4.0393028973098222</v>
@@ -14341,8 +15887,21 @@
       <c r="AV123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:48">
+      <c r="AX123">
+        <f t="array" ref="AX123:BA126">MMULT(AX116:BA119,TRANSPOSE(AS123:AV126))</f>
+        <v>-0.43007320202141036</v>
+      </c>
+      <c r="AY123">
+        <v>-0.54903842200530062</v>
+      </c>
+      <c r="AZ123">
+        <v>-0.51338336750019864</v>
+      </c>
+      <c r="BA123">
+        <v>-0.50003136905511891</v>
+      </c>
+    </row>
+    <row r="124" spans="1:53">
       <c r="A124">
         <v>1.7750959310196986E-3</v>
       </c>
@@ -14464,8 +16023,20 @@
       <c r="AV124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:48">
+      <c r="AX124">
+        <v>0.78957342887672421</v>
+      </c>
+      <c r="AY124">
+        <v>0.14192288520490051</v>
+      </c>
+      <c r="AZ124">
+        <v>-0.32620813530657128</v>
+      </c>
+      <c r="BA124">
+        <v>-0.50001994712889042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:53">
       <c r="A125">
         <v>-3.7763326849690915E-16</v>
       </c>
@@ -14588,8 +16159,20 @@
       <c r="AV125">
         <v>6.0909857583022332E-5</v>
       </c>
-    </row>
-    <row r="126" spans="1:48">
+      <c r="AX125">
+        <v>-0.43173288541481458</v>
+      </c>
+      <c r="AY125">
+        <v>0.74924226279497008</v>
+      </c>
+      <c r="AZ125">
+        <v>4.7387983188305671E-2</v>
+      </c>
+      <c r="BA125">
+        <v>-0.49999712633435822</v>
+      </c>
+    </row>
+    <row r="126" spans="1:53">
       <c r="A126">
         <v>-3.1772055599716462E-17</v>
       </c>
@@ -14702,13 +16285,25 @@
       <c r="AV126">
         <v>0.99999999814499463</v>
       </c>
-    </row>
-    <row r="128" spans="1:48">
+      <c r="AX126">
+        <v>7.2232658585309029E-2</v>
+      </c>
+      <c r="AY126">
+        <v>-0.34212678564958726</v>
+      </c>
+      <c r="AZ126">
+        <v>0.792325784941592</v>
+      </c>
+      <c r="BA126">
+        <v>-0.49995155374442907</v>
+      </c>
+    </row>
+    <row r="128" spans="1:53">
       <c r="A128" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:48">
+    <row r="129" spans="1:53">
       <c r="A129">
         <v>4</v>
       </c>
@@ -14728,7 +16323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:48">
+    <row r="130" spans="1:53">
       <c r="A130">
         <f t="array" ref="A130:D133">MMULT(AN123:AQ126,TRANSPOSE(AS123:AV126))</f>
         <v>4.0292309962380868</v>
@@ -14839,8 +16434,21 @@
       <c r="AV130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:48">
+      <c r="AX130">
+        <f t="array" ref="AX130:BA133">MMULT(AX123:BA126,TRANSPOSE(AS130:AV133))</f>
+        <v>-0.43025175671670646</v>
+      </c>
+      <c r="AY130">
+        <v>-0.5490652819325561</v>
+      </c>
+      <c r="AZ130">
+        <v>-0.51322026499915696</v>
+      </c>
+      <c r="BA130">
+        <v>-0.50001570136617324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:53">
       <c r="A131">
         <v>1.3105272464500484E-3</v>
       </c>
@@ -14962,8 +16570,20 @@
       <c r="AV131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:48">
+      <c r="AX131">
+        <v>0.78961954822761693</v>
+      </c>
+      <c r="AY131">
+        <v>0.14156007058638356</v>
+      </c>
+      <c r="AZ131">
+        <v>-0.32626941103248691</v>
+      </c>
+      <c r="BA131">
+        <v>-0.5000099867971699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:53">
       <c r="A132">
         <v>-3.7763516671692735E-16</v>
       </c>
@@ -15086,8 +16706,20 @@
       <c r="AV132">
         <v>3.0528650213632905E-5</v>
       </c>
-    </row>
-    <row r="133" spans="1:48">
+      <c r="AX132">
+        <v>-0.43148916785113972</v>
+      </c>
+      <c r="AY132">
+        <v>0.74939800349419872</v>
+      </c>
+      <c r="AZ132">
+        <v>4.7129237471220359E-2</v>
+      </c>
+      <c r="BA132">
+        <v>-0.49999856535936282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:53">
       <c r="A133">
         <v>-3.0921915114562417E-17</v>
       </c>
@@ -15200,13 +16832,25 @@
       <c r="AV133">
         <v>0.99999999953400087</v>
       </c>
-    </row>
-    <row r="135" spans="1:48">
+      <c r="AX133">
+        <v>7.2121376346634417E-2</v>
+      </c>
+      <c r="AY133">
+        <v>-0.34189281207830235</v>
+      </c>
+      <c r="AZ133">
+        <v>0.79242164659610992</v>
+      </c>
+      <c r="BA133">
+        <v>-0.49997574554068808</v>
+      </c>
+    </row>
+    <row r="135" spans="1:53">
       <c r="A135" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:48">
+    <row r="136" spans="1:53">
       <c r="A136">
         <v>4</v>
       </c>
@@ -15226,7 +16870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:48">
+    <row r="137" spans="1:53">
       <c r="A137">
         <f t="array" ref="A137:D140">MMULT(AN130:AQ133,TRANSPOSE(AS130:AV133))</f>
         <v>4.0217844035921759</v>
@@ -15337,8 +16981,21 @@
       <c r="AV137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:48">
+      <c r="AX137">
+        <f t="array" ref="AX137:BA140">MMULT(AX130:BA133,TRANSPOSE(AS137:AV140))</f>
+        <v>-0.43038432898313572</v>
+      </c>
+      <c r="AY137">
+        <v>-0.54907266078267802</v>
+      </c>
+      <c r="AZ137">
+        <v>-0.51310884434069126</v>
+      </c>
+      <c r="BA137">
+        <v>-0.50000785634440459</v>
+      </c>
+    </row>
+    <row r="138" spans="1:53">
       <c r="A138">
         <v>9.7115508007513621E-4</v>
       </c>
@@ -15460,8 +17117,20 @@
       <c r="AV138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:48">
+      <c r="AX138">
+        <v>0.78965370823663028</v>
+      </c>
+      <c r="AY138">
+        <v>0.14129863265286699</v>
+      </c>
+      <c r="AZ138">
+        <v>-0.32630770695416017</v>
+      </c>
+      <c r="BA138">
+        <v>-0.50000499783590802</v>
+      </c>
+    </row>
+    <row r="139" spans="1:53">
       <c r="A139">
         <v>-3.7763594623134359E-16</v>
       </c>
@@ -15584,8 +17253,20 @@
       <c r="AV139">
         <v>1.5289310049544008E-5</v>
       </c>
-    </row>
-    <row r="140" spans="1:48">
+      <c r="AX139">
+        <v>-0.43130819538276566</v>
+      </c>
+      <c r="AY139">
+        <v>0.74951237822679295</v>
+      </c>
+      <c r="AZ139">
+        <v>4.6959046952989768E-2</v>
+      </c>
+      <c r="BA139">
+        <v>-0.499999283389232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:53">
       <c r="A140">
         <v>-3.0298191676783678E-17</v>
       </c>
@@ -15698,13 +17379,25 @@
       <c r="AV140">
         <v>0.9999999998831185</v>
       </c>
-    </row>
-    <row r="142" spans="1:48">
+      <c r="AX140">
+        <v>7.2038816130863575E-2</v>
+      </c>
+      <c r="AY140">
+        <v>-0.3417383567530527</v>
+      </c>
+      <c r="AZ140">
+        <v>0.79248813376033878</v>
+      </c>
+      <c r="BA140">
+        <v>-0.49998786219591507</v>
+      </c>
+    </row>
+    <row r="142" spans="1:53">
       <c r="A142" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:48">
+    <row r="143" spans="1:53">
       <c r="A143">
         <v>4</v>
       </c>
@@ -15724,7 +17417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:48">
+    <row r="144" spans="1:53">
       <c r="A144">
         <f t="array" ref="A144:D147">MMULT(AN137:AQ140,TRANSPOSE(AS137:AV140))</f>
         <v>4.0162598694140836</v>
@@ -15835,8 +17528,21 @@
       <c r="AV144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:48">
+      <c r="AX144">
+        <f t="array" ref="AX144:BA147">MMULT(AX137:BA140,TRANSPOSE(AS144:AV147))</f>
+        <v>-0.4304829905036705</v>
+      </c>
+      <c r="AY144">
+        <v>-0.54906958374227732</v>
+      </c>
+      <c r="AZ144">
+        <v>-0.51303319289222571</v>
+      </c>
+      <c r="BA144">
+        <v>-0.50000393007146227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:53">
       <c r="A145">
         <v>7.2172273244383708E-4</v>
       </c>
@@ -15958,8 +17664,20 @@
       <c r="AV145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:48">
+      <c r="AX145">
+        <v>0.78967908688003297</v>
+      </c>
+      <c r="AY145">
+        <v>0.14110949159664463</v>
+      </c>
+      <c r="AZ145">
+        <v>-0.32633196398102804</v>
+      </c>
+      <c r="BA145">
+        <v>-0.50000250040368655</v>
+      </c>
+    </row>
+    <row r="146" spans="1:53">
       <c r="A146">
         <v>-3.7763638258608925E-16</v>
       </c>
@@ -16082,8 +17800,20 @@
       <c r="AV146">
         <v>7.6530868553977479E-6</v>
       </c>
-    </row>
-    <row r="147" spans="1:48">
+      <c r="AX146">
+        <v>-0.43117350089101164</v>
+      </c>
+      <c r="AY146">
+        <v>0.74959666224224075</v>
+      </c>
+      <c r="AZ146">
+        <v>4.6846709155968842E-2</v>
+      </c>
+      <c r="BA146">
+        <v>-0.49999964192580848</v>
+      </c>
+    </row>
+    <row r="147" spans="1:53">
       <c r="A147">
         <v>-2.983791413092807E-17</v>
       </c>
@@ -16196,13 +17926,25 @@
       <c r="AV147">
         <v>0.9999999999707152</v>
       </c>
-    </row>
-    <row r="149" spans="1:48">
+      <c r="AX147">
+        <v>7.197740451504564E-2</v>
+      </c>
+      <c r="AY147">
+        <v>-0.34163657231875871</v>
+      </c>
+      <c r="AZ147">
+        <v>0.79253377096269473</v>
+      </c>
+      <c r="BA147">
+        <v>-0.49999392754034233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:53">
       <c r="A149" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:48">
+    <row r="150" spans="1:53">
       <c r="A150">
         <v>4</v>
       </c>
@@ -16222,7 +17964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:48">
+    <row r="151" spans="1:53">
       <c r="A151">
         <f t="array" ref="A151:D154">MMULT(AN144:AQ147,TRANSPOSE(AS144:AV147))</f>
         <v>4.0121505528673485</v>
@@ -16333,8 +18075,21 @@
       <c r="AV151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:48">
+      <c r="AX151">
+        <f t="array" ref="AX151:BA154">MMULT(AX144:BA147,TRANSPOSE(AS151:AV154))</f>
+        <v>-0.43055654818915795</v>
+      </c>
+      <c r="AY151">
+        <v>-0.54906147059536925</v>
+      </c>
+      <c r="AZ151">
+        <v>-0.51298206074224462</v>
+      </c>
+      <c r="BA151">
+        <v>-0.50000196567186428</v>
+      </c>
+    </row>
+    <row r="152" spans="1:53">
       <c r="A152">
         <v>5.375275202698386E-4</v>
       </c>
@@ -16456,8 +18211,20 @@
       <c r="AV152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:48">
+      <c r="AX152">
+        <v>0.78969798492460408</v>
+      </c>
+      <c r="AY152">
+        <v>0.14097216293004264</v>
+      </c>
+      <c r="AZ152">
+        <v>-0.32634750065617635</v>
+      </c>
+      <c r="BA152">
+        <v>-0.50000125069874757</v>
+      </c>
+    </row>
+    <row r="153" spans="1:53">
       <c r="A153">
         <v>-3.7763662372101013E-16</v>
       </c>
@@ -16580,8 +18347,20 @@
       <c r="AV153">
         <v>3.8293800395655692E-6</v>
       </c>
-    </row>
-    <row r="154" spans="1:48">
+      <c r="AX153">
+        <v>-0.43107306987486321</v>
+      </c>
+      <c r="AY153">
+        <v>0.74965894468492988</v>
+      </c>
+      <c r="AZ153">
+        <v>4.6772364103969524E-2</v>
+      </c>
+      <c r="BA153">
+        <v>-0.499999821038632</v>
+      </c>
+    </row>
+    <row r="154" spans="1:53">
       <c r="A154">
         <v>-2.9496789709413838E-17</v>
       </c>
@@ -16694,13 +18473,25 @@
       <c r="AV154">
         <v>0.99999999999266787</v>
       </c>
-    </row>
-    <row r="156" spans="1:48">
+      <c r="AX154">
+        <v>7.1931633139515797E-2</v>
+      </c>
+      <c r="AY154">
+        <v>-0.34156963776125182</v>
+      </c>
+      <c r="AZ154">
+        <v>0.79256486177992547</v>
+      </c>
+      <c r="BA154">
+        <v>-0.49999696257607007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:53">
       <c r="A156" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:48">
+    <row r="157" spans="1:53">
       <c r="A157">
         <v>4</v>
       </c>
@@ -16720,7 +18511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:48">
+    <row r="158" spans="1:53">
       <c r="A158">
         <f t="array" ref="A158:D161">MMULT(AN151:AQ154,TRANSPOSE(AS151:AV154))</f>
         <v>4.0090878257702114</v>
@@ -16831,8 +18622,21 @@
       <c r="AV158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:48">
+      <c r="AX158">
+        <f t="array" ref="AX158:BA161">MMULT(AX151:BA154,TRANSPOSE(AS158:AV161))</f>
+        <v>-0.43061146618321305</v>
+      </c>
+      <c r="AY158">
+        <v>-0.54905147576131608</v>
+      </c>
+      <c r="AZ158">
+        <v>-0.51294761828685587</v>
+      </c>
+      <c r="BA158">
+        <v>-0.5000009830487403</v>
+      </c>
+    </row>
+    <row r="159" spans="1:53">
       <c r="A159">
         <v>4.010110149267578E-4</v>
       </c>
@@ -16954,8 +18758,20 @@
       <c r="AV159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:48">
+      <c r="AX159">
+        <v>0.7897120817851343</v>
+      </c>
+      <c r="AY159">
+        <v>0.14087212999740484</v>
+      </c>
+      <c r="AZ159">
+        <v>-0.32635754220910412</v>
+      </c>
+      <c r="BA159">
+        <v>-0.50000062551542468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:53">
       <c r="A160">
         <v>-3.7763673055522373E-16</v>
       </c>
@@ -17078,8 +18894,20 @@
       <c r="AV160">
         <v>1.9156420778337993E-6</v>
       </c>
-    </row>
-    <row r="161" spans="1:48">
+      <c r="AX160">
+        <v>-0.43099808270788798</v>
+      </c>
+      <c r="AY160">
+        <v>0.74970507343034443</v>
+      </c>
+      <c r="AZ160">
+        <v>4.6723067436706595E-2</v>
+      </c>
+      <c r="BA160">
+        <v>-0.49999991054422338</v>
+      </c>
+    </row>
+    <row r="161" spans="1:53">
       <c r="A161">
         <v>-2.924317345264935E-17</v>
       </c>
@@ -17192,13 +19020,25 @@
       <c r="AV161">
         <v>0.99999999999816513</v>
       </c>
-    </row>
-    <row r="163" spans="1:48">
+      <c r="AX161">
+        <v>7.1897467105991236E-2</v>
+      </c>
+      <c r="AY161">
+        <v>-0.34152572791389652</v>
+      </c>
+      <c r="AZ161">
+        <v>0.79258592626060365</v>
+      </c>
+      <c r="BA161">
+        <v>-0.49999848088793813</v>
+      </c>
+    </row>
+    <row r="163" spans="1:53">
       <c r="A163" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:48">
+    <row r="164" spans="1:53">
       <c r="A164">
         <v>4</v>
       </c>
@@ -17218,7 +19058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:48">
+    <row r="165" spans="1:53">
       <c r="A165">
         <f t="array" ref="A165:D168">MMULT(AN158:AQ161,TRANSPOSE(AS158:AV161))</f>
         <v>4.0068016739222561</v>
@@ -17329,8 +19169,21 @@
       <c r="AV165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:48">
+      <c r="AX165">
+        <f t="array" ref="AX165:BA168">MMULT(AX158:BA161,TRANSPOSE(AS165:AV168))</f>
+        <v>-0.43065251194043291</v>
+      </c>
+      <c r="AY165">
+        <v>-0.54904134924322612</v>
+      </c>
+      <c r="AZ165">
+        <v>-0.51292447707711619</v>
+      </c>
+      <c r="BA165">
+        <v>-0.50000049159549842</v>
+      </c>
+    </row>
+    <row r="166" spans="1:53">
       <c r="A166">
         <v>2.9954756163225963E-4</v>
       </c>
@@ -17452,8 +19305,20 @@
       <c r="AV166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:48">
+      <c r="AX166">
+        <v>0.78972261114593389</v>
+      </c>
+      <c r="AY166">
+        <v>0.14079905028827078</v>
+      </c>
+      <c r="AZ166">
+        <v>-0.3263640790122338</v>
+      </c>
+      <c r="BA166">
+        <v>-0.50000031281316737</v>
+      </c>
+    </row>
+    <row r="167" spans="1:53">
       <c r="A167">
         <v>-3.7763678353920098E-16</v>
       </c>
@@ -17576,8 +19441,20 @@
       <c r="AV167">
         <v>9.5814002514173425E-7</v>
       </c>
-    </row>
-    <row r="168" spans="1:48">
+      <c r="AX167">
+        <v>-0.43094203372661899</v>
+      </c>
+      <c r="AY167">
+        <v>0.74973930206896833</v>
+      </c>
+      <c r="AZ167">
+        <v>4.6690333264711288E-2</v>
+      </c>
+      <c r="BA167">
+        <v>-0.49999995528032998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:53">
       <c r="A168">
         <v>-2.9054179784796734E-17</v>
       </c>
@@ -17690,13 +19567,25 @@
       <c r="AV168">
         <v>0.99999999999954103</v>
       </c>
-    </row>
-    <row r="170" spans="1:48">
+      <c r="AX168">
+        <v>7.1871934521124115E-2</v>
+      </c>
+      <c r="AY168">
+        <v>-0.34149700319656501</v>
+      </c>
+      <c r="AZ168">
+        <v>0.79260013974594579</v>
+      </c>
+      <c r="BA168">
+        <v>-0.49999924031008547</v>
+      </c>
+    </row>
+    <row r="170" spans="1:53">
       <c r="A170" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:48">
+    <row r="171" spans="1:53">
       <c r="A171">
         <v>4</v>
       </c>
@@ -17716,7 +19605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:48">
+    <row r="172" spans="1:53">
       <c r="A172">
         <f t="array" ref="A172:D175">MMULT(AN165:AQ168,TRANSPOSE(AS165:AV168))</f>
         <v>4.0050932240539527</v>
@@ -17827,8 +19716,21 @@
       <c r="AV172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:48">
+      <c r="AX172">
+        <f t="array" ref="AX172:BA175">MMULT(AX165:BA168,TRANSPOSE(AS172:AV175))</f>
+        <v>-0.43068321492497613</v>
+      </c>
+      <c r="AY172">
+        <v>-0.54903198685078514</v>
+      </c>
+      <c r="AZ172">
+        <v>-0.51290895875876263</v>
+      </c>
+      <c r="BA172">
+        <v>-0.50000024582150782</v>
+      </c>
+    </row>
+    <row r="173" spans="1:53">
       <c r="A173">
         <v>2.2397404622918795E-4</v>
       </c>
@@ -17950,8 +19852,20 @@
       <c r="AV173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:48">
+      <c r="AX173">
+        <v>0.78973048371855314</v>
+      </c>
+      <c r="AY173">
+        <v>0.14074551971705501</v>
+      </c>
+      <c r="AZ173">
+        <v>-0.32636835836231998</v>
+      </c>
+      <c r="BA173">
+        <v>-0.50000015642509543</v>
+      </c>
+    </row>
+    <row r="174" spans="1:53">
       <c r="A174">
         <v>-3.7763680983738603E-16</v>
       </c>
@@ -18074,8 +19988,20 @@
       <c r="AV174">
         <v>4.7917675024431686E-7</v>
       </c>
-    </row>
-    <row r="175" spans="1:48">
+      <c r="AX174">
+        <v>-0.43090010590265815</v>
+      </c>
+      <c r="AY174">
+        <v>0.74976473994888981</v>
+      </c>
+      <c r="AZ174">
+        <v>4.6668574218288107E-2</v>
+      </c>
+      <c r="BA174">
+        <v>-0.49999997764288312</v>
+      </c>
+    </row>
+    <row r="175" spans="1:53">
       <c r="A175">
         <v>-2.8913103246497127E-17</v>
       </c>
@@ -18188,13 +20114,25 @@
       <c r="AV175">
         <v>0.9999999999998852</v>
       </c>
-    </row>
-    <row r="177" spans="1:48">
+      <c r="AX175">
+        <v>7.1852837109082524E-2</v>
+      </c>
+      <c r="AY175">
+        <v>-0.34147827284269294</v>
+      </c>
+      <c r="AZ175">
+        <v>0.79260970147060261</v>
+      </c>
+      <c r="BA175">
+        <v>-0.49999962011028382</v>
+      </c>
+    </row>
+    <row r="177" spans="1:53">
       <c r="A177" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:48">
+    <row r="178" spans="1:53">
       <c r="A178">
         <v>4</v>
       </c>
@@ -18214,7 +20152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:48">
+    <row r="179" spans="1:53">
       <c r="A179">
         <f t="array" ref="A179:D182">MMULT(AN172:AQ175,TRANSPOSE(AS172:AV175))</f>
         <v>4.0038153749935388</v>
@@ -18325,8 +20263,21 @@
       <c r="AV179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:48">
+      <c r="AX179">
+        <f t="array" ref="AX179:BA182">MMULT(AX172:BA175,TRANSPOSE(AS179:AV182))</f>
+        <v>-0.43070619586450309</v>
+      </c>
+      <c r="AY179">
+        <v>-0.54902377868765062</v>
+      </c>
+      <c r="AZ179">
+        <v>-0.51289856732180494</v>
+      </c>
+      <c r="BA179">
+        <v>-0.50000012291868678</v>
+      </c>
+    </row>
+    <row r="180" spans="1:53">
       <c r="A180">
         <v>1.6759123679249227E-4</v>
       </c>
@@ -18448,8 +20399,20 @@
       <c r="AV180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:48">
+      <c r="AX180">
+        <v>0.78973637433625332</v>
+      </c>
+      <c r="AY180">
+        <v>0.1407062146312307</v>
+      </c>
+      <c r="AZ180">
+        <v>-0.32637117212714561</v>
+      </c>
+      <c r="BA180">
+        <v>-0.50000007821872561</v>
+      </c>
+    </row>
+    <row r="181" spans="1:53">
       <c r="A181">
         <v>-3.7763682211739441E-16</v>
       </c>
@@ -18572,8 +20535,20 @@
       <c r="AV181">
         <v>2.3962405666769036E-7</v>
       </c>
-    </row>
-    <row r="182" spans="1:48">
+      <c r="AX181">
+        <v>-0.43086872196019882</v>
+      </c>
+      <c r="AY181">
+        <v>0.74978366921487816</v>
+      </c>
+      <c r="AZ181">
+        <v>4.6654099420271836E-2</v>
+      </c>
+      <c r="BA181">
+        <v>-0.49999998882234203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:53">
       <c r="A182">
         <v>-2.8807663820394189E-17</v>
       </c>
@@ -18686,13 +20661,25 @@
       <c r="AV182">
         <v>0.99999999999997125</v>
       </c>
-    </row>
-    <row r="184" spans="1:48">
+      <c r="AX182">
+        <v>7.1838543488448786E-2</v>
+      </c>
+      <c r="AY182">
+        <v>-0.34146610516763926</v>
+      </c>
+      <c r="AZ182">
+        <v>0.79261611934837395</v>
+      </c>
+      <c r="BA182">
+        <v>-0.49999981004018806</v>
+      </c>
+    </row>
+    <row r="184" spans="1:53">
       <c r="A184" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:48">
+    <row r="185" spans="1:53">
       <c r="A185">
         <v>4</v>
       </c>
@@ -18712,7 +20699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:48">
+    <row r="186" spans="1:53">
       <c r="A186">
         <f t="array" ref="A186:D189">MMULT(AN179:AQ182,TRANSPOSE(AS179:AV182))</f>
         <v>4.0028589621601824</v>
@@ -18823,8 +20810,21 @@
       <c r="AV186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:48">
+      <c r="AX186">
+        <f t="array" ref="AX186:BA189">MMULT(AX179:BA182,TRANSPOSE(AS186:AV189))</f>
+        <v>-0.43072340523966479</v>
+      </c>
+      <c r="AY186">
+        <v>-0.54901682706085564</v>
+      </c>
+      <c r="AZ186">
+        <v>-0.5128916165436731</v>
+      </c>
+      <c r="BA186">
+        <v>-0.50000006146199216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:53">
       <c r="A187">
         <v>1.2547279607978969E-4</v>
       </c>
@@ -18946,8 +20946,20 @@
       <c r="AV187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:48">
+      <c r="AX187">
+        <v>0.78974078449641627</v>
+      </c>
+      <c r="AY187">
+        <v>0.14067729200294629</v>
+      </c>
+      <c r="AZ187">
+        <v>-0.3263730284601904</v>
+      </c>
+      <c r="BA187">
+        <v>-0.50000003911142443</v>
+      </c>
+    </row>
+    <row r="188" spans="1:53">
       <c r="A188">
         <v>-3.7763682860147681E-16</v>
       </c>
@@ -19070,8 +21082,20 @@
       <c r="AV188">
         <v>1.1982394777658529E-7</v>
       </c>
-    </row>
-    <row r="189" spans="1:48">
+      <c r="AX188">
+        <v>-0.43084521918341173</v>
+      </c>
+      <c r="AY188">
+        <v>0.74979777046273144</v>
+      </c>
+      <c r="AZ188">
+        <v>4.6644464885398328E-2</v>
+      </c>
+      <c r="BA188">
+        <v>-0.49999999441146953</v>
+      </c>
+    </row>
+    <row r="189" spans="1:53">
       <c r="A189">
         <v>-2.8728787233688154E-17</v>
       </c>
@@ -19184,13 +21208,25 @@
       <c r="AV189">
         <v>0.99999999999999278</v>
       </c>
-    </row>
-    <row r="191" spans="1:48">
+      <c r="AX189">
+        <v>7.18278399266601E-2</v>
+      </c>
+      <c r="AY189">
+        <v>-0.34145823540788239</v>
+      </c>
+      <c r="AZ189">
+        <v>0.79262041979026487</v>
+      </c>
+      <c r="BA189">
+        <v>-0.49999990501509944</v>
+      </c>
+    </row>
+    <row r="191" spans="1:53">
       <c r="A191" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="192" spans="1:48">
+    <row r="192" spans="1:53">
       <c r="A192">
         <v>4</v>
       </c>
@@ -19210,7 +21246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:48">
+    <row r="193" spans="1:53">
       <c r="A193">
         <f t="array" ref="A193:D196">MMULT(AN186:AQ189,TRANSPOSE(AS186:AV189))</f>
         <v>4.0021427693022726</v>
@@ -19321,8 +21357,21 @@
       <c r="AV193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:48">
+      <c r="AX193">
+        <f t="array" ref="AX193:BA196">MMULT(AX186:BA189,TRANSPOSE(AS193:AV196))</f>
+        <v>-0.4307362973123251</v>
+      </c>
+      <c r="AY193">
+        <v>-0.54901108039910562</v>
+      </c>
+      <c r="AZ193">
+        <v>-0.51288697102265446</v>
+      </c>
+      <c r="BA193">
+        <v>-0.50000003073188115</v>
+      </c>
+    </row>
+    <row r="194" spans="1:53">
       <c r="A194">
         <v>9.3979616147856615E-5</v>
       </c>
@@ -19444,8 +21493,20 @@
       <c r="AV194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:48">
+      <c r="AX194">
+        <v>0.78974408770853</v>
+      </c>
+      <c r="AY194">
+        <v>0.14065596754591261</v>
+      </c>
+      <c r="AZ194">
+        <v>-0.32637425628677197</v>
+      </c>
+      <c r="BA194">
+        <v>-0.50000001955640061</v>
+      </c>
+    </row>
+    <row r="195" spans="1:53">
       <c r="A195">
         <v>-3.7763683147436564E-16</v>
       </c>
@@ -19568,8 +21629,20 @@
       <c r="AV195">
         <v>5.9915953436591731E-8</v>
       </c>
-    </row>
-    <row r="196" spans="1:48">
+      <c r="AX195">
+        <v>-0.43082761206989617</v>
+      </c>
+      <c r="AY195">
+        <v>0.74980828471055294</v>
+      </c>
+      <c r="AZ195">
+        <v>4.6638049398914271E-2</v>
+      </c>
+      <c r="BA195">
+        <v>-0.49999999720583366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:53">
       <c r="A196">
         <v>-2.866974200605919E-17</v>
       </c>
@@ -19682,13 +21755,25 @@
       <c r="AV196">
         <v>0.99999999999999822</v>
       </c>
-    </row>
-    <row r="198" spans="1:48">
+      <c r="AX196">
+        <v>7.1819821673691109E-2</v>
+      </c>
+      <c r="AY196">
+        <v>-0.3414531718583792</v>
+      </c>
+      <c r="AZ196">
+        <v>0.79262329775040496</v>
+      </c>
+      <c r="BA196">
+        <v>-0.49999995250588097</v>
+      </c>
+    </row>
+    <row r="198" spans="1:53">
       <c r="A198" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:48">
+    <row r="199" spans="1:53">
       <c r="A199">
         <v>4</v>
       </c>
@@ -19708,7 +21793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:48">
+    <row r="200" spans="1:53">
       <c r="A200">
         <f t="array" ref="A200:D203">MMULT(AN193:AQ196,TRANSPOSE(AS193:AV196))</f>
         <v>4.0016062562739627</v>
@@ -19819,8 +21904,21 @@
       <c r="AV200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:48">
+      <c r="AX200">
+        <f t="array" ref="AX200:BA203">MMULT(AX193:BA196,TRANSPOSE(AS200:AV203))</f>
+        <v>-0.4307459578761027</v>
+      </c>
+      <c r="AY200">
+        <v>-0.54900641363815383</v>
+      </c>
+      <c r="AZ200">
+        <v>-0.51288386813325859</v>
+      </c>
+      <c r="BA200">
+        <v>-0.50000001536623728</v>
+      </c>
+    </row>
+    <row r="201" spans="1:53">
       <c r="A201">
         <v>7.0413950986124638E-5</v>
       </c>
@@ -19942,8 +22040,20 @@
       <c r="AV201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:48">
+      <c r="AX201">
+        <v>0.78974656262797704</v>
+      </c>
+      <c r="AY201">
+        <v>0.14064021733094947</v>
+      </c>
+      <c r="AZ201">
+        <v>-0.32637506998538784</v>
+      </c>
+      <c r="BA201">
+        <v>-0.50000000977843062</v>
+      </c>
+    </row>
+    <row r="202" spans="1:53">
       <c r="A202">
         <v>-3.7763683315124051E-16</v>
       </c>
@@ -20066,8 +22176,20 @@
       <c r="AV202">
         <v>2.9959304834896687E-8</v>
       </c>
-    </row>
-    <row r="203" spans="1:48">
+      <c r="AX202">
+        <v>-0.43081441806045989</v>
+      </c>
+      <c r="AY202">
+        <v>0.74981613047012019</v>
+      </c>
+      <c r="AZ202">
+        <v>4.6633776118746202E-2</v>
+      </c>
+      <c r="BA202">
+        <v>-0.49999999860294941</v>
+      </c>
+    </row>
+    <row r="203" spans="1:53">
       <c r="A203">
         <v>-2.8625520238418099E-17</v>
       </c>
@@ -20180,13 +22302,25 @@
       <c r="AV203">
         <v>0.99999999999999956</v>
       </c>
-    </row>
-    <row r="205" spans="1:48">
+      <c r="AX203">
+        <v>7.1813813308585356E-2</v>
+      </c>
+      <c r="AY203">
+        <v>-0.34144993416325453</v>
+      </c>
+      <c r="AZ203">
+        <v>0.79262522192118356</v>
+      </c>
+      <c r="BA203">
+        <v>-0.49999997625238185</v>
+      </c>
+    </row>
+    <row r="205" spans="1:53">
       <c r="A205" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:48">
+    <row r="206" spans="1:53">
       <c r="A206">
         <v>4</v>
       </c>
@@ -20206,7 +22340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:48">
+    <row r="207" spans="1:53">
       <c r="A207">
         <f t="array" ref="A207:D210">MMULT(AN200:AQ203,TRANSPOSE(AS200:AV203))</f>
         <v>4.001204228600364</v>
@@ -20317,8 +22451,21 @@
       <c r="AV207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:48">
+      <c r="AX207">
+        <f t="array" ref="AX207:BA210">MMULT(AX200:BA203,TRANSPOSE(AS207:AV210))</f>
+        <v>-0.43075319848371046</v>
+      </c>
+      <c r="AY207">
+        <v>-0.54900267489796784</v>
+      </c>
+      <c r="AZ207">
+        <v>-0.51288179658446698</v>
+      </c>
+      <c r="BA207">
+        <v>-0.50000000768321895</v>
+      </c>
+    </row>
+    <row r="208" spans="1:53">
       <c r="A208">
         <v>5.2770421171277919E-5</v>
       </c>
@@ -20440,8 +22587,20 @@
       <c r="AV208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:48">
+      <c r="AX208">
+        <v>0.7897484174117515</v>
+      </c>
+      <c r="AY208">
+        <v>0.14062856567455187</v>
+      </c>
+      <c r="AZ208">
+        <v>-0.32637561003031268</v>
+      </c>
+      <c r="BA208">
+        <v>-0.50000000488929286</v>
+      </c>
+    </row>
+    <row r="209" spans="1:53">
       <c r="A209">
         <v>-3.7763683388367533E-16</v>
       </c>
@@ -20564,8 +22723,20 @@
       <c r="AV209">
         <v>1.4980095523151199E-8</v>
       </c>
-    </row>
-    <row r="210" spans="1:48">
+      <c r="AX209">
+        <v>-0.4308045289719109</v>
+      </c>
+      <c r="AY209">
+        <v>0.74982198885305051</v>
+      </c>
+      <c r="AZ209">
+        <v>4.6630929094971539E-2</v>
+      </c>
+      <c r="BA209">
+        <v>-0.49999999930148525</v>
+      </c>
+    </row>
+    <row r="210" spans="1:53">
       <c r="A210">
         <v>-2.8592388397790419E-17</v>
       </c>
@@ -20678,13 +22849,25 @@
       <c r="AV210">
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="212" spans="1:48">
+      <c r="AX210">
+        <v>7.180931004386959E-2</v>
+      </c>
+      <c r="AY210">
+        <v>-0.34144787962974649</v>
+      </c>
+      <c r="AZ210">
+        <v>0.79262650748090047</v>
+      </c>
+      <c r="BA210">
+        <v>-0.49999998812600271</v>
+      </c>
+    </row>
+    <row r="212" spans="1:53">
       <c r="A212" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:48">
+    <row r="213" spans="1:53">
       <c r="A213">
         <v>4</v>
       </c>
@@ -20704,7 +22887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:48">
+    <row r="214" spans="1:53">
       <c r="A214">
         <f t="array" ref="A214:D217">MMULT(AN207:AQ210,TRANSPOSE(AS207:AV210))</f>
         <v>4.0009029096613462</v>
@@ -20815,8 +22998,21 @@
       <c r="AV214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:48">
+      <c r="AX214">
+        <f t="array" ref="AX214:BA217">MMULT(AX207:BA210,TRANSPOSE(AS214:AV217))</f>
+        <v>-0.4307586262108325</v>
+      </c>
+      <c r="AY214">
+        <v>-0.5489997112666487</v>
+      </c>
+      <c r="AZ214">
+        <v>-0.51288041406593832</v>
+      </c>
+      <c r="BA214">
+        <v>-0.50000000384164434</v>
+      </c>
+    </row>
+    <row r="215" spans="1:53">
       <c r="A215">
         <v>3.9555168773523528E-5</v>
       </c>
@@ -20938,8 +23134,20 @@
       <c r="AV215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:48">
+      <c r="AX215">
+        <v>0.78974980770598091</v>
+      </c>
+      <c r="AY215">
+        <v>0.14061993364891856</v>
+      </c>
+      <c r="AZ215">
+        <v>-0.32637596885228271</v>
+      </c>
+      <c r="BA215">
+        <v>-0.50000000244467291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:53">
       <c r="A216">
         <v>-3.7763683430173054E-16</v>
       </c>
@@ -21062,8 +23270,20 @@
       <c r="AV216">
         <v>7.4901955635234764E-9</v>
       </c>
-    </row>
-    <row r="217" spans="1:48">
+      <c r="AX216">
+        <v>-0.43079711579038071</v>
+      </c>
+      <c r="AY216">
+        <v>0.74982636573564243</v>
+      </c>
+      <c r="AZ216">
+        <v>4.6629031982463952E-2</v>
+      </c>
+      <c r="BA216">
+        <v>-0.49999999965074582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:53">
       <c r="A217">
         <v>-2.8567558680333453E-17</v>
       </c>
@@ -21176,13 +23396,25 @@
       <c r="AV217">
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="219" spans="1:48">
+      <c r="AX217">
+        <v>7.180593429523198E-2</v>
+      </c>
+      <c r="AY217">
+        <v>-0.34144658811794865</v>
+      </c>
+      <c r="AZ217">
+        <v>0.79262736591645833</v>
+      </c>
+      <c r="BA217">
+        <v>-0.49999999406293666</v>
+      </c>
+    </row>
+    <row r="219" spans="1:53">
       <c r="A219" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:48">
+    <row r="220" spans="1:53">
       <c r="A220">
         <v>4</v>
       </c>
@@ -21202,7 +23434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:48">
+    <row r="221" spans="1:53">
       <c r="A221">
         <f t="array" ref="A221:D224">MMULT(AN214:AQ217,TRANSPOSE(AS214:AV217))</f>
         <v>4.0006770344709111</v>
@@ -21313,8 +23545,21 @@
       <c r="AV221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:48">
+      <c r="AX221">
+        <f t="array" ref="AX221:BA224">MMULT(AX214:BA217,TRANSPOSE(AS221:AV224))</f>
+        <v>-0.4307626954611547</v>
+      </c>
+      <c r="AY221">
+        <v>-0.54899738189991254</v>
+      </c>
+      <c r="AZ221">
+        <v>-0.51287949164033364</v>
+      </c>
+      <c r="BA221">
+        <v>-0.50000000192083527</v>
+      </c>
+    </row>
+    <row r="222" spans="1:53">
       <c r="A222">
         <v>2.9653574159401107E-5</v>
       </c>
@@ -21436,8 +23681,20 @@
       <c r="AV222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:48">
+      <c r="AX222">
+        <v>0.78975084997877698</v>
+      </c>
+      <c r="AY222">
+        <v>0.14061353041883837</v>
+      </c>
+      <c r="AZ222">
+        <v>-0.32637620746402923</v>
+      </c>
+      <c r="BA222">
+        <v>-0.500000001222346</v>
+      </c>
+    </row>
+    <row r="223" spans="1:53">
       <c r="A223">
         <v>-3.7763683449590791E-16</v>
       </c>
@@ -21560,8 +23817,20 @@
       <c r="AV223">
         <v>3.7451470740892137E-9</v>
       </c>
-    </row>
-    <row r="224" spans="1:48">
+      <c r="AX223">
+        <v>-0.43079155796131963</v>
+      </c>
+      <c r="AY223">
+        <v>0.74982963734729813</v>
+      </c>
+      <c r="AZ223">
+        <v>4.6627767687337271E-2</v>
+      </c>
+      <c r="BA223">
+        <v>-0.49999999982537369</v>
+      </c>
+    </row>
+    <row r="224" spans="1:53">
       <c r="A224">
         <v>-2.8548947055375913E-17</v>
       </c>
@@ -21674,13 +23943,25 @@
       <c r="AV224">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:48">
+      <c r="AX224">
+        <v>7.1803403443697095E-2</v>
+      </c>
+      <c r="AY224">
+        <v>-0.34144578586623525</v>
+      </c>
+      <c r="AZ224">
+        <v>0.79262793890743266</v>
+      </c>
+      <c r="BA224">
+        <v>-0.49999999703144488</v>
+      </c>
+    </row>
+    <row r="226" spans="1:53">
       <c r="A226" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:48">
+    <row r="227" spans="1:53">
       <c r="A227">
         <v>4</v>
       </c>
@@ -21700,7 +23981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:48">
+    <row r="228" spans="1:53">
       <c r="A228">
         <f t="array" ref="A228:D231">MMULT(AN221:AQ224,TRANSPOSE(AS221:AV224))</f>
         <v>4.0005076924646046</v>
@@ -21811,8 +24092,21 @@
       <c r="AV228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:48">
+      <c r="AX228">
+        <f t="array" ref="AX228:BA231">MMULT(AX221:BA224,TRANSPOSE(AS228:AV231))</f>
+        <v>-0.43076574652464966</v>
+      </c>
+      <c r="AY228">
+        <v>-0.54899556363458457</v>
+      </c>
+      <c r="AZ228">
+        <v>-0.51287887631504481</v>
+      </c>
+      <c r="BA228">
+        <v>-0.50000000096042341</v>
+      </c>
+    </row>
+    <row r="229" spans="1:53">
       <c r="A229">
         <v>2.2232946816635077E-5</v>
       </c>
@@ -21934,8 +24228,20 @@
       <c r="AV229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:48">
+      <c r="AX229">
+        <v>0.78975163143068083</v>
+      </c>
+      <c r="AY229">
+        <v>0.14060877498564489</v>
+      </c>
+      <c r="AZ229">
+        <v>-0.32637636623756455</v>
+      </c>
+      <c r="BA229">
+        <v>-0.50000000061117689</v>
+      </c>
+    </row>
+    <row r="230" spans="1:53">
       <c r="A230">
         <v>-3.7763683459186677E-16</v>
       </c>
@@ -22058,8 +24364,20 @@
       <c r="AV230">
         <v>1.8725899740728071E-9</v>
       </c>
-    </row>
-    <row r="231" spans="1:48">
+      <c r="AX230">
+        <v>-0.43078739075296907</v>
+      </c>
+      <c r="AY230">
+        <v>0.74983208381371513</v>
+      </c>
+      <c r="AZ230">
+        <v>4.6626925044907695E-2</v>
+      </c>
+      <c r="BA230">
+        <v>-0.49999999991268679</v>
+      </c>
+    </row>
+    <row r="231" spans="1:53">
       <c r="A231">
         <v>-2.8534994277233811E-17</v>
       </c>
@@ -22172,13 +24490,25 @@
       <c r="AV231">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:48">
+      <c r="AX231">
+        <v>7.1801505846937536E-2</v>
+      </c>
+      <c r="AY231">
+        <v>-0.34144529516477828</v>
+      </c>
+      <c r="AZ231">
+        <v>0.7926283212529287</v>
+      </c>
+      <c r="BA231">
+        <v>-0.49999999851571275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:53">
       <c r="A233" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:48">
+    <row r="234" spans="1:53">
       <c r="A234">
         <v>4</v>
       </c>
@@ -22198,7 +24528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:48">
+    <row r="235" spans="1:53">
       <c r="A235">
         <f t="array" ref="A235:D238">MMULT(AN228:AQ231,TRANSPOSE(AS228:AV231))</f>
         <v>4.0003807223074199</v>
@@ -22309,8 +24639,21 @@
       <c r="AV235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:48">
+      <c r="AX235">
+        <f t="array" ref="AX235:BA238">MMULT(AX228:BA231,TRANSPOSE(AS235:AV238))</f>
+        <v>-0.43076803432788691</v>
+      </c>
+      <c r="AY235">
+        <v>-0.54899415236124594</v>
+      </c>
+      <c r="AZ235">
+        <v>-0.51287846591003483</v>
+      </c>
+      <c r="BA235">
+        <v>-0.50000000048021509</v>
+      </c>
+    </row>
+    <row r="236" spans="1:53">
       <c r="A236">
         <v>1.6670624566058598E-5</v>
       </c>
@@ -22432,8 +24775,20 @@
       <c r="AV236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:48">
+      <c r="AX236">
+        <v>0.78975221737707657</v>
+      </c>
+      <c r="AY236">
+        <v>0.14060523962070925</v>
+      </c>
+      <c r="AZ236">
+        <v>-0.3263764719363248</v>
+      </c>
+      <c r="BA236">
+        <v>-0.50000000030559044</v>
+      </c>
+    </row>
+    <row r="237" spans="1:53">
       <c r="A237">
         <v>-3.7763683463921174E-16</v>
       </c>
@@ -22556,8 +24911,20 @@
       <c r="AV237">
         <v>9.3630046760854184E-10</v>
       </c>
-    </row>
-    <row r="238" spans="1:48">
+      <c r="AX237">
+        <v>-0.43078426600435427</v>
+      </c>
+      <c r="AY237">
+        <v>0.74983391390594767</v>
+      </c>
+      <c r="AZ237">
+        <v>4.6626363392764804E-2</v>
+      </c>
+      <c r="BA237">
+        <v>-0.49999999995634309</v>
+      </c>
+    </row>
+    <row r="238" spans="1:53">
       <c r="A238">
         <v>-2.8524533006738148E-17</v>
       </c>
@@ -22670,13 +25037,25 @@
       <c r="AV238">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:48">
+      <c r="AX238">
+        <v>7.180008295516431E-2</v>
+      </c>
+      <c r="AY238">
+        <v>-0.34144500116541104</v>
+      </c>
+      <c r="AZ238">
+        <v>0.79262857632622097</v>
+      </c>
+      <c r="BA238">
+        <v>-0.49999999925785127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:53">
       <c r="A240" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:48">
+    <row r="241" spans="1:53">
       <c r="A241">
         <v>4</v>
       </c>
@@ -22696,7 +25075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:48">
+    <row r="242" spans="1:53">
       <c r="A242">
         <f t="array" ref="A242:D245">MMULT(AN235:AQ238,TRANSPOSE(AS235:AV238))</f>
         <v>4.000285515201476</v>
@@ -22807,8 +25186,21 @@
       <c r="AV242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:48">
+      <c r="AX242">
+        <f t="array" ref="AX242:BA245">MMULT(AX235:BA238,TRANSPOSE(AS242:AV245))</f>
+        <v>-0.43076974990089961</v>
+      </c>
+      <c r="AY242">
+        <v>-0.5489930621449095</v>
+      </c>
+      <c r="AZ242">
+        <v>-0.51287819221230491</v>
+      </c>
+      <c r="BA242">
+        <v>-0.50000000024011015</v>
+      </c>
+    </row>
+    <row r="243" spans="1:53">
       <c r="A243">
         <v>1.2500661905512433E-5</v>
       </c>
@@ -22930,8 +25322,20 @@
       <c r="AV243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:48">
+      <c r="AX243">
+        <v>0.78975265675649842</v>
+      </c>
+      <c r="AY243">
+        <v>0.14060260883725378</v>
+      </c>
+      <c r="AZ243">
+        <v>-0.32637654232713048</v>
+      </c>
+      <c r="BA243">
+        <v>-0.50000000015279655</v>
+      </c>
+    </row>
+    <row r="244" spans="1:53">
       <c r="A244">
         <v>-3.7763683466252707E-16</v>
       </c>
@@ -23054,8 +25458,20 @@
       <c r="AV244">
         <v>4.6815206105210462E-10</v>
       </c>
-    </row>
-    <row r="245" spans="1:48">
+      <c r="AX244">
+        <v>-0.43078192281444411</v>
+      </c>
+      <c r="AY244">
+        <v>0.74983528334344518</v>
+      </c>
+      <c r="AZ244">
+        <v>4.6625989012288475E-2</v>
+      </c>
+      <c r="BA244">
+        <v>-0.49999999997817113</v>
+      </c>
+    </row>
+    <row r="245" spans="1:53">
       <c r="A245">
         <v>-2.8516688903369688E-17</v>
       </c>
@@ -23168,13 +25584,25 @@
       <c r="AV245">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:48">
+      <c r="AX245">
+        <v>7.17990159588449E-2</v>
+      </c>
+      <c r="AY245">
+        <v>-0.34144483003578857</v>
+      </c>
+      <c r="AZ245">
+        <v>0.79262874646346904</v>
+      </c>
+      <c r="BA245">
+        <v>-0.49999999962892205</v>
+      </c>
+    </row>
+    <row r="247" spans="1:53">
       <c r="A247" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:48">
+    <row r="248" spans="1:53">
       <c r="A248">
         <v>4</v>
       </c>
@@ -23194,7 +25622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:48">
+    <row r="249" spans="1:53">
       <c r="A249">
         <f t="array" ref="A249:D252">MMULT(AN242:AQ245,TRANSPOSE(AS242:AV245))</f>
         <v>4.0002141214438058</v>
@@ -23305,8 +25733,21 @@
       <c r="AV249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:48">
+      <c r="AX249">
+        <f t="array" ref="AX249:BA252">MMULT(AX242:BA245,TRANSPOSE(AS249:AV252))</f>
+        <v>-0.43077103642281978</v>
+      </c>
+      <c r="AY249">
+        <v>-0.54899222328326924</v>
+      </c>
+      <c r="AZ249">
+        <v>-0.51287800969981678</v>
+      </c>
+      <c r="BA249">
+        <v>-0.50000000012005741</v>
+      </c>
+    </row>
+    <row r="250" spans="1:53">
       <c r="A250">
         <v>9.3741947558755912E-6</v>
       </c>
@@ -23428,8 +25869,20 @@
       <c r="AV250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:48">
+      <c r="AX250">
+        <v>0.78975298624575163</v>
+      </c>
+      <c r="AY250">
+        <v>0.14060064953863485</v>
+      </c>
+      <c r="AZ250">
+        <v>-0.3263765892168603</v>
+      </c>
+      <c r="BA250">
+        <v>-0.50000000007639944</v>
+      </c>
+    </row>
+    <row r="251" spans="1:53">
       <c r="A251">
         <v>-3.7763683467313828E-16</v>
       </c>
@@ -23552,8 +26005,20 @@
       <c r="AV251">
         <v>2.3407663970612693E-10</v>
       </c>
-    </row>
-    <row r="252" spans="1:48">
+      <c r="AX251">
+        <v>-0.43078016563182858</v>
+      </c>
+      <c r="AY251">
+        <v>0.74983630835647053</v>
+      </c>
+      <c r="AZ251">
+        <v>4.6625739452245574E-2</v>
+      </c>
+      <c r="BA251">
+        <v>-0.49999999998908512</v>
+      </c>
+    </row>
+    <row r="252" spans="1:53">
       <c r="A252">
         <v>-2.8510806859175317E-17</v>
       </c>
@@ -23666,13 +26131,25 @@
       <c r="AV252">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:48">
+      <c r="AX252">
+        <v>7.1798215808896268E-2</v>
+      </c>
+      <c r="AY252">
+        <v>-0.34144473461183494</v>
+      </c>
+      <c r="AZ252">
+        <v>0.79262885993260046</v>
+      </c>
+      <c r="BA252">
+        <v>-0.49999999981445797</v>
+      </c>
+    </row>
+    <row r="254" spans="1:53">
       <c r="A254" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="255" spans="1:48">
+    <row r="255" spans="1:53">
       <c r="A255">
         <v>4</v>
       </c>
@@ -23692,7 +26169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:48">
+    <row r="256" spans="1:53">
       <c r="A256">
         <f t="array" ref="A256:D259">MMULT(AN249:AQ252,TRANSPOSE(AS249:AV252))</f>
         <v>4.0001605826518434</v>
@@ -23803,8 +26280,21 @@
       <c r="AV256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:48">
+      <c r="AX256">
+        <f t="array" ref="AX256:BA259">MMULT(AX249:BA252,TRANSPOSE(AS256:AV259))</f>
+        <v>-0.43077200122513853</v>
+      </c>
+      <c r="AY256">
+        <v>-0.54899157999007087</v>
+      </c>
+      <c r="AZ256">
+        <v>-0.51287788800109546</v>
+      </c>
+      <c r="BA256">
+        <v>-0.50000000006003098</v>
+      </c>
+    </row>
+    <row r="257" spans="1:53">
       <c r="A257">
         <v>7.0299117233923521E-6</v>
       </c>
@@ -23926,8 +26416,20 @@
       <c r="AV257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:48">
+      <c r="AX257">
+        <v>0.78975323333715097</v>
+      </c>
+      <c r="AY257">
+        <v>0.14059918923575904</v>
+      </c>
+      <c r="AZ257">
+        <v>-0.32637662045796256</v>
+      </c>
+      <c r="BA257">
+        <v>-0.50000000003820078</v>
+      </c>
+    </row>
+    <row r="258" spans="1:53">
       <c r="A258">
         <v>-3.776368346787531E-16</v>
       </c>
@@ -24050,8 +26552,20 @@
       <c r="AV258">
         <v>1.1703852293735515E-10</v>
       </c>
-    </row>
-    <row r="259" spans="1:48">
+      <c r="AX258">
+        <v>-0.43077884786330239</v>
+      </c>
+      <c r="AY258">
+        <v>0.74983707575235381</v>
+      </c>
+      <c r="AZ258">
+        <v>4.6625573092264672E-2</v>
+      </c>
+      <c r="BA258">
+        <v>-0.49999999999454209</v>
+      </c>
+    </row>
+    <row r="259" spans="1:53">
       <c r="A259">
         <v>-2.8506395903792142E-17</v>
       </c>
@@ -24164,13 +26678,25 @@
       <c r="AV259">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:48">
+      <c r="AX259">
+        <v>7.1797615751289415E-2</v>
+      </c>
+      <c r="AY259">
+        <v>-0.3414446849980407</v>
+      </c>
+      <c r="AZ259">
+        <v>0.7926289356008851</v>
+      </c>
+      <c r="BA259">
+        <v>-0.4999999999072261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:53">
       <c r="A261" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:48">
+    <row r="262" spans="1:53">
       <c r="A262">
         <v>4</v>
       </c>
@@ -24190,7 +26716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:48">
+    <row r="263" spans="1:53">
       <c r="A263">
         <f t="array" ref="A263:D266">MMULT(AN256:AQ259,TRANSPOSE(AS256:AV259))</f>
         <v>4.0001204322375985</v>
@@ -24301,8 +26827,21 @@
       <c r="AV263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:48">
+      <c r="AX263">
+        <f t="array" ref="AX263:BA266">MMULT(AX256:BA259,TRANSPOSE(AS263:AV266))</f>
+        <v>-0.4307727247765773</v>
+      </c>
+      <c r="AY263">
+        <v>-0.54899108808102193</v>
+      </c>
+      <c r="AZ263">
+        <v>-0.51287780685672213</v>
+      </c>
+      <c r="BA263">
+        <v>-0.50000000003001777</v>
+      </c>
+    </row>
+    <row r="264" spans="1:53">
       <c r="A264">
         <v>5.2720196378878325E-6</v>
       </c>
@@ -24424,8 +26963,20 @@
       <c r="AV264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:48">
+      <c r="AX264">
+        <v>0.78975341864130744</v>
+      </c>
+      <c r="AY264">
+        <v>0.14059810011039714</v>
+      </c>
+      <c r="AZ264">
+        <v>-0.32637664127601379</v>
+      </c>
+      <c r="BA264">
+        <v>-0.50000000001910139</v>
+      </c>
+    </row>
+    <row r="265" spans="1:53">
       <c r="A265">
         <v>-3.7763683468131054E-16</v>
       </c>
@@ -24548,8 +27099,20 @@
       <c r="AV265">
         <v>5.8519329169442522E-11</v>
       </c>
-    </row>
-    <row r="266" spans="1:48">
+      <c r="AX265">
+        <v>-0.4307778596037356</v>
+      </c>
+      <c r="AY265">
+        <v>0.74983765039727834</v>
+      </c>
+      <c r="AZ265">
+        <v>4.6625462192261387E-2</v>
+      </c>
+      <c r="BA265">
+        <v>-0.49999999999727057</v>
+      </c>
+    </row>
+    <row r="266" spans="1:53">
       <c r="A266">
         <v>-2.8503088010511538E-17</v>
       </c>
@@ -24662,13 +27225,25 @@
       <c r="AV266">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:48">
+      <c r="AX266">
+        <v>7.1797165739004909E-2</v>
+      </c>
+      <c r="AY266">
+        <v>-0.34144466242665211</v>
+      </c>
+      <c r="AZ266">
+        <v>0.79262898605752763</v>
+      </c>
+      <c r="BA266">
+        <v>-0.49999999995361022</v>
+      </c>
+    </row>
+    <row r="268" spans="1:53">
       <c r="A268" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:48">
+    <row r="269" spans="1:53">
       <c r="A269">
         <v>4</v>
       </c>
@@ -24688,7 +27263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:48">
+    <row r="270" spans="1:53">
       <c r="A270">
         <f t="array" ref="A270:D273">MMULT(AN263:AQ266,TRANSPOSE(AS263:AV266))</f>
         <v>4.0000903215011494</v>
@@ -24799,8 +27374,21 @@
       <c r="AV270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:48">
+      <c r="AX270">
+        <f t="array" ref="AX270:BA273">MMULT(AX263:BA266,TRANSPOSE(AS270:AV273))</f>
+        <v>-0.43077326741177729</v>
+      </c>
+      <c r="AY270">
+        <v>-0.54899071285209289</v>
+      </c>
+      <c r="AZ270">
+        <v>-0.51287775275451475</v>
+      </c>
+      <c r="BA270">
+        <v>-0.5000000000150111</v>
+      </c>
+    </row>
+    <row r="271" spans="1:53">
       <c r="A271">
         <v>3.9537812188386952E-6</v>
       </c>
@@ -24922,8 +27510,20 @@
       <c r="AV271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:48">
+      <c r="AX271">
+        <v>0.78975355761131549</v>
+      </c>
+      <c r="AY271">
+        <v>0.14059728732727067</v>
+      </c>
+      <c r="AZ271">
+        <v>-0.32637665515004333</v>
+      </c>
+      <c r="BA271">
+        <v>-0.50000000000955169</v>
+      </c>
+    </row>
+    <row r="272" spans="1:53">
       <c r="A272">
         <v>-3.7763683468264622E-16</v>
       </c>
@@ -25046,8 +27646,20 @@
       <c r="AV272">
         <v>2.925968715309951E-11</v>
       </c>
-    </row>
-    <row r="273" spans="1:48">
+      <c r="AX272">
+        <v>-0.43077711844675592</v>
+      </c>
+      <c r="AY272">
+        <v>0.74983808078375835</v>
+      </c>
+      <c r="AZ272">
+        <v>4.6625388262233468E-2</v>
+      </c>
+      <c r="BA272">
+        <v>-0.49999999999863481</v>
+      </c>
+    </row>
+    <row r="273" spans="1:53">
       <c r="A273">
         <v>-2.8500607271519359E-17</v>
       </c>
@@ -25160,13 +27772,25 @@
       <c r="AV273">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:48">
+      <c r="AX273">
+        <v>7.1796828247217143E-2</v>
+      </c>
+      <c r="AY273">
+        <v>-0.34144465525893453</v>
+      </c>
+      <c r="AZ273">
+        <v>0.79262901970085831</v>
+      </c>
+      <c r="BA273">
+        <v>-0.49999999997680228</v>
+      </c>
+    </row>
+    <row r="275" spans="1:53">
       <c r="A275" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="1:48">
+    <row r="276" spans="1:53">
       <c r="A276">
         <v>4</v>
       </c>
@@ -25186,7 +27810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:48">
+    <row r="277" spans="1:53">
       <c r="A277">
         <f t="array" ref="A277:D280">MMULT(AN270:AQ273,TRANSPOSE(AS270:AV273))</f>
         <v>4.0000677396177844</v>
@@ -25297,8 +27921,21 @@
       <c r="AV277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:48">
+      <c r="AX277">
+        <f t="array" ref="AX277:BA280">MMULT(AX270:BA273,TRANSPOSE(AS277:AV280))</f>
+        <v>-0.43077367437217118</v>
+      </c>
+      <c r="AY277">
+        <v>-0.54899042722985725</v>
+      </c>
+      <c r="AZ277">
+        <v>-0.51287771668339188</v>
+      </c>
+      <c r="BA277">
+        <v>-0.50000000000750777</v>
+      </c>
+    </row>
+    <row r="278" spans="1:53">
       <c r="A278">
         <v>2.9652042893451784E-6</v>
       </c>
@@ -25420,8 +28057,20 @@
       <c r="AV278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:48">
+      <c r="AX278">
+        <v>0.78975366183425333</v>
+      </c>
+      <c r="AY278">
+        <v>0.14059668044323359</v>
+      </c>
+      <c r="AZ278">
+        <v>-0.32637666439706242</v>
+      </c>
+      <c r="BA278">
+        <v>-0.50000000000477685</v>
+      </c>
+    </row>
+    <row r="279" spans="1:53">
       <c r="A279">
         <v>-3.7763683468324147E-16</v>
       </c>
@@ -25544,8 +28193,20 @@
       <c r="AV279">
         <v>1.4629851099677587E-11</v>
       </c>
-    </row>
-    <row r="280" spans="1:48">
+      <c r="AX279">
+        <v>-0.43077656260027736</v>
+      </c>
+      <c r="AY279">
+        <v>0.74983840317780015</v>
+      </c>
+      <c r="AZ279">
+        <v>4.6625338977194113E-2</v>
+      </c>
+      <c r="BA279">
+        <v>-0.49999999999931694</v>
+      </c>
+    </row>
+    <row r="280" spans="1:53">
       <c r="A280">
         <v>-2.8498746818639609E-17</v>
       </c>
@@ -25658,13 +28319,25 @@
       <c r="AV280">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:48">
+      <c r="AX280">
+        <v>7.1796575138194693E-2</v>
+      </c>
+      <c r="AY280">
+        <v>-0.34144465639117499</v>
+      </c>
+      <c r="AZ280">
+        <v>0.79262904213253405</v>
+      </c>
+      <c r="BA280">
+        <v>-0.49999999998839834</v>
+      </c>
+    </row>
+    <row r="282" spans="1:53">
       <c r="A282" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="283" spans="1:48">
+    <row r="283" spans="1:53">
       <c r="A283">
         <v>4</v>
       </c>
@@ -25684,7 +28357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:48">
+    <row r="284" spans="1:53">
       <c r="A284">
         <f t="array" ref="A284:D287">MMULT(AN277:AQ280,TRANSPOSE(AS277:AV280))</f>
         <v>4.0000508038639211</v>
@@ -25795,8 +28468,21 @@
       <c r="AV284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:48">
+      <c r="AX284">
+        <f t="array" ref="AX284:BA287">MMULT(AX277:BA280,TRANSPOSE(AS284:AV287))</f>
+        <v>-0.43077397958344177</v>
+      </c>
+      <c r="AY284">
+        <v>-0.54899021021145566</v>
+      </c>
+      <c r="AZ284">
+        <v>-0.5128776926344818</v>
+      </c>
+      <c r="BA284">
+        <v>-0.50000000000375611</v>
+      </c>
+    </row>
+    <row r="285" spans="1:53">
       <c r="A285">
         <v>2.2238290394572688E-6</v>
       </c>
@@ -25918,8 +28604,20 @@
       <c r="AV285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:48">
+      <c r="AX285">
+        <v>0.78975373999888376</v>
+      </c>
+      <c r="AY285">
+        <v>0.14059622708016786</v>
+      </c>
+      <c r="AZ285">
+        <v>-0.32637667056057557</v>
+      </c>
+      <c r="BA285">
+        <v>-0.50000000000238942</v>
+      </c>
+    </row>
+    <row r="286" spans="1:53">
       <c r="A286">
         <v>-3.7763683468355376E-16</v>
       </c>
@@ -26042,8 +28740,20 @@
       <c r="AV286">
         <v>7.3149280576124785E-12</v>
       </c>
-    </row>
-    <row r="287" spans="1:48">
+      <c r="AX286">
+        <v>-0.43077614572740153</v>
+      </c>
+      <c r="AY286">
+        <v>0.74983864471076611</v>
+      </c>
+      <c r="AZ286">
+        <v>4.6625306121320667E-2</v>
+      </c>
+      <c r="BA286">
+        <v>-0.499999999999658</v>
+      </c>
+    </row>
+    <row r="287" spans="1:53">
       <c r="A287">
         <v>-2.84973515357828E-17</v>
       </c>
@@ -26155,6 +28865,242 @@
       </c>
       <c r="AV287">
         <v>1</v>
+      </c>
+      <c r="AX287">
+        <v>7.1796385311959005E-2</v>
+      </c>
+      <c r="AY287">
+        <v>-0.34144466157947689</v>
+      </c>
+      <c r="AZ287">
+        <v>0.79262905708838072</v>
+      </c>
+      <c r="BA287">
+        <v>-0.49999999999419636</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>4</v>
+      </c>
+      <c r="B290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <f>AX277</f>
+        <v>-0.43077367437217118</v>
+      </c>
+      <c r="B291">
+        <f t="shared" ref="B291:D291" si="0">AY277</f>
+        <v>-0.54899042722985725</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="0"/>
+        <v>-0.51287771668339188</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="0"/>
+        <v>-0.50000000000750777</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <f t="shared" ref="A292:A294" si="1">AX278</f>
+        <v>0.78975366183425333</v>
+      </c>
+      <c r="B292">
+        <f t="shared" ref="B292:B294" si="2">AY278</f>
+        <v>0.14059668044323359</v>
+      </c>
+      <c r="C292">
+        <f t="shared" ref="C292:C294" si="3">AZ278</f>
+        <v>-0.32637666439706242</v>
+      </c>
+      <c r="D292">
+        <f t="shared" ref="D292:D294" si="4">BA278</f>
+        <v>-0.50000000000477685</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <f t="shared" si="1"/>
+        <v>-0.43077656260027736</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="2"/>
+        <v>0.74983840317780015</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="3"/>
+        <v>4.6625338977194113E-2</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>-0.49999999999931694</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <f t="shared" si="1"/>
+        <v>7.1796575138194693E-2</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="2"/>
+        <v>-0.34144465639117499</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="3"/>
+        <v>0.79262904213253405</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>-0.49999999998839834</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <f t="array" ref="A297:D300">MMULT(MMULT(A291:D294,A284:D287),TRANSPOSE(A291:D294))</f>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="B297">
+        <v>7.9936057773011271E-15</v>
+      </c>
+      <c r="C297">
+        <v>-4.4408920985006262E-15</v>
+      </c>
+      <c r="D297">
+        <v>-23.999999999999957</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>0.99999999999997158</v>
+      </c>
+      <c r="B298">
+        <v>-1.4210854715202004E-14</v>
+      </c>
+      <c r="C298">
+        <v>1.0658141036401503E-14</v>
+      </c>
+      <c r="D298">
+        <v>49.999999999999879</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>2.1316282072803006E-14</v>
+      </c>
+      <c r="B299">
+        <v>1.0000000000000107</v>
+      </c>
+      <c r="C299">
+        <v>-8.8817841970012523E-15</v>
+      </c>
+      <c r="D299">
+        <v>-34.999999999999936</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>-3.9968028886505635E-15</v>
+      </c>
+      <c r="B300">
+        <v>-1.3322676295501878E-15</v>
+      </c>
+      <c r="C300">
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="D300">
+        <v>9.999999999999984</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <f>A297-A11</f>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="B303">
+        <f t="shared" ref="B303:D303" si="5">B297-B11</f>
+        <v>7.9936057773011271E-15</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="5"/>
+        <v>-4.4408920985006262E-15</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="5"/>
+        <v>4.2632564145606011E-14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <f t="shared" ref="A304:D304" si="6">A298-A12</f>
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="6"/>
+        <v>-1.4210854715202004E-14</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="6"/>
+        <v>1.0658141036401503E-14</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="6"/>
+        <v>-1.2079226507921703E-13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <f t="shared" ref="A305:D305" si="7">A299-A13</f>
+        <v>2.1316282072803006E-14</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="7"/>
+        <v>1.0658141036401503E-14</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="7"/>
+        <v>-8.8817841970012523E-15</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="7"/>
+        <v>6.3948846218409017E-14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <f t="shared" ref="A306:D306" si="8">A300-A14</f>
+        <v>-3.9968028886505635E-15</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="8"/>
+        <v>-1.3322676295501878E-15</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="8"/>
+        <v>2.2204460492503131E-15</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="8"/>
+        <v>-1.5987211554602254E-14</v>
       </c>
     </row>
   </sheetData>
@@ -31791,7 +34737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
@@ -31800,19 +34746,19 @@
     <row r="1" spans="1:5">
       <c r="A1">
         <f ca="1">RANDBETWEEN(-10, 10)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:E10" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
@@ -31822,107 +34768,107 @@
     <row r="2" spans="1:5">
       <c r="A2">
         <f t="shared" ref="A2:A10" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
@@ -31932,89 +34878,89 @@
     <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/PureQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="450" windowWidth="28035" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="1515" yWindow="-15" windowWidth="28035" windowHeight="11475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK142"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
@@ -6919,8 +6919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303:D306"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -34746,209 +34746,209 @@
     <row r="1" spans="1:5">
       <c r="A1">
         <f ca="1">RANDBETWEEN(-10, 10)</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:E10" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <f t="shared" ref="A2:A10" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
@@ -34956,11 +34956,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
